--- a/Team Docs/PeerReview.xlsx
+++ b/Team Docs/PeerReview.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Y2\Block 3\Project startup\Design Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Huurmam van Abdullah\Desktop\Saxion\Year 2\Term 3\Project-startup\Team Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDF94A26-3B4C-481D-8877-753F04811E23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{277EA3C8-ACE4-4F41-93C3-8AA88ACEC538}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10308" yWindow="3648" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 2 Review" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,12 @@
     <sheet name="Progress Overview" sheetId="4" r:id="rId4"/>
     <sheet name="Data" sheetId="5" state="hidden" r:id="rId5"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -784,6 +790,7 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -815,7 +822,6 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1282,6 +1288,58 @@
 </styleSheet>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Data"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Data"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Data"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Data"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1585,40 +1643,40 @@
   </sheetPr>
   <dimension ref="A1:Z18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="A11:XFD11"/>
+    <sheetView tabSelected="1" topLeftCell="M8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y9" sqref="Y9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.44140625" customWidth="1"/>
-    <col min="2" max="2" width="8.109375" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="50.6640625" customWidth="1"/>
-    <col min="5" max="5" width="6.6640625" customWidth="1"/>
-    <col min="6" max="6" width="50.6640625" customWidth="1"/>
-    <col min="7" max="7" width="6.6640625" customWidth="1"/>
-    <col min="8" max="8" width="50.6640625" customWidth="1"/>
-    <col min="9" max="9" width="6.6640625" customWidth="1"/>
-    <col min="10" max="10" width="50.6640625" customWidth="1"/>
-    <col min="11" max="11" width="6.6640625" customWidth="1"/>
-    <col min="12" max="12" width="50.6640625" customWidth="1"/>
-    <col min="13" max="13" width="6.6640625" customWidth="1"/>
-    <col min="14" max="14" width="50.6640625" customWidth="1"/>
-    <col min="15" max="15" width="6.6640625" customWidth="1"/>
-    <col min="16" max="16" width="14.6640625" customWidth="1"/>
-    <col min="17" max="17" width="5.109375" customWidth="1"/>
-    <col min="18" max="18" width="14.6640625" customWidth="1"/>
-    <col min="19" max="19" width="5.109375" customWidth="1"/>
-    <col min="20" max="20" width="14.6640625" customWidth="1"/>
-    <col min="21" max="21" width="5.109375" customWidth="1"/>
-    <col min="22" max="22" width="15.6640625" customWidth="1"/>
-    <col min="23" max="23" width="5.109375" customWidth="1"/>
-    <col min="24" max="24" width="2.6640625" customWidth="1"/>
+    <col min="1" max="1" width="7.42578125" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="50.7109375" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" customWidth="1"/>
+    <col min="6" max="6" width="50.7109375" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" customWidth="1"/>
+    <col min="8" max="8" width="50.7109375" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="50.7109375" customWidth="1"/>
+    <col min="11" max="11" width="6.7109375" customWidth="1"/>
+    <col min="12" max="12" width="50.7109375" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" customWidth="1"/>
+    <col min="14" max="14" width="50.7109375" customWidth="1"/>
+    <col min="15" max="15" width="6.7109375" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" customWidth="1"/>
+    <col min="17" max="17" width="5.140625" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" customWidth="1"/>
+    <col min="19" max="19" width="5.140625" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" customWidth="1"/>
+    <col min="21" max="21" width="5.140625" customWidth="1"/>
+    <col min="22" max="22" width="15.7109375" customWidth="1"/>
+    <col min="23" max="23" width="5.140625" customWidth="1"/>
+    <col min="24" max="24" width="2.7109375" customWidth="1"/>
     <col min="25" max="26" width="42" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1626,35 +1684,35 @@
         <v>1</v>
       </c>
       <c r="C1" s="2"/>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="48"/>
-      <c r="V1" s="55" t="s">
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-    </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W1" s="48"/>
+      <c r="X1" s="48"/>
+      <c r="Y1" s="48"/>
+      <c r="Z1" s="48"/>
+    </row>
+    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1662,33 +1720,33 @@
         <v>12</v>
       </c>
       <c r="C2" s="5"/>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="50"/>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="50"/>
-      <c r="S2" s="50"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="51"/>
-      <c r="V2" s="56"/>
-      <c r="W2" s="50"/>
-      <c r="X2" s="50"/>
-      <c r="Y2" s="50"/>
-      <c r="Z2" s="50"/>
-    </row>
-    <row r="3" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="57"/>
+      <c r="W2" s="51"/>
+      <c r="X2" s="51"/>
+      <c r="Y2" s="51"/>
+      <c r="Z2" s="51"/>
+    </row>
+    <row r="3" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
@@ -1698,33 +1756,33 @@
       <c r="C3" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="52" t="s">
+      <c r="D3" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="53"/>
-      <c r="S3" s="53"/>
-      <c r="T3" s="53"/>
-      <c r="U3" s="54"/>
-      <c r="V3" s="57"/>
-      <c r="W3" s="53"/>
-      <c r="X3" s="53"/>
-      <c r="Y3" s="53"/>
-      <c r="Z3" s="53"/>
-    </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="54"/>
+      <c r="S3" s="54"/>
+      <c r="T3" s="54"/>
+      <c r="U3" s="55"/>
+      <c r="V3" s="58"/>
+      <c r="W3" s="54"/>
+      <c r="X3" s="54"/>
+      <c r="Y3" s="54"/>
+      <c r="Z3" s="54"/>
+    </row>
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -1786,39 +1844,39 @@
       <c r="Y4" s="10"/>
       <c r="Z4" s="10"/>
     </row>
-    <row r="5" spans="1:26" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
-      <c r="D5" s="62" t="s">
+      <c r="D5" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="50"/>
-      <c r="M5" s="50"/>
-      <c r="N5" s="50"/>
-      <c r="O5" s="50"/>
-      <c r="P5" s="50"/>
-      <c r="Q5" s="50"/>
-      <c r="R5" s="50"/>
-      <c r="S5" s="50"/>
-      <c r="T5" s="50"/>
-      <c r="U5" s="50"/>
-      <c r="V5" s="50"/>
-      <c r="W5" s="50"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="51"/>
+      <c r="Q5" s="51"/>
+      <c r="R5" s="51"/>
+      <c r="S5" s="51"/>
+      <c r="T5" s="51"/>
+      <c r="U5" s="51"/>
+      <c r="V5" s="51"/>
+      <c r="W5" s="51"/>
       <c r="X5" s="10"/>
       <c r="Y5" s="16" t="s">
         <v>20</v>
       </c>
       <c r="Z5" s="16"/>
     </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9"/>
       <c r="B6" s="17" t="s">
         <v>21</v>
@@ -1904,8 +1962,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:26" s="63" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="61" t="s">
+    <row r="7" spans="1:26" s="46" customFormat="1" ht="100.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="62" t="s">
         <v>26</v>
       </c>
       <c r="B7" s="20">
@@ -1970,8 +2028,8 @@
       <c r="Y7" s="44"/>
       <c r="Z7" s="45"/>
     </row>
-    <row r="8" spans="1:26" ht="100.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="50"/>
+    <row r="8" spans="1:26" ht="100.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="51"/>
       <c r="B8" s="20">
         <v>464704</v>
       </c>
@@ -2034,8 +2092,8 @@
       <c r="Y8" s="26"/>
       <c r="Z8" s="27"/>
     </row>
-    <row r="9" spans="1:26" s="63" customFormat="1" ht="100.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="50"/>
+    <row r="9" spans="1:26" s="46" customFormat="1" ht="100.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="51"/>
       <c r="B9" s="20">
         <v>428729</v>
       </c>
@@ -2098,8 +2156,8 @@
       <c r="Y9" s="26"/>
       <c r="Z9" s="27"/>
     </row>
-    <row r="10" spans="1:26" s="63" customFormat="1" ht="100.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="50"/>
+    <row r="10" spans="1:26" s="46" customFormat="1" ht="100.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="51"/>
       <c r="B10" s="20">
         <v>444711</v>
       </c>
@@ -2162,8 +2220,8 @@
       <c r="Y10" s="26"/>
       <c r="Z10" s="27"/>
     </row>
-    <row r="11" spans="1:26" s="63" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="50"/>
+    <row r="11" spans="1:26" s="46" customFormat="1" ht="100.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="51"/>
       <c r="B11" s="20">
         <v>445021</v>
       </c>
@@ -2226,8 +2284,8 @@
       <c r="Y11" s="26"/>
       <c r="Z11" s="27"/>
     </row>
-    <row r="12" spans="1:26" ht="100.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="50"/>
+    <row r="12" spans="1:26" ht="100.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="51"/>
       <c r="B12" s="20">
         <v>459575</v>
       </c>
@@ -2278,8 +2336,8 @@
       <c r="Y12" s="26"/>
       <c r="Z12" s="27"/>
     </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="50"/>
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="51"/>
       <c r="B13" s="20">
         <v>12335</v>
       </c>
@@ -2330,8 +2388,8 @@
       <c r="Y13" s="26"/>
       <c r="Z13" s="27"/>
     </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="50"/>
+    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="51"/>
       <c r="B14" s="20">
         <v>12335</v>
       </c>
@@ -2382,8 +2440,8 @@
       <c r="Y14" s="26"/>
       <c r="Z14" s="27"/>
     </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="50"/>
+    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="51"/>
       <c r="B15" s="20">
         <v>12335</v>
       </c>
@@ -2434,8 +2492,8 @@
       <c r="Y15" s="26"/>
       <c r="Z15" s="27"/>
     </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="50"/>
+    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="51"/>
       <c r="B16" s="20">
         <v>12335</v>
       </c>
@@ -2486,7 +2544,7 @@
       <c r="Y16" s="26"/>
       <c r="Z16" s="27"/>
     </row>
-    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="31"/>
       <c r="B17" s="32"/>
       <c r="C17" s="32"/>
@@ -2564,35 +2622,35 @@
       <c r="Y17" s="32"/>
       <c r="Z17" s="32"/>
     </row>
-    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="58" t="s">
+    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="59"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="59"/>
-      <c r="L18" s="59"/>
-      <c r="M18" s="59"/>
-      <c r="N18" s="59"/>
-      <c r="O18" s="59"/>
-      <c r="P18" s="59"/>
-      <c r="Q18" s="59"/>
-      <c r="R18" s="59"/>
-      <c r="S18" s="59"/>
-      <c r="T18" s="59"/>
-      <c r="U18" s="59"/>
-      <c r="V18" s="59"/>
-      <c r="W18" s="59"/>
-      <c r="X18" s="59"/>
-      <c r="Y18" s="59"/>
-      <c r="Z18" s="60"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="60"/>
+      <c r="O18" s="60"/>
+      <c r="P18" s="60"/>
+      <c r="Q18" s="60"/>
+      <c r="R18" s="60"/>
+      <c r="S18" s="60"/>
+      <c r="T18" s="60"/>
+      <c r="U18" s="60"/>
+      <c r="V18" s="60"/>
+      <c r="W18" s="60"/>
+      <c r="X18" s="60"/>
+      <c r="Y18" s="60"/>
+      <c r="Z18" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2651,186 +2709,186 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10 G10 I10 K10 M10 O10 Q10 S10">
-    <cfRule type="cellIs" dxfId="31" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="25" operator="equal">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10 G10 I10 K10 M10 O10 Q10 S10">
-    <cfRule type="cellIs" dxfId="30" priority="26" operator="between">
+    <cfRule type="cellIs" dxfId="46" priority="26" operator="between">
       <formula>9.99</formula>
       <formula>9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10 G10 I10 K10 M10 O10 Q10 S10">
-    <cfRule type="cellIs" dxfId="29" priority="27" operator="between">
+    <cfRule type="cellIs" dxfId="45" priority="27" operator="between">
       <formula>8.99</formula>
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10 G10 I10 K10 M10 O10 Q10 S10">
-    <cfRule type="cellIs" dxfId="28" priority="28" operator="between">
+    <cfRule type="cellIs" dxfId="44" priority="28" operator="between">
       <formula>7.99</formula>
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10 G10 I10 K10 M10 O10 Q10 S10">
-    <cfRule type="cellIs" dxfId="27" priority="29" operator="between">
+    <cfRule type="cellIs" dxfId="43" priority="29" operator="between">
       <formula>6.99</formula>
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10 G10 I10 K10 M10 O10 Q10 S10">
-    <cfRule type="cellIs" dxfId="26" priority="30" operator="between">
+    <cfRule type="cellIs" dxfId="42" priority="30" operator="between">
       <formula>5.99</formula>
       <formula>5.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10 G10 I10 K10 M10 O10 Q10 S10">
-    <cfRule type="cellIs" dxfId="25" priority="31" operator="between">
+    <cfRule type="cellIs" dxfId="41" priority="31" operator="between">
       <formula>5.49</formula>
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10 G10 I10 K10 M10 O10 Q10 S10">
-    <cfRule type="cellIs" dxfId="24" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="32" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7 G7 I7 K7 M7 O7 Q7 S7">
-    <cfRule type="cellIs" dxfId="23" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="17" operator="equal">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7 G7 I7 K7 M7 O7 Q7 S7">
-    <cfRule type="cellIs" dxfId="22" priority="18" operator="between">
+    <cfRule type="cellIs" dxfId="38" priority="18" operator="between">
       <formula>9.99</formula>
       <formula>9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7 G7 I7 K7 M7 O7 Q7 S7">
-    <cfRule type="cellIs" dxfId="21" priority="19" operator="between">
+    <cfRule type="cellIs" dxfId="37" priority="19" operator="between">
       <formula>8.99</formula>
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7 G7 I7 K7 M7 O7 Q7 S7">
-    <cfRule type="cellIs" dxfId="20" priority="20" operator="between">
+    <cfRule type="cellIs" dxfId="36" priority="20" operator="between">
       <formula>7.99</formula>
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7 G7 I7 K7 M7 O7 Q7 S7">
-    <cfRule type="cellIs" dxfId="19" priority="21" operator="between">
+    <cfRule type="cellIs" dxfId="35" priority="21" operator="between">
       <formula>6.99</formula>
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7 G7 I7 K7 M7 O7 Q7 S7">
-    <cfRule type="cellIs" dxfId="18" priority="22" operator="between">
+    <cfRule type="cellIs" dxfId="34" priority="22" operator="between">
       <formula>5.99</formula>
       <formula>5.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7 G7 I7 K7 M7 O7 Q7 S7">
-    <cfRule type="cellIs" dxfId="17" priority="23" operator="between">
+    <cfRule type="cellIs" dxfId="33" priority="23" operator="between">
       <formula>5.49</formula>
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7 G7 I7 K7 M7 O7 Q7 S7">
-    <cfRule type="cellIs" dxfId="16" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="24" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9 G9 I9 K9 M9 O9 Q9 S9">
-    <cfRule type="cellIs" dxfId="15" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="9" operator="equal">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9 G9 I9 K9 M9 O9 Q9 S9">
-    <cfRule type="cellIs" dxfId="14" priority="10" operator="between">
+    <cfRule type="cellIs" dxfId="30" priority="10" operator="between">
       <formula>9.99</formula>
       <formula>9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9 G9 I9 K9 M9 O9 Q9 S9">
-    <cfRule type="cellIs" dxfId="13" priority="11" operator="between">
+    <cfRule type="cellIs" dxfId="29" priority="11" operator="between">
       <formula>8.99</formula>
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9 G9 I9 K9 M9 O9 Q9 S9">
-    <cfRule type="cellIs" dxfId="12" priority="12" operator="between">
+    <cfRule type="cellIs" dxfId="28" priority="12" operator="between">
       <formula>7.99</formula>
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9 G9 I9 K9 M9 O9 Q9 S9">
-    <cfRule type="cellIs" dxfId="11" priority="13" operator="between">
+    <cfRule type="cellIs" dxfId="27" priority="13" operator="between">
       <formula>6.99</formula>
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9 G9 I9 K9 M9 O9 Q9 S9">
-    <cfRule type="cellIs" dxfId="10" priority="14" operator="between">
+    <cfRule type="cellIs" dxfId="26" priority="14" operator="between">
       <formula>5.99</formula>
       <formula>5.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9 G9 I9 K9 M9 O9 Q9 S9">
-    <cfRule type="cellIs" dxfId="9" priority="15" operator="between">
+    <cfRule type="cellIs" dxfId="25" priority="15" operator="between">
       <formula>5.49</formula>
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9 G9 I9 K9 M9 O9 Q9 S9">
-    <cfRule type="cellIs" dxfId="8" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="16" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11 G11 I11 K11 M11 O11 Q11 S11">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="1" operator="equal">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11 G11 I11 K11 M11 O11 Q11 S11">
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="22" priority="2" operator="between">
       <formula>9.99</formula>
       <formula>9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11 G11 I11 K11 M11 O11 Q11 S11">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="21" priority="3" operator="between">
       <formula>8.99</formula>
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11 G11 I11 K11 M11 O11 Q11 S11">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="20" priority="4" operator="between">
       <formula>7.99</formula>
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11 G11 I11 K11 M11 O11 Q11 S11">
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="19" priority="5" operator="between">
       <formula>6.99</formula>
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11 G11 I11 K11 M11 O11 Q11 S11">
-    <cfRule type="cellIs" dxfId="2" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="18" priority="6" operator="between">
       <formula>5.99</formula>
       <formula>5.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11 G11 I11 K11 M11 O11 Q11 S11">
-    <cfRule type="cellIs" dxfId="1" priority="7" operator="between">
+    <cfRule type="cellIs" dxfId="17" priority="7" operator="between">
       <formula>5.49</formula>
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11 G11 I11 K11 M11 O11 Q11 S11">
-    <cfRule type="cellIs" dxfId="0" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="8" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2886,35 +2944,35 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.44140625" customWidth="1"/>
-    <col min="2" max="2" width="8.109375" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" customWidth="1"/>
+    <col min="1" max="1" width="7.42578125" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="5.109375" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" customWidth="1"/>
-    <col min="7" max="7" width="5.109375" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" customWidth="1"/>
-    <col min="9" max="9" width="5.109375" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" customWidth="1"/>
-    <col min="11" max="11" width="5.109375" customWidth="1"/>
-    <col min="12" max="12" width="14.6640625" customWidth="1"/>
-    <col min="13" max="13" width="5.109375" customWidth="1"/>
-    <col min="14" max="14" width="14.6640625" customWidth="1"/>
-    <col min="15" max="15" width="5.109375" customWidth="1"/>
-    <col min="16" max="16" width="14.6640625" customWidth="1"/>
-    <col min="17" max="17" width="5.109375" customWidth="1"/>
-    <col min="18" max="18" width="14.6640625" customWidth="1"/>
-    <col min="19" max="19" width="5.109375" customWidth="1"/>
-    <col min="20" max="20" width="14.6640625" customWidth="1"/>
-    <col min="21" max="21" width="5.109375" customWidth="1"/>
-    <col min="22" max="22" width="15.6640625" customWidth="1"/>
-    <col min="23" max="23" width="5.109375" customWidth="1"/>
-    <col min="24" max="24" width="2.6640625" customWidth="1"/>
+    <col min="5" max="5" width="5.140625" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="5.140625" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" customWidth="1"/>
+    <col min="9" max="9" width="5.140625" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" customWidth="1"/>
+    <col min="11" max="11" width="5.140625" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" customWidth="1"/>
+    <col min="13" max="13" width="5.140625" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" customWidth="1"/>
+    <col min="15" max="15" width="5.140625" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" customWidth="1"/>
+    <col min="17" max="17" width="5.140625" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" customWidth="1"/>
+    <col min="19" max="19" width="5.140625" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" customWidth="1"/>
+    <col min="21" max="21" width="5.140625" customWidth="1"/>
+    <col min="22" max="22" width="15.7109375" customWidth="1"/>
+    <col min="23" max="23" width="5.140625" customWidth="1"/>
+    <col min="24" max="24" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2922,67 +2980,67 @@
         <v>1</v>
       </c>
       <c r="C1" s="2"/>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="48"/>
-      <c r="V1" s="55" t="s">
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-    </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W1" s="48"/>
+      <c r="X1" s="48"/>
+      <c r="Y1" s="48"/>
+      <c r="Z1" s="48"/>
+    </row>
+    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="5"/>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="50"/>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="50"/>
-      <c r="S2" s="50"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="51"/>
-      <c r="V2" s="56"/>
-      <c r="W2" s="50"/>
-      <c r="X2" s="50"/>
-      <c r="Y2" s="50"/>
-      <c r="Z2" s="50"/>
-    </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="57"/>
+      <c r="W2" s="51"/>
+      <c r="X2" s="51"/>
+      <c r="Y2" s="51"/>
+      <c r="Z2" s="51"/>
+    </row>
+    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
@@ -2990,33 +3048,33 @@
         <v>7</v>
       </c>
       <c r="C3" s="8"/>
-      <c r="D3" s="52" t="s">
+      <c r="D3" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="53"/>
-      <c r="S3" s="53"/>
-      <c r="T3" s="53"/>
-      <c r="U3" s="54"/>
-      <c r="V3" s="57"/>
-      <c r="W3" s="53"/>
-      <c r="X3" s="53"/>
-      <c r="Y3" s="53"/>
-      <c r="Z3" s="53"/>
-    </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="54"/>
+      <c r="S3" s="54"/>
+      <c r="T3" s="54"/>
+      <c r="U3" s="55"/>
+      <c r="V3" s="58"/>
+      <c r="W3" s="54"/>
+      <c r="X3" s="54"/>
+      <c r="Y3" s="54"/>
+      <c r="Z3" s="54"/>
+    </row>
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -3078,39 +3136,39 @@
       <c r="Y4" s="10"/>
       <c r="Z4" s="10"/>
     </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
-      <c r="D5" s="62" t="s">
+      <c r="D5" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="50"/>
-      <c r="M5" s="50"/>
-      <c r="N5" s="50"/>
-      <c r="O5" s="50"/>
-      <c r="P5" s="50"/>
-      <c r="Q5" s="50"/>
-      <c r="R5" s="50"/>
-      <c r="S5" s="50"/>
-      <c r="T5" s="50"/>
-      <c r="U5" s="50"/>
-      <c r="V5" s="50"/>
-      <c r="W5" s="50"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="51"/>
+      <c r="Q5" s="51"/>
+      <c r="R5" s="51"/>
+      <c r="S5" s="51"/>
+      <c r="T5" s="51"/>
+      <c r="U5" s="51"/>
+      <c r="V5" s="51"/>
+      <c r="W5" s="51"/>
       <c r="X5" s="10"/>
       <c r="Y5" s="16" t="s">
         <v>20</v>
       </c>
       <c r="Z5" s="16"/>
     </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9"/>
       <c r="B6" s="17" t="s">
         <v>21</v>
@@ -3196,8 +3254,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="61" t="s">
+    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="62" t="s">
         <v>26</v>
       </c>
       <c r="B7" s="20">
@@ -3250,8 +3308,8 @@
       <c r="Y7" s="26"/>
       <c r="Z7" s="27"/>
     </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="50"/>
+    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="51"/>
       <c r="B8" s="20">
         <v>12335</v>
       </c>
@@ -3302,8 +3360,8 @@
       <c r="Y8" s="26"/>
       <c r="Z8" s="27"/>
     </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="50"/>
+    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="51"/>
       <c r="B9" s="20">
         <v>12335</v>
       </c>
@@ -3354,8 +3412,8 @@
       <c r="Y9" s="26"/>
       <c r="Z9" s="27"/>
     </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="50"/>
+    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="51"/>
       <c r="B10" s="20">
         <v>12335</v>
       </c>
@@ -3406,8 +3464,8 @@
       <c r="Y10" s="26"/>
       <c r="Z10" s="27"/>
     </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="50"/>
+    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="51"/>
       <c r="B11" s="20">
         <v>12335</v>
       </c>
@@ -3458,8 +3516,8 @@
       <c r="Y11" s="26"/>
       <c r="Z11" s="27"/>
     </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="50"/>
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="51"/>
       <c r="B12" s="20">
         <v>12335</v>
       </c>
@@ -3510,8 +3568,8 @@
       <c r="Y12" s="26"/>
       <c r="Z12" s="27"/>
     </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="50"/>
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="51"/>
       <c r="B13" s="20">
         <v>12335</v>
       </c>
@@ -3562,8 +3620,8 @@
       <c r="Y13" s="26"/>
       <c r="Z13" s="27"/>
     </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="50"/>
+    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="51"/>
       <c r="B14" s="20">
         <v>12335</v>
       </c>
@@ -3614,8 +3672,8 @@
       <c r="Y14" s="26"/>
       <c r="Z14" s="27"/>
     </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="50"/>
+    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="51"/>
       <c r="B15" s="20">
         <v>12335</v>
       </c>
@@ -3666,8 +3724,8 @@
       <c r="Y15" s="26"/>
       <c r="Z15" s="27"/>
     </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="50"/>
+    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="51"/>
       <c r="B16" s="20">
         <v>12335</v>
       </c>
@@ -3718,7 +3776,7 @@
       <c r="Y16" s="26"/>
       <c r="Z16" s="27"/>
     </row>
-    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="31"/>
       <c r="B17" s="32"/>
       <c r="C17" s="32"/>
@@ -3796,35 +3854,35 @@
       <c r="Y17" s="32"/>
       <c r="Z17" s="32"/>
     </row>
-    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="58" t="s">
+    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="59"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="59"/>
-      <c r="L18" s="59"/>
-      <c r="M18" s="59"/>
-      <c r="N18" s="59"/>
-      <c r="O18" s="59"/>
-      <c r="P18" s="59"/>
-      <c r="Q18" s="59"/>
-      <c r="R18" s="59"/>
-      <c r="S18" s="59"/>
-      <c r="T18" s="59"/>
-      <c r="U18" s="59"/>
-      <c r="V18" s="59"/>
-      <c r="W18" s="59"/>
-      <c r="X18" s="59"/>
-      <c r="Y18" s="59"/>
-      <c r="Z18" s="60"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="60"/>
+      <c r="O18" s="60"/>
+      <c r="P18" s="60"/>
+      <c r="Q18" s="60"/>
+      <c r="R18" s="60"/>
+      <c r="S18" s="60"/>
+      <c r="T18" s="60"/>
+      <c r="U18" s="60"/>
+      <c r="V18" s="60"/>
+      <c r="W18" s="60"/>
+      <c r="X18" s="60"/>
+      <c r="Y18" s="60"/>
+      <c r="Z18" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3837,48 +3895,48 @@
     <mergeCell ref="D5:W5"/>
   </mergeCells>
   <conditionalFormatting sqref="E4 G4 I4 K4 M4 O4 Q4 S4 E7:E17 G7:G17 I7:I17 K7:K17 M7:M17 O7:O17 Q7:Q17 S7:S17 U17 W17">
-    <cfRule type="cellIs" dxfId="47" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4 G4 I4 K4 M4 O4 Q4 S4 E7:E17 G7:G17 I7:I17 K7:K17 M7:M17 O7:O17 Q7:Q17 S7:S17 U17 W17">
-    <cfRule type="cellIs" dxfId="46" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="between">
       <formula>9.99</formula>
       <formula>9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4 G4 I4 K4 M4 O4 Q4 S4 E7:E17 G7:G17 I7:I17 K7:K17 M7:M17 O7:O17 Q7:Q17 S7:S17 U17 W17">
-    <cfRule type="cellIs" dxfId="45" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="13" priority="3" operator="between">
       <formula>8.99</formula>
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4 G4 I4 K4 M4 O4 Q4 S4 E7:E17 G7:G17 I7:I17 K7:K17 M7:M17 O7:O17 Q7:Q17 S7:S17 U17 W17">
-    <cfRule type="cellIs" dxfId="44" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="12" priority="4" operator="between">
       <formula>7.99</formula>
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4 G4 I4 K4 M4 O4 Q4 S4 E7:E17 G7:G17 I7:I17 K7:K17 M7:M17 O7:O17 Q7:Q17 S7:S17 U17 W17">
-    <cfRule type="cellIs" dxfId="43" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="11" priority="5" operator="between">
       <formula>6.99</formula>
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4 G4 I4 K4 M4 O4 Q4 S4 E7:E17 G7:G17 I7:I17 K7:K17 M7:M17 O7:O17 Q7:Q17 S7:S17 U17 W17">
-    <cfRule type="cellIs" dxfId="42" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="10" priority="6" operator="between">
       <formula>5.99</formula>
       <formula>5.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4 G4 I4 K4 M4 O4 Q4 S4 E7:E17 G7:G17 I7:I17 K7:K17 M7:M17 O7:O17 Q7:Q17 S7:S17 U17 W17">
-    <cfRule type="cellIs" dxfId="41" priority="7" operator="between">
+    <cfRule type="cellIs" dxfId="9" priority="7" operator="between">
       <formula>5.49</formula>
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4 G4 I4 K4 M4 O4 Q4 S4 E7:E17 G7:G17 I7:I17 K7:K17 M7:M17 O7:O17 Q7:Q17 S7:S17 U17 W17">
-    <cfRule type="cellIs" dxfId="40" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3910,35 +3968,35 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.44140625" customWidth="1"/>
-    <col min="2" max="2" width="8.109375" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" customWidth="1"/>
+    <col min="1" max="1" width="7.42578125" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="5.109375" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" customWidth="1"/>
-    <col min="7" max="7" width="5.109375" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" customWidth="1"/>
-    <col min="9" max="9" width="5.109375" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" customWidth="1"/>
-    <col min="11" max="11" width="5.109375" customWidth="1"/>
-    <col min="12" max="12" width="14.6640625" customWidth="1"/>
-    <col min="13" max="13" width="5.109375" customWidth="1"/>
-    <col min="14" max="14" width="14.6640625" customWidth="1"/>
-    <col min="15" max="15" width="5.109375" customWidth="1"/>
-    <col min="16" max="16" width="14.6640625" customWidth="1"/>
-    <col min="17" max="17" width="5.109375" customWidth="1"/>
-    <col min="18" max="18" width="14.6640625" customWidth="1"/>
-    <col min="19" max="19" width="5.109375" customWidth="1"/>
-    <col min="20" max="20" width="14.6640625" customWidth="1"/>
-    <col min="21" max="21" width="5.109375" customWidth="1"/>
-    <col min="22" max="22" width="15.6640625" customWidth="1"/>
-    <col min="23" max="23" width="5.109375" customWidth="1"/>
-    <col min="24" max="24" width="2.6640625" customWidth="1"/>
+    <col min="5" max="5" width="5.140625" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="5.140625" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" customWidth="1"/>
+    <col min="9" max="9" width="5.140625" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" customWidth="1"/>
+    <col min="11" max="11" width="5.140625" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" customWidth="1"/>
+    <col min="13" max="13" width="5.140625" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" customWidth="1"/>
+    <col min="15" max="15" width="5.140625" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" customWidth="1"/>
+    <col min="17" max="17" width="5.140625" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" customWidth="1"/>
+    <col min="19" max="19" width="5.140625" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" customWidth="1"/>
+    <col min="21" max="21" width="5.140625" customWidth="1"/>
+    <col min="22" max="22" width="15.7109375" customWidth="1"/>
+    <col min="23" max="23" width="5.140625" customWidth="1"/>
+    <col min="24" max="24" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3946,67 +4004,67 @@
         <v>1</v>
       </c>
       <c r="C1" s="2"/>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="48"/>
-      <c r="V1" s="55" t="s">
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-    </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W1" s="48"/>
+      <c r="X1" s="48"/>
+      <c r="Y1" s="48"/>
+      <c r="Z1" s="48"/>
+    </row>
+    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="5"/>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="50"/>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="50"/>
-      <c r="S2" s="50"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="51"/>
-      <c r="V2" s="56"/>
-      <c r="W2" s="50"/>
-      <c r="X2" s="50"/>
-      <c r="Y2" s="50"/>
-      <c r="Z2" s="50"/>
-    </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="57"/>
+      <c r="W2" s="51"/>
+      <c r="X2" s="51"/>
+      <c r="Y2" s="51"/>
+      <c r="Z2" s="51"/>
+    </row>
+    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
@@ -4014,33 +4072,33 @@
         <v>7</v>
       </c>
       <c r="C3" s="8"/>
-      <c r="D3" s="52" t="s">
+      <c r="D3" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="53"/>
-      <c r="S3" s="53"/>
-      <c r="T3" s="53"/>
-      <c r="U3" s="54"/>
-      <c r="V3" s="57"/>
-      <c r="W3" s="53"/>
-      <c r="X3" s="53"/>
-      <c r="Y3" s="53"/>
-      <c r="Z3" s="53"/>
-    </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="54"/>
+      <c r="S3" s="54"/>
+      <c r="T3" s="54"/>
+      <c r="U3" s="55"/>
+      <c r="V3" s="58"/>
+      <c r="W3" s="54"/>
+      <c r="X3" s="54"/>
+      <c r="Y3" s="54"/>
+      <c r="Z3" s="54"/>
+    </row>
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -4102,39 +4160,39 @@
       <c r="Y4" s="10"/>
       <c r="Z4" s="10"/>
     </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
-      <c r="D5" s="62" t="s">
+      <c r="D5" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="50"/>
-      <c r="M5" s="50"/>
-      <c r="N5" s="50"/>
-      <c r="O5" s="50"/>
-      <c r="P5" s="50"/>
-      <c r="Q5" s="50"/>
-      <c r="R5" s="50"/>
-      <c r="S5" s="50"/>
-      <c r="T5" s="50"/>
-      <c r="U5" s="50"/>
-      <c r="V5" s="50"/>
-      <c r="W5" s="50"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="51"/>
+      <c r="Q5" s="51"/>
+      <c r="R5" s="51"/>
+      <c r="S5" s="51"/>
+      <c r="T5" s="51"/>
+      <c r="U5" s="51"/>
+      <c r="V5" s="51"/>
+      <c r="W5" s="51"/>
       <c r="X5" s="10"/>
       <c r="Y5" s="16" t="s">
         <v>20</v>
       </c>
       <c r="Z5" s="16"/>
     </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9"/>
       <c r="B6" s="17" t="s">
         <v>21</v>
@@ -4220,8 +4278,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="61" t="s">
+    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="62" t="s">
         <v>26</v>
       </c>
       <c r="B7" s="20">
@@ -4274,8 +4332,8 @@
       <c r="Y7" s="26"/>
       <c r="Z7" s="27"/>
     </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="50"/>
+    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="51"/>
       <c r="B8" s="20">
         <v>12335</v>
       </c>
@@ -4326,8 +4384,8 @@
       <c r="Y8" s="26"/>
       <c r="Z8" s="27"/>
     </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="50"/>
+    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="51"/>
       <c r="B9" s="20">
         <v>12335</v>
       </c>
@@ -4378,8 +4436,8 @@
       <c r="Y9" s="26"/>
       <c r="Z9" s="27"/>
     </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="50"/>
+    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="51"/>
       <c r="B10" s="20">
         <v>12335</v>
       </c>
@@ -4430,8 +4488,8 @@
       <c r="Y10" s="26"/>
       <c r="Z10" s="27"/>
     </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="50"/>
+    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="51"/>
       <c r="B11" s="20">
         <v>12335</v>
       </c>
@@ -4482,8 +4540,8 @@
       <c r="Y11" s="26"/>
       <c r="Z11" s="27"/>
     </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="50"/>
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="51"/>
       <c r="B12" s="20">
         <v>12335</v>
       </c>
@@ -4534,8 +4592,8 @@
       <c r="Y12" s="26"/>
       <c r="Z12" s="27"/>
     </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="50"/>
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="51"/>
       <c r="B13" s="20">
         <v>12335</v>
       </c>
@@ -4586,8 +4644,8 @@
       <c r="Y13" s="26"/>
       <c r="Z13" s="27"/>
     </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="50"/>
+    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="51"/>
       <c r="B14" s="20">
         <v>12335</v>
       </c>
@@ -4638,8 +4696,8 @@
       <c r="Y14" s="26"/>
       <c r="Z14" s="27"/>
     </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="50"/>
+    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="51"/>
       <c r="B15" s="20">
         <v>12335</v>
       </c>
@@ -4690,8 +4748,8 @@
       <c r="Y15" s="26"/>
       <c r="Z15" s="27"/>
     </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="50"/>
+    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="51"/>
       <c r="B16" s="20">
         <v>12335</v>
       </c>
@@ -4742,7 +4800,7 @@
       <c r="Y16" s="26"/>
       <c r="Z16" s="27"/>
     </row>
-    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="31"/>
       <c r="B17" s="32"/>
       <c r="C17" s="32"/>
@@ -4820,35 +4878,35 @@
       <c r="Y17" s="32"/>
       <c r="Z17" s="32"/>
     </row>
-    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="58" t="s">
+    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="59"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="59"/>
-      <c r="L18" s="59"/>
-      <c r="M18" s="59"/>
-      <c r="N18" s="59"/>
-      <c r="O18" s="59"/>
-      <c r="P18" s="59"/>
-      <c r="Q18" s="59"/>
-      <c r="R18" s="59"/>
-      <c r="S18" s="59"/>
-      <c r="T18" s="59"/>
-      <c r="U18" s="59"/>
-      <c r="V18" s="59"/>
-      <c r="W18" s="59"/>
-      <c r="X18" s="59"/>
-      <c r="Y18" s="59"/>
-      <c r="Z18" s="60"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="60"/>
+      <c r="O18" s="60"/>
+      <c r="P18" s="60"/>
+      <c r="Q18" s="60"/>
+      <c r="R18" s="60"/>
+      <c r="S18" s="60"/>
+      <c r="T18" s="60"/>
+      <c r="U18" s="60"/>
+      <c r="V18" s="60"/>
+      <c r="W18" s="60"/>
+      <c r="X18" s="60"/>
+      <c r="Y18" s="60"/>
+      <c r="Z18" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4861,48 +4919,48 @@
     <mergeCell ref="D5:W5"/>
   </mergeCells>
   <conditionalFormatting sqref="E4 G4 I4 K4 M4 O4 Q4 S4 E7:E17 G7:G17 I7:I17 K7:K17 M7:M17 O7:O17 Q7:Q17 S7:S17 U17 W17">
-    <cfRule type="cellIs" dxfId="39" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4 G4 I4 K4 M4 O4 Q4 S4 E7:E17 G7:G17 I7:I17 K7:K17 M7:M17 O7:O17 Q7:Q17 S7:S17 U17 W17">
-    <cfRule type="cellIs" dxfId="38" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="between">
       <formula>9.99</formula>
       <formula>9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4 G4 I4 K4 M4 O4 Q4 S4 E7:E17 G7:G17 I7:I17 K7:K17 M7:M17 O7:O17 Q7:Q17 S7:S17 U17 W17">
-    <cfRule type="cellIs" dxfId="37" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="between">
       <formula>8.99</formula>
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4 G4 I4 K4 M4 O4 Q4 S4 E7:E17 G7:G17 I7:I17 K7:K17 M7:M17 O7:O17 Q7:Q17 S7:S17 U17 W17">
-    <cfRule type="cellIs" dxfId="36" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="between">
       <formula>7.99</formula>
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4 G4 I4 K4 M4 O4 Q4 S4 E7:E17 G7:G17 I7:I17 K7:K17 M7:M17 O7:O17 Q7:Q17 S7:S17 U17 W17">
-    <cfRule type="cellIs" dxfId="35" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="between">
       <formula>6.99</formula>
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4 G4 I4 K4 M4 O4 Q4 S4 E7:E17 G7:G17 I7:I17 K7:K17 M7:M17 O7:O17 Q7:Q17 S7:S17 U17 W17">
-    <cfRule type="cellIs" dxfId="34" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="between">
       <formula>5.99</formula>
       <formula>5.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4 G4 I4 K4 M4 O4 Q4 S4 E7:E17 G7:G17 I7:I17 K7:K17 M7:M17 O7:O17 Q7:Q17 S7:S17 U17 W17">
-    <cfRule type="cellIs" dxfId="33" priority="7" operator="between">
+    <cfRule type="cellIs" dxfId="1" priority="7" operator="between">
       <formula>5.49</formula>
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4 G4 I4 K4 M4 O4 Q4 S4 E7:E17 G7:G17 I7:I17 K7:K17 M7:M17 O7:O17 Q7:Q17 S7:S17 U17 W17">
-    <cfRule type="cellIs" dxfId="32" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="8" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4933,24 +4991,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" customWidth="1"/>
-    <col min="3" max="4" width="57.88671875" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" customWidth="1"/>
-    <col min="6" max="6" width="5.88671875" customWidth="1"/>
-    <col min="7" max="8" width="57.88671875" customWidth="1"/>
-    <col min="11" max="11" width="3.5546875" customWidth="1"/>
-    <col min="14" max="14" width="3.5546875" customWidth="1"/>
-    <col min="17" max="17" width="3.5546875" customWidth="1"/>
-    <col min="20" max="20" width="3.5546875" customWidth="1"/>
-    <col min="23" max="23" width="3.5546875" customWidth="1"/>
-    <col min="26" max="26" width="3.5546875" customWidth="1"/>
-    <col min="29" max="29" width="3.5546875" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" customWidth="1"/>
+    <col min="3" max="4" width="57.85546875" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" customWidth="1"/>
+    <col min="6" max="6" width="5.85546875" customWidth="1"/>
+    <col min="7" max="8" width="57.85546875" customWidth="1"/>
+    <col min="11" max="11" width="3.5703125" customWidth="1"/>
+    <col min="14" max="14" width="3.5703125" customWidth="1"/>
+    <col min="17" max="17" width="3.5703125" customWidth="1"/>
+    <col min="20" max="20" width="3.5703125" customWidth="1"/>
+    <col min="23" max="23" width="3.5703125" customWidth="1"/>
+    <col min="26" max="26" width="3.5703125" customWidth="1"/>
+    <col min="29" max="29" width="3.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="34"/>
       <c r="B1" s="36" t="str">
         <f>'Week 2 Review'!C7</f>
@@ -4962,7 +5020,7 @@
         <v>Rowan Ramsey</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="34"/>
       <c r="B2" s="38" t="s">
         <v>41</v>
@@ -4984,7 +5042,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34" t="s">
         <v>44</v>
       </c>
@@ -5016,7 +5074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="34" t="s">
         <v>45</v>
       </c>
@@ -5048,7 +5106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="34" t="s">
         <v>46</v>
       </c>
@@ -5080,7 +5138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="34"/>
       <c r="B6" s="36" t="str">
         <f>'Week 2 Review'!C8</f>
@@ -5092,7 +5150,7 @@
         <v>Team Member 7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="34"/>
       <c r="B7" s="38" t="s">
         <v>41</v>
@@ -5114,7 +5172,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="34" t="s">
         <v>44</v>
       </c>
@@ -5146,7 +5204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="34" t="s">
         <v>45</v>
       </c>
@@ -5178,7 +5236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="34" t="s">
         <v>46</v>
       </c>
@@ -5210,7 +5268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="34"/>
       <c r="B11" s="36" t="str">
         <f>'Week 2 Review'!C9</f>
@@ -5222,7 +5280,7 @@
         <v>Team Member 8</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="34"/>
       <c r="B12" s="38" t="s">
         <v>41</v>
@@ -5244,7 +5302,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="34" t="s">
         <v>44</v>
       </c>
@@ -5276,7 +5334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="34" t="s">
         <v>45</v>
       </c>
@@ -5308,7 +5366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="34" t="s">
         <v>46</v>
       </c>
@@ -5340,7 +5398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="34"/>
       <c r="B16" s="36" t="str">
         <f>'Week 2 Review'!C10</f>
@@ -5353,7 +5411,7 @@
       </c>
       <c r="H16" s="34"/>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="34"/>
       <c r="B17" s="38" t="s">
         <v>41</v>
@@ -5375,7 +5433,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="34" t="s">
         <v>44</v>
       </c>
@@ -5407,7 +5465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="34" t="s">
         <v>45</v>
       </c>
@@ -5439,7 +5497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="34" t="s">
         <v>46</v>
       </c>
@@ -5471,7 +5529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="34"/>
       <c r="B21" s="36" t="str">
         <f>'Week 2 Review'!C11</f>
@@ -5485,7 +5543,7 @@
       <c r="G21" s="34"/>
       <c r="H21" s="34"/>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="34"/>
       <c r="B22" s="38" t="s">
         <v>41</v>
@@ -5507,7 +5565,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="34" t="s">
         <v>44</v>
       </c>
@@ -5539,7 +5597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="34" t="s">
         <v>45</v>
       </c>
@@ -5571,7 +5629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="34" t="s">
         <v>46</v>
       </c>
@@ -5617,3027 +5675,3027 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="35" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="35">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="35">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="35">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="35">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="35">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="35">
         <v>5.5</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="35">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="35" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="35"/>
     </row>
-    <row r="11" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="35"/>
     </row>
-    <row r="12" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="35"/>
     </row>
-    <row r="13" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="35"/>
     </row>
-    <row r="14" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="37"/>
     </row>
-    <row r="15" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="37"/>
     </row>
-    <row r="16" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="37"/>
     </row>
-    <row r="17" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="37"/>
     </row>
-    <row r="18" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="37"/>
     </row>
-    <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="37"/>
     </row>
-    <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="37"/>
     </row>
-    <row r="21" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="37"/>
     </row>
-    <row r="22" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="37"/>
     </row>
-    <row r="23" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="37"/>
     </row>
-    <row r="24" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="37"/>
     </row>
-    <row r="25" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="37"/>
     </row>
-    <row r="26" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="37"/>
     </row>
-    <row r="27" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="37"/>
     </row>
-    <row r="28" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="37"/>
     </row>
-    <row r="29" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="37"/>
     </row>
-    <row r="30" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="37"/>
     </row>
-    <row r="31" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="37"/>
     </row>
-    <row r="32" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="37"/>
     </row>
-    <row r="33" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="37"/>
     </row>
-    <row r="34" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="37"/>
     </row>
-    <row r="35" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="37"/>
     </row>
-    <row r="36" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="37"/>
     </row>
-    <row r="37" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="37"/>
     </row>
-    <row r="38" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="37"/>
     </row>
-    <row r="39" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="37"/>
     </row>
-    <row r="40" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="37"/>
     </row>
-    <row r="41" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="37"/>
     </row>
-    <row r="42" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="37"/>
     </row>
-    <row r="43" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="37"/>
     </row>
-    <row r="44" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="37"/>
     </row>
-    <row r="45" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="37"/>
     </row>
-    <row r="46" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="37"/>
     </row>
-    <row r="47" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="37"/>
     </row>
-    <row r="48" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="37"/>
     </row>
-    <row r="49" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="37"/>
     </row>
-    <row r="50" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="37"/>
     </row>
-    <row r="51" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="37"/>
     </row>
-    <row r="52" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="37"/>
     </row>
-    <row r="53" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="37"/>
     </row>
-    <row r="54" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="37"/>
     </row>
-    <row r="55" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="37"/>
     </row>
-    <row r="56" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="37"/>
     </row>
-    <row r="57" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="37"/>
     </row>
-    <row r="58" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="37"/>
     </row>
-    <row r="59" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="37"/>
     </row>
-    <row r="60" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="37"/>
     </row>
-    <row r="61" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="37"/>
     </row>
-    <row r="62" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="37"/>
     </row>
-    <row r="63" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="37"/>
     </row>
-    <row r="64" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="37"/>
     </row>
-    <row r="65" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65" s="37"/>
     </row>
-    <row r="66" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="37"/>
     </row>
-    <row r="67" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A67" s="37"/>
     </row>
-    <row r="68" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A68" s="37"/>
     </row>
-    <row r="69" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A69" s="37"/>
     </row>
-    <row r="70" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A70" s="37"/>
     </row>
-    <row r="71" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A71" s="37"/>
     </row>
-    <row r="72" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A72" s="37"/>
     </row>
-    <row r="73" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A73" s="37"/>
     </row>
-    <row r="74" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A74" s="37"/>
     </row>
-    <row r="75" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A75" s="37"/>
     </row>
-    <row r="76" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A76" s="37"/>
     </row>
-    <row r="77" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A77" s="37"/>
     </row>
-    <row r="78" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A78" s="37"/>
     </row>
-    <row r="79" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A79" s="37"/>
     </row>
-    <row r="80" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A80" s="37"/>
     </row>
-    <row r="81" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A81" s="37"/>
     </row>
-    <row r="82" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A82" s="37"/>
     </row>
-    <row r="83" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A83" s="37"/>
     </row>
-    <row r="84" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A84" s="37"/>
     </row>
-    <row r="85" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A85" s="37"/>
     </row>
-    <row r="86" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A86" s="37"/>
     </row>
-    <row r="87" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A87" s="37"/>
     </row>
-    <row r="88" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A88" s="37"/>
     </row>
-    <row r="89" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A89" s="37"/>
     </row>
-    <row r="90" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A90" s="37"/>
     </row>
-    <row r="91" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A91" s="37"/>
     </row>
-    <row r="92" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A92" s="37"/>
     </row>
-    <row r="93" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A93" s="37"/>
     </row>
-    <row r="94" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A94" s="37"/>
     </row>
-    <row r="95" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A95" s="37"/>
     </row>
-    <row r="96" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A96" s="37"/>
     </row>
-    <row r="97" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A97" s="37"/>
     </row>
-    <row r="98" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A98" s="37"/>
     </row>
-    <row r="99" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A99" s="37"/>
     </row>
-    <row r="100" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A100" s="37"/>
     </row>
-    <row r="101" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A101" s="37"/>
     </row>
-    <row r="102" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A102" s="37"/>
     </row>
-    <row r="103" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A103" s="37"/>
     </row>
-    <row r="104" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A104" s="37"/>
     </row>
-    <row r="105" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A105" s="37"/>
     </row>
-    <row r="106" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A106" s="37"/>
     </row>
-    <row r="107" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A107" s="37"/>
     </row>
-    <row r="108" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A108" s="37"/>
     </row>
-    <row r="109" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A109" s="37"/>
     </row>
-    <row r="110" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A110" s="37"/>
     </row>
-    <row r="111" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A111" s="37"/>
     </row>
-    <row r="112" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A112" s="37"/>
     </row>
-    <row r="113" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A113" s="37"/>
     </row>
-    <row r="114" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A114" s="37"/>
     </row>
-    <row r="115" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A115" s="37"/>
     </row>
-    <row r="116" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A116" s="37"/>
     </row>
-    <row r="117" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A117" s="37"/>
     </row>
-    <row r="118" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A118" s="37"/>
     </row>
-    <row r="119" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A119" s="37"/>
     </row>
-    <row r="120" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A120" s="37"/>
     </row>
-    <row r="121" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A121" s="37"/>
     </row>
-    <row r="122" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A122" s="37"/>
     </row>
-    <row r="123" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A123" s="37"/>
     </row>
-    <row r="124" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A124" s="37"/>
     </row>
-    <row r="125" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A125" s="37"/>
     </row>
-    <row r="126" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A126" s="37"/>
     </row>
-    <row r="127" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A127" s="37"/>
     </row>
-    <row r="128" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A128" s="37"/>
     </row>
-    <row r="129" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A129" s="37"/>
     </row>
-    <row r="130" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A130" s="37"/>
     </row>
-    <row r="131" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A131" s="37"/>
     </row>
-    <row r="132" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A132" s="37"/>
     </row>
-    <row r="133" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A133" s="37"/>
     </row>
-    <row r="134" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A134" s="37"/>
     </row>
-    <row r="135" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A135" s="37"/>
     </row>
-    <row r="136" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A136" s="37"/>
     </row>
-    <row r="137" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A137" s="37"/>
     </row>
-    <row r="138" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A138" s="37"/>
     </row>
-    <row r="139" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A139" s="37"/>
     </row>
-    <row r="140" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A140" s="37"/>
     </row>
-    <row r="141" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A141" s="37"/>
     </row>
-    <row r="142" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A142" s="37"/>
     </row>
-    <row r="143" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A143" s="37"/>
     </row>
-    <row r="144" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A144" s="37"/>
     </row>
-    <row r="145" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A145" s="37"/>
     </row>
-    <row r="146" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A146" s="37"/>
     </row>
-    <row r="147" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A147" s="37"/>
     </row>
-    <row r="148" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A148" s="37"/>
     </row>
-    <row r="149" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A149" s="37"/>
     </row>
-    <row r="150" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A150" s="37"/>
     </row>
-    <row r="151" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A151" s="37"/>
     </row>
-    <row r="152" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A152" s="37"/>
     </row>
-    <row r="153" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A153" s="37"/>
     </row>
-    <row r="154" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A154" s="37"/>
     </row>
-    <row r="155" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A155" s="37"/>
     </row>
-    <row r="156" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A156" s="37"/>
     </row>
-    <row r="157" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A157" s="37"/>
     </row>
-    <row r="158" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A158" s="37"/>
     </row>
-    <row r="159" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A159" s="37"/>
     </row>
-    <row r="160" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A160" s="37"/>
     </row>
-    <row r="161" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A161" s="37"/>
     </row>
-    <row r="162" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A162" s="37"/>
     </row>
-    <row r="163" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A163" s="37"/>
     </row>
-    <row r="164" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A164" s="37"/>
     </row>
-    <row r="165" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A165" s="37"/>
     </row>
-    <row r="166" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A166" s="37"/>
     </row>
-    <row r="167" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A167" s="37"/>
     </row>
-    <row r="168" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A168" s="37"/>
     </row>
-    <row r="169" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A169" s="37"/>
     </row>
-    <row r="170" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A170" s="37"/>
     </row>
-    <row r="171" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A171" s="37"/>
     </row>
-    <row r="172" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A172" s="37"/>
     </row>
-    <row r="173" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A173" s="37"/>
     </row>
-    <row r="174" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A174" s="37"/>
     </row>
-    <row r="175" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A175" s="37"/>
     </row>
-    <row r="176" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A176" s="37"/>
     </row>
-    <row r="177" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A177" s="37"/>
     </row>
-    <row r="178" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A178" s="37"/>
     </row>
-    <row r="179" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A179" s="37"/>
     </row>
-    <row r="180" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A180" s="37"/>
     </row>
-    <row r="181" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A181" s="37"/>
     </row>
-    <row r="182" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A182" s="37"/>
     </row>
-    <row r="183" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A183" s="37"/>
     </row>
-    <row r="184" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A184" s="37"/>
     </row>
-    <row r="185" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A185" s="37"/>
     </row>
-    <row r="186" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A186" s="37"/>
     </row>
-    <row r="187" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A187" s="37"/>
     </row>
-    <row r="188" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A188" s="37"/>
     </row>
-    <row r="189" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A189" s="37"/>
     </row>
-    <row r="190" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A190" s="37"/>
     </row>
-    <row r="191" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A191" s="37"/>
     </row>
-    <row r="192" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A192" s="37"/>
     </row>
-    <row r="193" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A193" s="37"/>
     </row>
-    <row r="194" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A194" s="37"/>
     </row>
-    <row r="195" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A195" s="37"/>
     </row>
-    <row r="196" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A196" s="37"/>
     </row>
-    <row r="197" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A197" s="37"/>
     </row>
-    <row r="198" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A198" s="37"/>
     </row>
-    <row r="199" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A199" s="37"/>
     </row>
-    <row r="200" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A200" s="37"/>
     </row>
-    <row r="201" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A201" s="37"/>
     </row>
-    <row r="202" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A202" s="37"/>
     </row>
-    <row r="203" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A203" s="37"/>
     </row>
-    <row r="204" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A204" s="37"/>
     </row>
-    <row r="205" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A205" s="37"/>
     </row>
-    <row r="206" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A206" s="37"/>
     </row>
-    <row r="207" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A207" s="37"/>
     </row>
-    <row r="208" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A208" s="37"/>
     </row>
-    <row r="209" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A209" s="37"/>
     </row>
-    <row r="210" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A210" s="37"/>
     </row>
-    <row r="211" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A211" s="37"/>
     </row>
-    <row r="212" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A212" s="37"/>
     </row>
-    <row r="213" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A213" s="37"/>
     </row>
-    <row r="214" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A214" s="37"/>
     </row>
-    <row r="215" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A215" s="37"/>
     </row>
-    <row r="216" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A216" s="37"/>
     </row>
-    <row r="217" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A217" s="37"/>
     </row>
-    <row r="218" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A218" s="37"/>
     </row>
-    <row r="219" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A219" s="37"/>
     </row>
-    <row r="220" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A220" s="37"/>
     </row>
-    <row r="221" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A221" s="37"/>
     </row>
-    <row r="222" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A222" s="37"/>
     </row>
-    <row r="223" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A223" s="37"/>
     </row>
-    <row r="224" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A224" s="37"/>
     </row>
-    <row r="225" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A225" s="37"/>
     </row>
-    <row r="226" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A226" s="37"/>
     </row>
-    <row r="227" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A227" s="37"/>
     </row>
-    <row r="228" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A228" s="37"/>
     </row>
-    <row r="229" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A229" s="37"/>
     </row>
-    <row r="230" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A230" s="37"/>
     </row>
-    <row r="231" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A231" s="37"/>
     </row>
-    <row r="232" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A232" s="37"/>
     </row>
-    <row r="233" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A233" s="37"/>
     </row>
-    <row r="234" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A234" s="37"/>
     </row>
-    <row r="235" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A235" s="37"/>
     </row>
-    <row r="236" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A236" s="37"/>
     </row>
-    <row r="237" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A237" s="37"/>
     </row>
-    <row r="238" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A238" s="37"/>
     </row>
-    <row r="239" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A239" s="37"/>
     </row>
-    <row r="240" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A240" s="37"/>
     </row>
-    <row r="241" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A241" s="37"/>
     </row>
-    <row r="242" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A242" s="37"/>
     </row>
-    <row r="243" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A243" s="37"/>
     </row>
-    <row r="244" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A244" s="37"/>
     </row>
-    <row r="245" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A245" s="37"/>
     </row>
-    <row r="246" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A246" s="37"/>
     </row>
-    <row r="247" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A247" s="37"/>
     </row>
-    <row r="248" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A248" s="37"/>
     </row>
-    <row r="249" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A249" s="37"/>
     </row>
-    <row r="250" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A250" s="37"/>
     </row>
-    <row r="251" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A251" s="37"/>
     </row>
-    <row r="252" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A252" s="37"/>
     </row>
-    <row r="253" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A253" s="37"/>
     </row>
-    <row r="254" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A254" s="37"/>
     </row>
-    <row r="255" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A255" s="37"/>
     </row>
-    <row r="256" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A256" s="37"/>
     </row>
-    <row r="257" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A257" s="37"/>
     </row>
-    <row r="258" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A258" s="37"/>
     </row>
-    <row r="259" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A259" s="37"/>
     </row>
-    <row r="260" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A260" s="37"/>
     </row>
-    <row r="261" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A261" s="37"/>
     </row>
-    <row r="262" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A262" s="37"/>
     </row>
-    <row r="263" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A263" s="37"/>
     </row>
-    <row r="264" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A264" s="37"/>
     </row>
-    <row r="265" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A265" s="37"/>
     </row>
-    <row r="266" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A266" s="37"/>
     </row>
-    <row r="267" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A267" s="37"/>
     </row>
-    <row r="268" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A268" s="37"/>
     </row>
-    <row r="269" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A269" s="37"/>
     </row>
-    <row r="270" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A270" s="37"/>
     </row>
-    <row r="271" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A271" s="37"/>
     </row>
-    <row r="272" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A272" s="37"/>
     </row>
-    <row r="273" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A273" s="37"/>
     </row>
-    <row r="274" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A274" s="37"/>
     </row>
-    <row r="275" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A275" s="37"/>
     </row>
-    <row r="276" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A276" s="37"/>
     </row>
-    <row r="277" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A277" s="37"/>
     </row>
-    <row r="278" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A278" s="37"/>
     </row>
-    <row r="279" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A279" s="37"/>
     </row>
-    <row r="280" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A280" s="37"/>
     </row>
-    <row r="281" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A281" s="37"/>
     </row>
-    <row r="282" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A282" s="37"/>
     </row>
-    <row r="283" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A283" s="37"/>
     </row>
-    <row r="284" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A284" s="37"/>
     </row>
-    <row r="285" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A285" s="37"/>
     </row>
-    <row r="286" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A286" s="37"/>
     </row>
-    <row r="287" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A287" s="37"/>
     </row>
-    <row r="288" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A288" s="37"/>
     </row>
-    <row r="289" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A289" s="37"/>
     </row>
-    <row r="290" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A290" s="37"/>
     </row>
-    <row r="291" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A291" s="37"/>
     </row>
-    <row r="292" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A292" s="37"/>
     </row>
-    <row r="293" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A293" s="37"/>
     </row>
-    <row r="294" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A294" s="37"/>
     </row>
-    <row r="295" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A295" s="37"/>
     </row>
-    <row r="296" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A296" s="37"/>
     </row>
-    <row r="297" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A297" s="37"/>
     </row>
-    <row r="298" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A298" s="37"/>
     </row>
-    <row r="299" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A299" s="37"/>
     </row>
-    <row r="300" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A300" s="37"/>
     </row>
-    <row r="301" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A301" s="37"/>
     </row>
-    <row r="302" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A302" s="37"/>
     </row>
-    <row r="303" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A303" s="37"/>
     </row>
-    <row r="304" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A304" s="37"/>
     </row>
-    <row r="305" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A305" s="37"/>
     </row>
-    <row r="306" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A306" s="37"/>
     </row>
-    <row r="307" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A307" s="37"/>
     </row>
-    <row r="308" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A308" s="37"/>
     </row>
-    <row r="309" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A309" s="37"/>
     </row>
-    <row r="310" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A310" s="37"/>
     </row>
-    <row r="311" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A311" s="37"/>
     </row>
-    <row r="312" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A312" s="37"/>
     </row>
-    <row r="313" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A313" s="37"/>
     </row>
-    <row r="314" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A314" s="37"/>
     </row>
-    <row r="315" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A315" s="37"/>
     </row>
-    <row r="316" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A316" s="37"/>
     </row>
-    <row r="317" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A317" s="37"/>
     </row>
-    <row r="318" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A318" s="37"/>
     </row>
-    <row r="319" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A319" s="37"/>
     </row>
-    <row r="320" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A320" s="37"/>
     </row>
-    <row r="321" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A321" s="37"/>
     </row>
-    <row r="322" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A322" s="37"/>
     </row>
-    <row r="323" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A323" s="37"/>
     </row>
-    <row r="324" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A324" s="37"/>
     </row>
-    <row r="325" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A325" s="37"/>
     </row>
-    <row r="326" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A326" s="37"/>
     </row>
-    <row r="327" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A327" s="37"/>
     </row>
-    <row r="328" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A328" s="37"/>
     </row>
-    <row r="329" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A329" s="37"/>
     </row>
-    <row r="330" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A330" s="37"/>
     </row>
-    <row r="331" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A331" s="37"/>
     </row>
-    <row r="332" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A332" s="37"/>
     </row>
-    <row r="333" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A333" s="37"/>
     </row>
-    <row r="334" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A334" s="37"/>
     </row>
-    <row r="335" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A335" s="37"/>
     </row>
-    <row r="336" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A336" s="37"/>
     </row>
-    <row r="337" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A337" s="37"/>
     </row>
-    <row r="338" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A338" s="37"/>
     </row>
-    <row r="339" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A339" s="37"/>
     </row>
-    <row r="340" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A340" s="37"/>
     </row>
-    <row r="341" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A341" s="37"/>
     </row>
-    <row r="342" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A342" s="37"/>
     </row>
-    <row r="343" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A343" s="37"/>
     </row>
-    <row r="344" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A344" s="37"/>
     </row>
-    <row r="345" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A345" s="37"/>
     </row>
-    <row r="346" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A346" s="37"/>
     </row>
-    <row r="347" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A347" s="37"/>
     </row>
-    <row r="348" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A348" s="37"/>
     </row>
-    <row r="349" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A349" s="37"/>
     </row>
-    <row r="350" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A350" s="37"/>
     </row>
-    <row r="351" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A351" s="37"/>
     </row>
-    <row r="352" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A352" s="37"/>
     </row>
-    <row r="353" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A353" s="37"/>
     </row>
-    <row r="354" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A354" s="37"/>
     </row>
-    <row r="355" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A355" s="37"/>
     </row>
-    <row r="356" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A356" s="37"/>
     </row>
-    <row r="357" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A357" s="37"/>
     </row>
-    <row r="358" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A358" s="37"/>
     </row>
-    <row r="359" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A359" s="37"/>
     </row>
-    <row r="360" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A360" s="37"/>
     </row>
-    <row r="361" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A361" s="37"/>
     </row>
-    <row r="362" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A362" s="37"/>
     </row>
-    <row r="363" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A363" s="37"/>
     </row>
-    <row r="364" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A364" s="37"/>
     </row>
-    <row r="365" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A365" s="37"/>
     </row>
-    <row r="366" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A366" s="37"/>
     </row>
-    <row r="367" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A367" s="37"/>
     </row>
-    <row r="368" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A368" s="37"/>
     </row>
-    <row r="369" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A369" s="37"/>
     </row>
-    <row r="370" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A370" s="37"/>
     </row>
-    <row r="371" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A371" s="37"/>
     </row>
-    <row r="372" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A372" s="37"/>
     </row>
-    <row r="373" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A373" s="37"/>
     </row>
-    <row r="374" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A374" s="37"/>
     </row>
-    <row r="375" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A375" s="37"/>
     </row>
-    <row r="376" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A376" s="37"/>
     </row>
-    <row r="377" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A377" s="37"/>
     </row>
-    <row r="378" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A378" s="37"/>
     </row>
-    <row r="379" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A379" s="37"/>
     </row>
-    <row r="380" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A380" s="37"/>
     </row>
-    <row r="381" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A381" s="37"/>
     </row>
-    <row r="382" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A382" s="37"/>
     </row>
-    <row r="383" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A383" s="37"/>
     </row>
-    <row r="384" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A384" s="37"/>
     </row>
-    <row r="385" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A385" s="37"/>
     </row>
-    <row r="386" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A386" s="37"/>
     </row>
-    <row r="387" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A387" s="37"/>
     </row>
-    <row r="388" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A388" s="37"/>
     </row>
-    <row r="389" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A389" s="37"/>
     </row>
-    <row r="390" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A390" s="37"/>
     </row>
-    <row r="391" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A391" s="37"/>
     </row>
-    <row r="392" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A392" s="37"/>
     </row>
-    <row r="393" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A393" s="37"/>
     </row>
-    <row r="394" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A394" s="37"/>
     </row>
-    <row r="395" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A395" s="37"/>
     </row>
-    <row r="396" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A396" s="37"/>
     </row>
-    <row r="397" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A397" s="37"/>
     </row>
-    <row r="398" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A398" s="37"/>
     </row>
-    <row r="399" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A399" s="37"/>
     </row>
-    <row r="400" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A400" s="37"/>
     </row>
-    <row r="401" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A401" s="37"/>
     </row>
-    <row r="402" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A402" s="37"/>
     </row>
-    <row r="403" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A403" s="37"/>
     </row>
-    <row r="404" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A404" s="37"/>
     </row>
-    <row r="405" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A405" s="37"/>
     </row>
-    <row r="406" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A406" s="37"/>
     </row>
-    <row r="407" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A407" s="37"/>
     </row>
-    <row r="408" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A408" s="37"/>
     </row>
-    <row r="409" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A409" s="37"/>
     </row>
-    <row r="410" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A410" s="37"/>
     </row>
-    <row r="411" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A411" s="37"/>
     </row>
-    <row r="412" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A412" s="37"/>
     </row>
-    <row r="413" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A413" s="37"/>
     </row>
-    <row r="414" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A414" s="37"/>
     </row>
-    <row r="415" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A415" s="37"/>
     </row>
-    <row r="416" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A416" s="37"/>
     </row>
-    <row r="417" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A417" s="37"/>
     </row>
-    <row r="418" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A418" s="37"/>
     </row>
-    <row r="419" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A419" s="37"/>
     </row>
-    <row r="420" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A420" s="37"/>
     </row>
-    <row r="421" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A421" s="37"/>
     </row>
-    <row r="422" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A422" s="37"/>
     </row>
-    <row r="423" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A423" s="37"/>
     </row>
-    <row r="424" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A424" s="37"/>
     </row>
-    <row r="425" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A425" s="37"/>
     </row>
-    <row r="426" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A426" s="37"/>
     </row>
-    <row r="427" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A427" s="37"/>
     </row>
-    <row r="428" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A428" s="37"/>
     </row>
-    <row r="429" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A429" s="37"/>
     </row>
-    <row r="430" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A430" s="37"/>
     </row>
-    <row r="431" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A431" s="37"/>
     </row>
-    <row r="432" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A432" s="37"/>
     </row>
-    <row r="433" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A433" s="37"/>
     </row>
-    <row r="434" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A434" s="37"/>
     </row>
-    <row r="435" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A435" s="37"/>
     </row>
-    <row r="436" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A436" s="37"/>
     </row>
-    <row r="437" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A437" s="37"/>
     </row>
-    <row r="438" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A438" s="37"/>
     </row>
-    <row r="439" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A439" s="37"/>
     </row>
-    <row r="440" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A440" s="37"/>
     </row>
-    <row r="441" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A441" s="37"/>
     </row>
-    <row r="442" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A442" s="37"/>
     </row>
-    <row r="443" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A443" s="37"/>
     </row>
-    <row r="444" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A444" s="37"/>
     </row>
-    <row r="445" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A445" s="37"/>
     </row>
-    <row r="446" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A446" s="37"/>
     </row>
-    <row r="447" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A447" s="37"/>
     </row>
-    <row r="448" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A448" s="37"/>
     </row>
-    <row r="449" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A449" s="37"/>
     </row>
-    <row r="450" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A450" s="37"/>
     </row>
-    <row r="451" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A451" s="37"/>
     </row>
-    <row r="452" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A452" s="37"/>
     </row>
-    <row r="453" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A453" s="37"/>
     </row>
-    <row r="454" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A454" s="37"/>
     </row>
-    <row r="455" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A455" s="37"/>
     </row>
-    <row r="456" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A456" s="37"/>
     </row>
-    <row r="457" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A457" s="37"/>
     </row>
-    <row r="458" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A458" s="37"/>
     </row>
-    <row r="459" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A459" s="37"/>
     </row>
-    <row r="460" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A460" s="37"/>
     </row>
-    <row r="461" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A461" s="37"/>
     </row>
-    <row r="462" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A462" s="37"/>
     </row>
-    <row r="463" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A463" s="37"/>
     </row>
-    <row r="464" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A464" s="37"/>
     </row>
-    <row r="465" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A465" s="37"/>
     </row>
-    <row r="466" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A466" s="37"/>
     </row>
-    <row r="467" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A467" s="37"/>
     </row>
-    <row r="468" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A468" s="37"/>
     </row>
-    <row r="469" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A469" s="37"/>
     </row>
-    <row r="470" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A470" s="37"/>
     </row>
-    <row r="471" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A471" s="37"/>
     </row>
-    <row r="472" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A472" s="37"/>
     </row>
-    <row r="473" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A473" s="37"/>
     </row>
-    <row r="474" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A474" s="37"/>
     </row>
-    <row r="475" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A475" s="37"/>
     </row>
-    <row r="476" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A476" s="37"/>
     </row>
-    <row r="477" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A477" s="37"/>
     </row>
-    <row r="478" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A478" s="37"/>
     </row>
-    <row r="479" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A479" s="37"/>
     </row>
-    <row r="480" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A480" s="37"/>
     </row>
-    <row r="481" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A481" s="37"/>
     </row>
-    <row r="482" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A482" s="37"/>
     </row>
-    <row r="483" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A483" s="37"/>
     </row>
-    <row r="484" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A484" s="37"/>
     </row>
-    <row r="485" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A485" s="37"/>
     </row>
-    <row r="486" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A486" s="37"/>
     </row>
-    <row r="487" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A487" s="37"/>
     </row>
-    <row r="488" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A488" s="37"/>
     </row>
-    <row r="489" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A489" s="37"/>
     </row>
-    <row r="490" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A490" s="37"/>
     </row>
-    <row r="491" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A491" s="37"/>
     </row>
-    <row r="492" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A492" s="37"/>
     </row>
-    <row r="493" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A493" s="37"/>
     </row>
-    <row r="494" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A494" s="37"/>
     </row>
-    <row r="495" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A495" s="37"/>
     </row>
-    <row r="496" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A496" s="37"/>
     </row>
-    <row r="497" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A497" s="37"/>
     </row>
-    <row r="498" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A498" s="37"/>
     </row>
-    <row r="499" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A499" s="37"/>
     </row>
-    <row r="500" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A500" s="37"/>
     </row>
-    <row r="501" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A501" s="37"/>
     </row>
-    <row r="502" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A502" s="37"/>
     </row>
-    <row r="503" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A503" s="37"/>
     </row>
-    <row r="504" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A504" s="37"/>
     </row>
-    <row r="505" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A505" s="37"/>
     </row>
-    <row r="506" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A506" s="37"/>
     </row>
-    <row r="507" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A507" s="37"/>
     </row>
-    <row r="508" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A508" s="37"/>
     </row>
-    <row r="509" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A509" s="37"/>
     </row>
-    <row r="510" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A510" s="37"/>
     </row>
-    <row r="511" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A511" s="37"/>
     </row>
-    <row r="512" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A512" s="37"/>
     </row>
-    <row r="513" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A513" s="37"/>
     </row>
-    <row r="514" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A514" s="37"/>
     </row>
-    <row r="515" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A515" s="37"/>
     </row>
-    <row r="516" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A516" s="37"/>
     </row>
-    <row r="517" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A517" s="37"/>
     </row>
-    <row r="518" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A518" s="37"/>
     </row>
-    <row r="519" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A519" s="37"/>
     </row>
-    <row r="520" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A520" s="37"/>
     </row>
-    <row r="521" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A521" s="37"/>
     </row>
-    <row r="522" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A522" s="37"/>
     </row>
-    <row r="523" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A523" s="37"/>
     </row>
-    <row r="524" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A524" s="37"/>
     </row>
-    <row r="525" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A525" s="37"/>
     </row>
-    <row r="526" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A526" s="37"/>
     </row>
-    <row r="527" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A527" s="37"/>
     </row>
-    <row r="528" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A528" s="37"/>
     </row>
-    <row r="529" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A529" s="37"/>
     </row>
-    <row r="530" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A530" s="37"/>
     </row>
-    <row r="531" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A531" s="37"/>
     </row>
-    <row r="532" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A532" s="37"/>
     </row>
-    <row r="533" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A533" s="37"/>
     </row>
-    <row r="534" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A534" s="37"/>
     </row>
-    <row r="535" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A535" s="37"/>
     </row>
-    <row r="536" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A536" s="37"/>
     </row>
-    <row r="537" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A537" s="37"/>
     </row>
-    <row r="538" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A538" s="37"/>
     </row>
-    <row r="539" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A539" s="37"/>
     </row>
-    <row r="540" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A540" s="37"/>
     </row>
-    <row r="541" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A541" s="37"/>
     </row>
-    <row r="542" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A542" s="37"/>
     </row>
-    <row r="543" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A543" s="37"/>
     </row>
-    <row r="544" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A544" s="37"/>
     </row>
-    <row r="545" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A545" s="37"/>
     </row>
-    <row r="546" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A546" s="37"/>
     </row>
-    <row r="547" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A547" s="37"/>
     </row>
-    <row r="548" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A548" s="37"/>
     </row>
-    <row r="549" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A549" s="37"/>
     </row>
-    <row r="550" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A550" s="37"/>
     </row>
-    <row r="551" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A551" s="37"/>
     </row>
-    <row r="552" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A552" s="37"/>
     </row>
-    <row r="553" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A553" s="37"/>
     </row>
-    <row r="554" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A554" s="37"/>
     </row>
-    <row r="555" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A555" s="37"/>
     </row>
-    <row r="556" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A556" s="37"/>
     </row>
-    <row r="557" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A557" s="37"/>
     </row>
-    <row r="558" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A558" s="37"/>
     </row>
-    <row r="559" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A559" s="37"/>
     </row>
-    <row r="560" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A560" s="37"/>
     </row>
-    <row r="561" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A561" s="37"/>
     </row>
-    <row r="562" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A562" s="37"/>
     </row>
-    <row r="563" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A563" s="37"/>
     </row>
-    <row r="564" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A564" s="37"/>
     </row>
-    <row r="565" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A565" s="37"/>
     </row>
-    <row r="566" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A566" s="37"/>
     </row>
-    <row r="567" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A567" s="37"/>
     </row>
-    <row r="568" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A568" s="37"/>
     </row>
-    <row r="569" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A569" s="37"/>
     </row>
-    <row r="570" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A570" s="37"/>
     </row>
-    <row r="571" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A571" s="37"/>
     </row>
-    <row r="572" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A572" s="37"/>
     </row>
-    <row r="573" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A573" s="37"/>
     </row>
-    <row r="574" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A574" s="37"/>
     </row>
-    <row r="575" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A575" s="37"/>
     </row>
-    <row r="576" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A576" s="37"/>
     </row>
-    <row r="577" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A577" s="37"/>
     </row>
-    <row r="578" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A578" s="37"/>
     </row>
-    <row r="579" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A579" s="37"/>
     </row>
-    <row r="580" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A580" s="37"/>
     </row>
-    <row r="581" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A581" s="37"/>
     </row>
-    <row r="582" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A582" s="37"/>
     </row>
-    <row r="583" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A583" s="37"/>
     </row>
-    <row r="584" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A584" s="37"/>
     </row>
-    <row r="585" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A585" s="37"/>
     </row>
-    <row r="586" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A586" s="37"/>
     </row>
-    <row r="587" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A587" s="37"/>
     </row>
-    <row r="588" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A588" s="37"/>
     </row>
-    <row r="589" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A589" s="37"/>
     </row>
-    <row r="590" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A590" s="37"/>
     </row>
-    <row r="591" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A591" s="37"/>
     </row>
-    <row r="592" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A592" s="37"/>
     </row>
-    <row r="593" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A593" s="37"/>
     </row>
-    <row r="594" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A594" s="37"/>
     </row>
-    <row r="595" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A595" s="37"/>
     </row>
-    <row r="596" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A596" s="37"/>
     </row>
-    <row r="597" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A597" s="37"/>
     </row>
-    <row r="598" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A598" s="37"/>
     </row>
-    <row r="599" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A599" s="37"/>
     </row>
-    <row r="600" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A600" s="37"/>
     </row>
-    <row r="601" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A601" s="37"/>
     </row>
-    <row r="602" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A602" s="37"/>
     </row>
-    <row r="603" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A603" s="37"/>
     </row>
-    <row r="604" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A604" s="37"/>
     </row>
-    <row r="605" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A605" s="37"/>
     </row>
-    <row r="606" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A606" s="37"/>
     </row>
-    <row r="607" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A607" s="37"/>
     </row>
-    <row r="608" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A608" s="37"/>
     </row>
-    <row r="609" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A609" s="37"/>
     </row>
-    <row r="610" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A610" s="37"/>
     </row>
-    <row r="611" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A611" s="37"/>
     </row>
-    <row r="612" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A612" s="37"/>
     </row>
-    <row r="613" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A613" s="37"/>
     </row>
-    <row r="614" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A614" s="37"/>
     </row>
-    <row r="615" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A615" s="37"/>
     </row>
-    <row r="616" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A616" s="37"/>
     </row>
-    <row r="617" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A617" s="37"/>
     </row>
-    <row r="618" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A618" s="37"/>
     </row>
-    <row r="619" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A619" s="37"/>
     </row>
-    <row r="620" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A620" s="37"/>
     </row>
-    <row r="621" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A621" s="37"/>
     </row>
-    <row r="622" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A622" s="37"/>
     </row>
-    <row r="623" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A623" s="37"/>
     </row>
-    <row r="624" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A624" s="37"/>
     </row>
-    <row r="625" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A625" s="37"/>
     </row>
-    <row r="626" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A626" s="37"/>
     </row>
-    <row r="627" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A627" s="37"/>
     </row>
-    <row r="628" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A628" s="37"/>
     </row>
-    <row r="629" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A629" s="37"/>
     </row>
-    <row r="630" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A630" s="37"/>
     </row>
-    <row r="631" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A631" s="37"/>
     </row>
-    <row r="632" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A632" s="37"/>
     </row>
-    <row r="633" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A633" s="37"/>
     </row>
-    <row r="634" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A634" s="37"/>
     </row>
-    <row r="635" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A635" s="37"/>
     </row>
-    <row r="636" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A636" s="37"/>
     </row>
-    <row r="637" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A637" s="37"/>
     </row>
-    <row r="638" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A638" s="37"/>
     </row>
-    <row r="639" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A639" s="37"/>
     </row>
-    <row r="640" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A640" s="37"/>
     </row>
-    <row r="641" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A641" s="37"/>
     </row>
-    <row r="642" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A642" s="37"/>
     </row>
-    <row r="643" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A643" s="37"/>
     </row>
-    <row r="644" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A644" s="37"/>
     </row>
-    <row r="645" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A645" s="37"/>
     </row>
-    <row r="646" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A646" s="37"/>
     </row>
-    <row r="647" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A647" s="37"/>
     </row>
-    <row r="648" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A648" s="37"/>
     </row>
-    <row r="649" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A649" s="37"/>
     </row>
-    <row r="650" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A650" s="37"/>
     </row>
-    <row r="651" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A651" s="37"/>
     </row>
-    <row r="652" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A652" s="37"/>
     </row>
-    <row r="653" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A653" s="37"/>
     </row>
-    <row r="654" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A654" s="37"/>
     </row>
-    <row r="655" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A655" s="37"/>
     </row>
-    <row r="656" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A656" s="37"/>
     </row>
-    <row r="657" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A657" s="37"/>
     </row>
-    <row r="658" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A658" s="37"/>
     </row>
-    <row r="659" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A659" s="37"/>
     </row>
-    <row r="660" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A660" s="37"/>
     </row>
-    <row r="661" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A661" s="37"/>
     </row>
-    <row r="662" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A662" s="37"/>
     </row>
-    <row r="663" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A663" s="37"/>
     </row>
-    <row r="664" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A664" s="37"/>
     </row>
-    <row r="665" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A665" s="37"/>
     </row>
-    <row r="666" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A666" s="37"/>
     </row>
-    <row r="667" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A667" s="37"/>
     </row>
-    <row r="668" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A668" s="37"/>
     </row>
-    <row r="669" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A669" s="37"/>
     </row>
-    <row r="670" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A670" s="37"/>
     </row>
-    <row r="671" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A671" s="37"/>
     </row>
-    <row r="672" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A672" s="37"/>
     </row>
-    <row r="673" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A673" s="37"/>
     </row>
-    <row r="674" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A674" s="37"/>
     </row>
-    <row r="675" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A675" s="37"/>
     </row>
-    <row r="676" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A676" s="37"/>
     </row>
-    <row r="677" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A677" s="37"/>
     </row>
-    <row r="678" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A678" s="37"/>
     </row>
-    <row r="679" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A679" s="37"/>
     </row>
-    <row r="680" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A680" s="37"/>
     </row>
-    <row r="681" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A681" s="37"/>
     </row>
-    <row r="682" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A682" s="37"/>
     </row>
-    <row r="683" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A683" s="37"/>
     </row>
-    <row r="684" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A684" s="37"/>
     </row>
-    <row r="685" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A685" s="37"/>
     </row>
-    <row r="686" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A686" s="37"/>
     </row>
-    <row r="687" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A687" s="37"/>
     </row>
-    <row r="688" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A688" s="37"/>
     </row>
-    <row r="689" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A689" s="37"/>
     </row>
-    <row r="690" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A690" s="37"/>
     </row>
-    <row r="691" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A691" s="37"/>
     </row>
-    <row r="692" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A692" s="37"/>
     </row>
-    <row r="693" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A693" s="37"/>
     </row>
-    <row r="694" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A694" s="37"/>
     </row>
-    <row r="695" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A695" s="37"/>
     </row>
-    <row r="696" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A696" s="37"/>
     </row>
-    <row r="697" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A697" s="37"/>
     </row>
-    <row r="698" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A698" s="37"/>
     </row>
-    <row r="699" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A699" s="37"/>
     </row>
-    <row r="700" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A700" s="37"/>
     </row>
-    <row r="701" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A701" s="37"/>
     </row>
-    <row r="702" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A702" s="37"/>
     </row>
-    <row r="703" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A703" s="37"/>
     </row>
-    <row r="704" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A704" s="37"/>
     </row>
-    <row r="705" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A705" s="37"/>
     </row>
-    <row r="706" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A706" s="37"/>
     </row>
-    <row r="707" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A707" s="37"/>
     </row>
-    <row r="708" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A708" s="37"/>
     </row>
-    <row r="709" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A709" s="37"/>
     </row>
-    <row r="710" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A710" s="37"/>
     </row>
-    <row r="711" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A711" s="37"/>
     </row>
-    <row r="712" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A712" s="37"/>
     </row>
-    <row r="713" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A713" s="37"/>
     </row>
-    <row r="714" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A714" s="37"/>
     </row>
-    <row r="715" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A715" s="37"/>
     </row>
-    <row r="716" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A716" s="37"/>
     </row>
-    <row r="717" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A717" s="37"/>
     </row>
-    <row r="718" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A718" s="37"/>
     </row>
-    <row r="719" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A719" s="37"/>
     </row>
-    <row r="720" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A720" s="37"/>
     </row>
-    <row r="721" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A721" s="37"/>
     </row>
-    <row r="722" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A722" s="37"/>
     </row>
-    <row r="723" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A723" s="37"/>
     </row>
-    <row r="724" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A724" s="37"/>
     </row>
-    <row r="725" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A725" s="37"/>
     </row>
-    <row r="726" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A726" s="37"/>
     </row>
-    <row r="727" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A727" s="37"/>
     </row>
-    <row r="728" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A728" s="37"/>
     </row>
-    <row r="729" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A729" s="37"/>
     </row>
-    <row r="730" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A730" s="37"/>
     </row>
-    <row r="731" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A731" s="37"/>
     </row>
-    <row r="732" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A732" s="37"/>
     </row>
-    <row r="733" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A733" s="37"/>
     </row>
-    <row r="734" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A734" s="37"/>
     </row>
-    <row r="735" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A735" s="37"/>
     </row>
-    <row r="736" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A736" s="37"/>
     </row>
-    <row r="737" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A737" s="37"/>
     </row>
-    <row r="738" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A738" s="37"/>
     </row>
-    <row r="739" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A739" s="37"/>
     </row>
-    <row r="740" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A740" s="37"/>
     </row>
-    <row r="741" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A741" s="37"/>
     </row>
-    <row r="742" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A742" s="37"/>
     </row>
-    <row r="743" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A743" s="37"/>
     </row>
-    <row r="744" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A744" s="37"/>
     </row>
-    <row r="745" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A745" s="37"/>
     </row>
-    <row r="746" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A746" s="37"/>
     </row>
-    <row r="747" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A747" s="37"/>
     </row>
-    <row r="748" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A748" s="37"/>
     </row>
-    <row r="749" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A749" s="37"/>
     </row>
-    <row r="750" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A750" s="37"/>
     </row>
-    <row r="751" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A751" s="37"/>
     </row>
-    <row r="752" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A752" s="37"/>
     </row>
-    <row r="753" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A753" s="37"/>
     </row>
-    <row r="754" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A754" s="37"/>
     </row>
-    <row r="755" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A755" s="37"/>
     </row>
-    <row r="756" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A756" s="37"/>
     </row>
-    <row r="757" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A757" s="37"/>
     </row>
-    <row r="758" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A758" s="37"/>
     </row>
-    <row r="759" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A759" s="37"/>
     </row>
-    <row r="760" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A760" s="37"/>
     </row>
-    <row r="761" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A761" s="37"/>
     </row>
-    <row r="762" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A762" s="37"/>
     </row>
-    <row r="763" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A763" s="37"/>
     </row>
-    <row r="764" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A764" s="37"/>
     </row>
-    <row r="765" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A765" s="37"/>
     </row>
-    <row r="766" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A766" s="37"/>
     </row>
-    <row r="767" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A767" s="37"/>
     </row>
-    <row r="768" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A768" s="37"/>
     </row>
-    <row r="769" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A769" s="37"/>
     </row>
-    <row r="770" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A770" s="37"/>
     </row>
-    <row r="771" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A771" s="37"/>
     </row>
-    <row r="772" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A772" s="37"/>
     </row>
-    <row r="773" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A773" s="37"/>
     </row>
-    <row r="774" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A774" s="37"/>
     </row>
-    <row r="775" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A775" s="37"/>
     </row>
-    <row r="776" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A776" s="37"/>
     </row>
-    <row r="777" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A777" s="37"/>
     </row>
-    <row r="778" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A778" s="37"/>
     </row>
-    <row r="779" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A779" s="37"/>
     </row>
-    <row r="780" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A780" s="37"/>
     </row>
-    <row r="781" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A781" s="37"/>
     </row>
-    <row r="782" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A782" s="37"/>
     </row>
-    <row r="783" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A783" s="37"/>
     </row>
-    <row r="784" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A784" s="37"/>
     </row>
-    <row r="785" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A785" s="37"/>
     </row>
-    <row r="786" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A786" s="37"/>
     </row>
-    <row r="787" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A787" s="37"/>
     </row>
-    <row r="788" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A788" s="37"/>
     </row>
-    <row r="789" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A789" s="37"/>
     </row>
-    <row r="790" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A790" s="37"/>
     </row>
-    <row r="791" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A791" s="37"/>
     </row>
-    <row r="792" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A792" s="37"/>
     </row>
-    <row r="793" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A793" s="37"/>
     </row>
-    <row r="794" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A794" s="37"/>
     </row>
-    <row r="795" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A795" s="37"/>
     </row>
-    <row r="796" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A796" s="37"/>
     </row>
-    <row r="797" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A797" s="37"/>
     </row>
-    <row r="798" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A798" s="37"/>
     </row>
-    <row r="799" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A799" s="37"/>
     </row>
-    <row r="800" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A800" s="37"/>
     </row>
-    <row r="801" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A801" s="37"/>
     </row>
-    <row r="802" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A802" s="37"/>
     </row>
-    <row r="803" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A803" s="37"/>
     </row>
-    <row r="804" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A804" s="37"/>
     </row>
-    <row r="805" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A805" s="37"/>
     </row>
-    <row r="806" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A806" s="37"/>
     </row>
-    <row r="807" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A807" s="37"/>
     </row>
-    <row r="808" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A808" s="37"/>
     </row>
-    <row r="809" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A809" s="37"/>
     </row>
-    <row r="810" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A810" s="37"/>
     </row>
-    <row r="811" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A811" s="37"/>
     </row>
-    <row r="812" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A812" s="37"/>
     </row>
-    <row r="813" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A813" s="37"/>
     </row>
-    <row r="814" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A814" s="37"/>
     </row>
-    <row r="815" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A815" s="37"/>
     </row>
-    <row r="816" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A816" s="37"/>
     </row>
-    <row r="817" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A817" s="37"/>
     </row>
-    <row r="818" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A818" s="37"/>
     </row>
-    <row r="819" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A819" s="37"/>
     </row>
-    <row r="820" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A820" s="37"/>
     </row>
-    <row r="821" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A821" s="37"/>
     </row>
-    <row r="822" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A822" s="37"/>
     </row>
-    <row r="823" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A823" s="37"/>
     </row>
-    <row r="824" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A824" s="37"/>
     </row>
-    <row r="825" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A825" s="37"/>
     </row>
-    <row r="826" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A826" s="37"/>
     </row>
-    <row r="827" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A827" s="37"/>
     </row>
-    <row r="828" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A828" s="37"/>
     </row>
-    <row r="829" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A829" s="37"/>
     </row>
-    <row r="830" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A830" s="37"/>
     </row>
-    <row r="831" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A831" s="37"/>
     </row>
-    <row r="832" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A832" s="37"/>
     </row>
-    <row r="833" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A833" s="37"/>
     </row>
-    <row r="834" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A834" s="37"/>
     </row>
-    <row r="835" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A835" s="37"/>
     </row>
-    <row r="836" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A836" s="37"/>
     </row>
-    <row r="837" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A837" s="37"/>
     </row>
-    <row r="838" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A838" s="37"/>
     </row>
-    <row r="839" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A839" s="37"/>
     </row>
-    <row r="840" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A840" s="37"/>
     </row>
-    <row r="841" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A841" s="37"/>
     </row>
-    <row r="842" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A842" s="37"/>
     </row>
-    <row r="843" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A843" s="37"/>
     </row>
-    <row r="844" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A844" s="37"/>
     </row>
-    <row r="845" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A845" s="37"/>
     </row>
-    <row r="846" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A846" s="37"/>
     </row>
-    <row r="847" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A847" s="37"/>
     </row>
-    <row r="848" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A848" s="37"/>
     </row>
-    <row r="849" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A849" s="37"/>
     </row>
-    <row r="850" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A850" s="37"/>
     </row>
-    <row r="851" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A851" s="37"/>
     </row>
-    <row r="852" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A852" s="37"/>
     </row>
-    <row r="853" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A853" s="37"/>
     </row>
-    <row r="854" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A854" s="37"/>
     </row>
-    <row r="855" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A855" s="37"/>
     </row>
-    <row r="856" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A856" s="37"/>
     </row>
-    <row r="857" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A857" s="37"/>
     </row>
-    <row r="858" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A858" s="37"/>
     </row>
-    <row r="859" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A859" s="37"/>
     </row>
-    <row r="860" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A860" s="37"/>
     </row>
-    <row r="861" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A861" s="37"/>
     </row>
-    <row r="862" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A862" s="37"/>
     </row>
-    <row r="863" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A863" s="37"/>
     </row>
-    <row r="864" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A864" s="37"/>
     </row>
-    <row r="865" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A865" s="37"/>
     </row>
-    <row r="866" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A866" s="37"/>
     </row>
-    <row r="867" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A867" s="37"/>
     </row>
-    <row r="868" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A868" s="37"/>
     </row>
-    <row r="869" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A869" s="37"/>
     </row>
-    <row r="870" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A870" s="37"/>
     </row>
-    <row r="871" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A871" s="37"/>
     </row>
-    <row r="872" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A872" s="37"/>
     </row>
-    <row r="873" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A873" s="37"/>
     </row>
-    <row r="874" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A874" s="37"/>
     </row>
-    <row r="875" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A875" s="37"/>
     </row>
-    <row r="876" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A876" s="37"/>
     </row>
-    <row r="877" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A877" s="37"/>
     </row>
-    <row r="878" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A878" s="37"/>
     </row>
-    <row r="879" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A879" s="37"/>
     </row>
-    <row r="880" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A880" s="37"/>
     </row>
-    <row r="881" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A881" s="37"/>
     </row>
-    <row r="882" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A882" s="37"/>
     </row>
-    <row r="883" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A883" s="37"/>
     </row>
-    <row r="884" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A884" s="37"/>
     </row>
-    <row r="885" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A885" s="37"/>
     </row>
-    <row r="886" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A886" s="37"/>
     </row>
-    <row r="887" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A887" s="37"/>
     </row>
-    <row r="888" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A888" s="37"/>
     </row>
-    <row r="889" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A889" s="37"/>
     </row>
-    <row r="890" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A890" s="37"/>
     </row>
-    <row r="891" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A891" s="37"/>
     </row>
-    <row r="892" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A892" s="37"/>
     </row>
-    <row r="893" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A893" s="37"/>
     </row>
-    <row r="894" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A894" s="37"/>
     </row>
-    <row r="895" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A895" s="37"/>
     </row>
-    <row r="896" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A896" s="37"/>
     </row>
-    <row r="897" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A897" s="37"/>
     </row>
-    <row r="898" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A898" s="37"/>
     </row>
-    <row r="899" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A899" s="37"/>
     </row>
-    <row r="900" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A900" s="37"/>
     </row>
-    <row r="901" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A901" s="37"/>
     </row>
-    <row r="902" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A902" s="37"/>
     </row>
-    <row r="903" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A903" s="37"/>
     </row>
-    <row r="904" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A904" s="37"/>
     </row>
-    <row r="905" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A905" s="37"/>
     </row>
-    <row r="906" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A906" s="37"/>
     </row>
-    <row r="907" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A907" s="37"/>
     </row>
-    <row r="908" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A908" s="37"/>
     </row>
-    <row r="909" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A909" s="37"/>
     </row>
-    <row r="910" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A910" s="37"/>
     </row>
-    <row r="911" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A911" s="37"/>
     </row>
-    <row r="912" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A912" s="37"/>
     </row>
-    <row r="913" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A913" s="37"/>
     </row>
-    <row r="914" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A914" s="37"/>
     </row>
-    <row r="915" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A915" s="37"/>
     </row>
-    <row r="916" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A916" s="37"/>
     </row>
-    <row r="917" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A917" s="37"/>
     </row>
-    <row r="918" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A918" s="37"/>
     </row>
-    <row r="919" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A919" s="37"/>
     </row>
-    <row r="920" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A920" s="37"/>
     </row>
-    <row r="921" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A921" s="37"/>
     </row>
-    <row r="922" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A922" s="37"/>
     </row>
-    <row r="923" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A923" s="37"/>
     </row>
-    <row r="924" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A924" s="37"/>
     </row>
-    <row r="925" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A925" s="37"/>
     </row>
-    <row r="926" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A926" s="37"/>
     </row>
-    <row r="927" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A927" s="37"/>
     </row>
-    <row r="928" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A928" s="37"/>
     </row>
-    <row r="929" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A929" s="37"/>
     </row>
-    <row r="930" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A930" s="37"/>
     </row>
-    <row r="931" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A931" s="37"/>
     </row>
-    <row r="932" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A932" s="37"/>
     </row>
-    <row r="933" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A933" s="37"/>
     </row>
-    <row r="934" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A934" s="37"/>
     </row>
-    <row r="935" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A935" s="37"/>
     </row>
-    <row r="936" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A936" s="37"/>
     </row>
-    <row r="937" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A937" s="37"/>
     </row>
-    <row r="938" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A938" s="37"/>
     </row>
-    <row r="939" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A939" s="37"/>
     </row>
-    <row r="940" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A940" s="37"/>
     </row>
-    <row r="941" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A941" s="37"/>
     </row>
-    <row r="942" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A942" s="37"/>
     </row>
-    <row r="943" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A943" s="37"/>
     </row>
-    <row r="944" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A944" s="37"/>
     </row>
-    <row r="945" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A945" s="37"/>
     </row>
-    <row r="946" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A946" s="37"/>
     </row>
-    <row r="947" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A947" s="37"/>
     </row>
-    <row r="948" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A948" s="37"/>
     </row>
-    <row r="949" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A949" s="37"/>
     </row>
-    <row r="950" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A950" s="37"/>
     </row>
-    <row r="951" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A951" s="37"/>
     </row>
-    <row r="952" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A952" s="37"/>
     </row>
-    <row r="953" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A953" s="37"/>
     </row>
-    <row r="954" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A954" s="37"/>
     </row>
-    <row r="955" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A955" s="37"/>
     </row>
-    <row r="956" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A956" s="37"/>
     </row>
-    <row r="957" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A957" s="37"/>
     </row>
-    <row r="958" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A958" s="37"/>
     </row>
-    <row r="959" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A959" s="37"/>
     </row>
-    <row r="960" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A960" s="37"/>
     </row>
-    <row r="961" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A961" s="37"/>
     </row>
-    <row r="962" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A962" s="37"/>
     </row>
-    <row r="963" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A963" s="37"/>
     </row>
-    <row r="964" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A964" s="37"/>
     </row>
-    <row r="965" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A965" s="37"/>
     </row>
-    <row r="966" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A966" s="37"/>
     </row>
-    <row r="967" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A967" s="37"/>
     </row>
-    <row r="968" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A968" s="37"/>
     </row>
-    <row r="969" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A969" s="37"/>
     </row>
-    <row r="970" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A970" s="37"/>
     </row>
-    <row r="971" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A971" s="37"/>
     </row>
-    <row r="972" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A972" s="37"/>
     </row>
-    <row r="973" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A973" s="37"/>
     </row>
-    <row r="974" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A974" s="37"/>
     </row>
-    <row r="975" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A975" s="37"/>
     </row>
-    <row r="976" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A976" s="37"/>
     </row>
-    <row r="977" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A977" s="37"/>
     </row>
-    <row r="978" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A978" s="37"/>
     </row>
-    <row r="979" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A979" s="37"/>
     </row>
-    <row r="980" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A980" s="37"/>
     </row>
-    <row r="981" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A981" s="37"/>
     </row>
-    <row r="982" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A982" s="37"/>
     </row>
-    <row r="983" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A983" s="37"/>
     </row>
-    <row r="984" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A984" s="37"/>
     </row>
-    <row r="985" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A985" s="37"/>
     </row>
-    <row r="986" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A986" s="37"/>
     </row>
-    <row r="987" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A987" s="37"/>
     </row>
-    <row r="988" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A988" s="37"/>
     </row>
-    <row r="989" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A989" s="37"/>
     </row>
-    <row r="990" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A990" s="37"/>
     </row>
-    <row r="991" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A991" s="37"/>
     </row>
-    <row r="992" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A992" s="37"/>
     </row>
-    <row r="993" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A993" s="37"/>
     </row>
-    <row r="994" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A994" s="37"/>
     </row>
-    <row r="995" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A995" s="37"/>
     </row>
-    <row r="996" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A996" s="37"/>
     </row>
-    <row r="997" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A997" s="37"/>
     </row>
-    <row r="998" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A998" s="37"/>
     </row>
-    <row r="999" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A999" s="37"/>
     </row>
-    <row r="1000" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1000" s="37"/>
     </row>
   </sheetData>

--- a/Team Docs/PeerReview.xlsx
+++ b/Team Docs/PeerReview.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Y2\Block 3\Project startup\Design Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project-startup\Team Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDF94A26-3B4C-481D-8877-753F04811E23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A9F159F-2174-4B8E-97D0-DBA299886A02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10308" yWindow="3648" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 2 Review" sheetId="1" r:id="rId1"/>
@@ -19,14 +19,18 @@
     <sheet name="Progress Overview" sheetId="4" r:id="rId4"/>
     <sheet name="Data" sheetId="5" state="hidden" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <externalReferences>
+    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
+  </externalReferences>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -308,14 +312,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Strength(s): Madre the initial prototyoe very quicjly
-and never says no to adding a new feature, adds 
-logiical feedback when talking about dsign
-Improvement(s): Sometimes get stuck onj points
-during discussions
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Strength(s): Reacting well to being lead of other programmers, knowledge of engine programming 
 helping the project along, good communication
 Improvement(s): At times gets stuck on tiny details when
@@ -404,6 +400,14 @@
 You deliver your work in a timely manner to the best of your abilities. Despite having daunting complicated tasks in an unknown engine and with a failry daunting unknown language you don't shy away from struggling through it anyways and delivering performance.
 Improvement(s):
 C++ skills in more advanced topics could be improved. You lack confidence in your code. You are a good programmer, acknowledge that.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strength(s): Made the initial prototype very quicky
+and never says no to adding a new feature, adds 
+logical feedback when talking about design
+Improvement(s): Sometimes get stuck on points
+during discussions
+</t>
   </si>
 </sst>
 </file>
@@ -784,6 +788,7 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -815,7 +820,6 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1282,6 +1286,58 @@
 </styleSheet>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Data"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Data"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Data"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Data"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1585,8 +1641,8 @@
   </sheetPr>
   <dimension ref="A1:Z18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="A11:XFD11"/>
+    <sheetView tabSelected="1" topLeftCell="J4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1626,33 +1682,33 @@
         <v>1</v>
       </c>
       <c r="C1" s="2"/>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="48"/>
-      <c r="V1" s="55" t="s">
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
+      <c r="W1" s="48"/>
+      <c r="X1" s="48"/>
+      <c r="Y1" s="48"/>
+      <c r="Z1" s="48"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -1662,31 +1718,31 @@
         <v>12</v>
       </c>
       <c r="C2" s="5"/>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="50"/>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="50"/>
-      <c r="S2" s="50"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="51"/>
-      <c r="V2" s="56"/>
-      <c r="W2" s="50"/>
-      <c r="X2" s="50"/>
-      <c r="Y2" s="50"/>
-      <c r="Z2" s="50"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="57"/>
+      <c r="W2" s="51"/>
+      <c r="X2" s="51"/>
+      <c r="Y2" s="51"/>
+      <c r="Z2" s="51"/>
     </row>
     <row r="3" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -1698,31 +1754,31 @@
       <c r="C3" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="52" t="s">
+      <c r="D3" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="53"/>
-      <c r="S3" s="53"/>
-      <c r="T3" s="53"/>
-      <c r="U3" s="54"/>
-      <c r="V3" s="57"/>
-      <c r="W3" s="53"/>
-      <c r="X3" s="53"/>
-      <c r="Y3" s="53"/>
-      <c r="Z3" s="53"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="54"/>
+      <c r="S3" s="54"/>
+      <c r="T3" s="54"/>
+      <c r="U3" s="55"/>
+      <c r="V3" s="58"/>
+      <c r="W3" s="54"/>
+      <c r="X3" s="54"/>
+      <c r="Y3" s="54"/>
+      <c r="Z3" s="54"/>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
@@ -1790,28 +1846,28 @@
       <c r="A5" s="9"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
-      <c r="D5" s="62" t="s">
+      <c r="D5" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="50"/>
-      <c r="M5" s="50"/>
-      <c r="N5" s="50"/>
-      <c r="O5" s="50"/>
-      <c r="P5" s="50"/>
-      <c r="Q5" s="50"/>
-      <c r="R5" s="50"/>
-      <c r="S5" s="50"/>
-      <c r="T5" s="50"/>
-      <c r="U5" s="50"/>
-      <c r="V5" s="50"/>
-      <c r="W5" s="50"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="51"/>
+      <c r="Q5" s="51"/>
+      <c r="R5" s="51"/>
+      <c r="S5" s="51"/>
+      <c r="T5" s="51"/>
+      <c r="U5" s="51"/>
+      <c r="V5" s="51"/>
+      <c r="W5" s="51"/>
       <c r="X5" s="10"/>
       <c r="Y5" s="16" t="s">
         <v>20</v>
@@ -1904,8 +1960,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:26" s="63" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="61" t="s">
+    <row r="7" spans="1:26" s="46" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="62" t="s">
         <v>26</v>
       </c>
       <c r="B7" s="20">
@@ -1933,19 +1989,19 @@
         <v>8</v>
       </c>
       <c r="J7" s="22" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="K7" s="42">
         <v>8</v>
       </c>
       <c r="L7" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M7" s="24">
         <v>8</v>
       </c>
       <c r="N7" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O7" s="24">
         <v>7</v>
@@ -1971,7 +2027,7 @@
       <c r="Z7" s="45"/>
     </row>
     <row r="8" spans="1:26" ht="100.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="50"/>
+      <c r="A8" s="51"/>
       <c r="B8" s="20">
         <v>464704</v>
       </c>
@@ -2034,8 +2090,8 @@
       <c r="Y8" s="26"/>
       <c r="Z8" s="27"/>
     </row>
-    <row r="9" spans="1:26" s="63" customFormat="1" ht="100.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="50"/>
+    <row r="9" spans="1:26" s="46" customFormat="1" ht="100.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="51"/>
       <c r="B9" s="20">
         <v>428729</v>
       </c>
@@ -2043,37 +2099,37 @@
         <v>51</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E9" s="42">
         <v>10</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G9" s="42">
         <v>10</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I9" s="42">
         <v>7</v>
       </c>
       <c r="J9" s="22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K9" s="42">
         <v>10</v>
       </c>
       <c r="L9" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M9" s="24">
         <v>10</v>
       </c>
       <c r="N9" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O9" s="24">
         <v>10</v>
@@ -2098,8 +2154,8 @@
       <c r="Y9" s="26"/>
       <c r="Z9" s="27"/>
     </row>
-    <row r="10" spans="1:26" s="63" customFormat="1" ht="100.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="50"/>
+    <row r="10" spans="1:26" s="46" customFormat="1" ht="100.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="51"/>
       <c r="B10" s="20">
         <v>444711</v>
       </c>
@@ -2162,8 +2218,8 @@
       <c r="Y10" s="26"/>
       <c r="Z10" s="27"/>
     </row>
-    <row r="11" spans="1:26" s="63" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="50"/>
+    <row r="11" spans="1:26" s="46" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="51"/>
       <c r="B11" s="20">
         <v>445021</v>
       </c>
@@ -2171,37 +2227,37 @@
         <v>47</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E11" s="24">
         <v>8</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G11" s="24">
         <v>8</v>
       </c>
       <c r="H11" s="40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I11" s="24">
         <v>8</v>
       </c>
       <c r="J11" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K11" s="24">
         <v>8</v>
       </c>
       <c r="L11" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M11" s="24">
         <v>7</v>
       </c>
       <c r="N11" s="22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O11" s="24">
         <v>8</v>
@@ -2227,7 +2283,7 @@
       <c r="Z11" s="27"/>
     </row>
     <row r="12" spans="1:26" ht="100.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="50"/>
+      <c r="A12" s="51"/>
       <c r="B12" s="20">
         <v>459575</v>
       </c>
@@ -2279,7 +2335,7 @@
       <c r="Z12" s="27"/>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="50"/>
+      <c r="A13" s="51"/>
       <c r="B13" s="20">
         <v>12335</v>
       </c>
@@ -2331,7 +2387,7 @@
       <c r="Z13" s="27"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="50"/>
+      <c r="A14" s="51"/>
       <c r="B14" s="20">
         <v>12335</v>
       </c>
@@ -2383,7 +2439,7 @@
       <c r="Z14" s="27"/>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="50"/>
+      <c r="A15" s="51"/>
       <c r="B15" s="20">
         <v>12335</v>
       </c>
@@ -2435,7 +2491,7 @@
       <c r="Z15" s="27"/>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="50"/>
+      <c r="A16" s="51"/>
       <c r="B16" s="20">
         <v>12335</v>
       </c>
@@ -2565,34 +2621,34 @@
       <c r="Z17" s="32"/>
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="58" t="s">
+      <c r="A18" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="59"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="59"/>
-      <c r="L18" s="59"/>
-      <c r="M18" s="59"/>
-      <c r="N18" s="59"/>
-      <c r="O18" s="59"/>
-      <c r="P18" s="59"/>
-      <c r="Q18" s="59"/>
-      <c r="R18" s="59"/>
-      <c r="S18" s="59"/>
-      <c r="T18" s="59"/>
-      <c r="U18" s="59"/>
-      <c r="V18" s="59"/>
-      <c r="W18" s="59"/>
-      <c r="X18" s="59"/>
-      <c r="Y18" s="59"/>
-      <c r="Z18" s="60"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="60"/>
+      <c r="O18" s="60"/>
+      <c r="P18" s="60"/>
+      <c r="Q18" s="60"/>
+      <c r="R18" s="60"/>
+      <c r="S18" s="60"/>
+      <c r="T18" s="60"/>
+      <c r="U18" s="60"/>
+      <c r="V18" s="60"/>
+      <c r="W18" s="60"/>
+      <c r="X18" s="60"/>
+      <c r="Y18" s="60"/>
+      <c r="Z18" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2651,186 +2707,186 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10 G10 I10 K10 M10 O10 Q10 S10">
-    <cfRule type="cellIs" dxfId="31" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="25" operator="equal">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10 G10 I10 K10 M10 O10 Q10 S10">
-    <cfRule type="cellIs" dxfId="30" priority="26" operator="between">
+    <cfRule type="cellIs" dxfId="46" priority="26" operator="between">
       <formula>9.99</formula>
       <formula>9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10 G10 I10 K10 M10 O10 Q10 S10">
-    <cfRule type="cellIs" dxfId="29" priority="27" operator="between">
+    <cfRule type="cellIs" dxfId="45" priority="27" operator="between">
       <formula>8.99</formula>
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10 G10 I10 K10 M10 O10 Q10 S10">
-    <cfRule type="cellIs" dxfId="28" priority="28" operator="between">
+    <cfRule type="cellIs" dxfId="44" priority="28" operator="between">
       <formula>7.99</formula>
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10 G10 I10 K10 M10 O10 Q10 S10">
-    <cfRule type="cellIs" dxfId="27" priority="29" operator="between">
+    <cfRule type="cellIs" dxfId="43" priority="29" operator="between">
       <formula>6.99</formula>
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10 G10 I10 K10 M10 O10 Q10 S10">
-    <cfRule type="cellIs" dxfId="26" priority="30" operator="between">
+    <cfRule type="cellIs" dxfId="42" priority="30" operator="between">
       <formula>5.99</formula>
       <formula>5.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10 G10 I10 K10 M10 O10 Q10 S10">
-    <cfRule type="cellIs" dxfId="25" priority="31" operator="between">
+    <cfRule type="cellIs" dxfId="41" priority="31" operator="between">
       <formula>5.49</formula>
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10 G10 I10 K10 M10 O10 Q10 S10">
-    <cfRule type="cellIs" dxfId="24" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="32" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7 G7 I7 K7 M7 O7 Q7 S7">
-    <cfRule type="cellIs" dxfId="23" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="17" operator="equal">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7 G7 I7 K7 M7 O7 Q7 S7">
-    <cfRule type="cellIs" dxfId="22" priority="18" operator="between">
+    <cfRule type="cellIs" dxfId="38" priority="18" operator="between">
       <formula>9.99</formula>
       <formula>9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7 G7 I7 K7 M7 O7 Q7 S7">
-    <cfRule type="cellIs" dxfId="21" priority="19" operator="between">
+    <cfRule type="cellIs" dxfId="37" priority="19" operator="between">
       <formula>8.99</formula>
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7 G7 I7 K7 M7 O7 Q7 S7">
-    <cfRule type="cellIs" dxfId="20" priority="20" operator="between">
+    <cfRule type="cellIs" dxfId="36" priority="20" operator="between">
       <formula>7.99</formula>
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7 G7 I7 K7 M7 O7 Q7 S7">
-    <cfRule type="cellIs" dxfId="19" priority="21" operator="between">
+    <cfRule type="cellIs" dxfId="35" priority="21" operator="between">
       <formula>6.99</formula>
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7 G7 I7 K7 M7 O7 Q7 S7">
-    <cfRule type="cellIs" dxfId="18" priority="22" operator="between">
+    <cfRule type="cellIs" dxfId="34" priority="22" operator="between">
       <formula>5.99</formula>
       <formula>5.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7 G7 I7 K7 M7 O7 Q7 S7">
-    <cfRule type="cellIs" dxfId="17" priority="23" operator="between">
+    <cfRule type="cellIs" dxfId="33" priority="23" operator="between">
       <formula>5.49</formula>
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7 G7 I7 K7 M7 O7 Q7 S7">
-    <cfRule type="cellIs" dxfId="16" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="24" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9 G9 I9 K9 M9 O9 Q9 S9">
-    <cfRule type="cellIs" dxfId="15" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="9" operator="equal">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9 G9 I9 K9 M9 O9 Q9 S9">
-    <cfRule type="cellIs" dxfId="14" priority="10" operator="between">
+    <cfRule type="cellIs" dxfId="30" priority="10" operator="between">
       <formula>9.99</formula>
       <formula>9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9 G9 I9 K9 M9 O9 Q9 S9">
-    <cfRule type="cellIs" dxfId="13" priority="11" operator="between">
+    <cfRule type="cellIs" dxfId="29" priority="11" operator="between">
       <formula>8.99</formula>
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9 G9 I9 K9 M9 O9 Q9 S9">
-    <cfRule type="cellIs" dxfId="12" priority="12" operator="between">
+    <cfRule type="cellIs" dxfId="28" priority="12" operator="between">
       <formula>7.99</formula>
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9 G9 I9 K9 M9 O9 Q9 S9">
-    <cfRule type="cellIs" dxfId="11" priority="13" operator="between">
+    <cfRule type="cellIs" dxfId="27" priority="13" operator="between">
       <formula>6.99</formula>
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9 G9 I9 K9 M9 O9 Q9 S9">
-    <cfRule type="cellIs" dxfId="10" priority="14" operator="between">
+    <cfRule type="cellIs" dxfId="26" priority="14" operator="between">
       <formula>5.99</formula>
       <formula>5.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9 G9 I9 K9 M9 O9 Q9 S9">
-    <cfRule type="cellIs" dxfId="9" priority="15" operator="between">
+    <cfRule type="cellIs" dxfId="25" priority="15" operator="between">
       <formula>5.49</formula>
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9 G9 I9 K9 M9 O9 Q9 S9">
-    <cfRule type="cellIs" dxfId="8" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="16" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11 G11 I11 K11 M11 O11 Q11 S11">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="1" operator="equal">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11 G11 I11 K11 M11 O11 Q11 S11">
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="22" priority="2" operator="between">
       <formula>9.99</formula>
       <formula>9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11 G11 I11 K11 M11 O11 Q11 S11">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="21" priority="3" operator="between">
       <formula>8.99</formula>
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11 G11 I11 K11 M11 O11 Q11 S11">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="20" priority="4" operator="between">
       <formula>7.99</formula>
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11 G11 I11 K11 M11 O11 Q11 S11">
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="19" priority="5" operator="between">
       <formula>6.99</formula>
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11 G11 I11 K11 M11 O11 Q11 S11">
-    <cfRule type="cellIs" dxfId="2" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="18" priority="6" operator="between">
       <formula>5.99</formula>
       <formula>5.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11 G11 I11 K11 M11 O11 Q11 S11">
-    <cfRule type="cellIs" dxfId="1" priority="7" operator="between">
+    <cfRule type="cellIs" dxfId="17" priority="7" operator="between">
       <formula>5.49</formula>
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11 G11 I11 K11 M11 O11 Q11 S11">
-    <cfRule type="cellIs" dxfId="0" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="8" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2922,33 +2978,33 @@
         <v>1</v>
       </c>
       <c r="C1" s="2"/>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="48"/>
-      <c r="V1" s="55" t="s">
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
+      <c r="W1" s="48"/>
+      <c r="X1" s="48"/>
+      <c r="Y1" s="48"/>
+      <c r="Z1" s="48"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -2956,31 +3012,31 @@
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="5"/>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="50"/>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="50"/>
-      <c r="S2" s="50"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="51"/>
-      <c r="V2" s="56"/>
-      <c r="W2" s="50"/>
-      <c r="X2" s="50"/>
-      <c r="Y2" s="50"/>
-      <c r="Z2" s="50"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="57"/>
+      <c r="W2" s="51"/>
+      <c r="X2" s="51"/>
+      <c r="Y2" s="51"/>
+      <c r="Z2" s="51"/>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -2990,31 +3046,31 @@
         <v>7</v>
       </c>
       <c r="C3" s="8"/>
-      <c r="D3" s="52" t="s">
+      <c r="D3" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="53"/>
-      <c r="S3" s="53"/>
-      <c r="T3" s="53"/>
-      <c r="U3" s="54"/>
-      <c r="V3" s="57"/>
-      <c r="W3" s="53"/>
-      <c r="X3" s="53"/>
-      <c r="Y3" s="53"/>
-      <c r="Z3" s="53"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="54"/>
+      <c r="S3" s="54"/>
+      <c r="T3" s="54"/>
+      <c r="U3" s="55"/>
+      <c r="V3" s="58"/>
+      <c r="W3" s="54"/>
+      <c r="X3" s="54"/>
+      <c r="Y3" s="54"/>
+      <c r="Z3" s="54"/>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
@@ -3082,28 +3138,28 @@
       <c r="A5" s="9"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
-      <c r="D5" s="62" t="s">
+      <c r="D5" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="50"/>
-      <c r="M5" s="50"/>
-      <c r="N5" s="50"/>
-      <c r="O5" s="50"/>
-      <c r="P5" s="50"/>
-      <c r="Q5" s="50"/>
-      <c r="R5" s="50"/>
-      <c r="S5" s="50"/>
-      <c r="T5" s="50"/>
-      <c r="U5" s="50"/>
-      <c r="V5" s="50"/>
-      <c r="W5" s="50"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="51"/>
+      <c r="Q5" s="51"/>
+      <c r="R5" s="51"/>
+      <c r="S5" s="51"/>
+      <c r="T5" s="51"/>
+      <c r="U5" s="51"/>
+      <c r="V5" s="51"/>
+      <c r="W5" s="51"/>
       <c r="X5" s="10"/>
       <c r="Y5" s="16" t="s">
         <v>20</v>
@@ -3197,7 +3253,7 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="62" t="s">
         <v>26</v>
       </c>
       <c r="B7" s="20">
@@ -3251,7 +3307,7 @@
       <c r="Z7" s="27"/>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="50"/>
+      <c r="A8" s="51"/>
       <c r="B8" s="20">
         <v>12335</v>
       </c>
@@ -3303,7 +3359,7 @@
       <c r="Z8" s="27"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="50"/>
+      <c r="A9" s="51"/>
       <c r="B9" s="20">
         <v>12335</v>
       </c>
@@ -3355,7 +3411,7 @@
       <c r="Z9" s="27"/>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="50"/>
+      <c r="A10" s="51"/>
       <c r="B10" s="20">
         <v>12335</v>
       </c>
@@ -3407,7 +3463,7 @@
       <c r="Z10" s="27"/>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="50"/>
+      <c r="A11" s="51"/>
       <c r="B11" s="20">
         <v>12335</v>
       </c>
@@ -3459,7 +3515,7 @@
       <c r="Z11" s="27"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="50"/>
+      <c r="A12" s="51"/>
       <c r="B12" s="20">
         <v>12335</v>
       </c>
@@ -3511,7 +3567,7 @@
       <c r="Z12" s="27"/>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="50"/>
+      <c r="A13" s="51"/>
       <c r="B13" s="20">
         <v>12335</v>
       </c>
@@ -3563,7 +3619,7 @@
       <c r="Z13" s="27"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="50"/>
+      <c r="A14" s="51"/>
       <c r="B14" s="20">
         <v>12335</v>
       </c>
@@ -3615,7 +3671,7 @@
       <c r="Z14" s="27"/>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="50"/>
+      <c r="A15" s="51"/>
       <c r="B15" s="20">
         <v>12335</v>
       </c>
@@ -3667,7 +3723,7 @@
       <c r="Z15" s="27"/>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="50"/>
+      <c r="A16" s="51"/>
       <c r="B16" s="20">
         <v>12335</v>
       </c>
@@ -3797,34 +3853,34 @@
       <c r="Z17" s="32"/>
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="58" t="s">
+      <c r="A18" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="59"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="59"/>
-      <c r="L18" s="59"/>
-      <c r="M18" s="59"/>
-      <c r="N18" s="59"/>
-      <c r="O18" s="59"/>
-      <c r="P18" s="59"/>
-      <c r="Q18" s="59"/>
-      <c r="R18" s="59"/>
-      <c r="S18" s="59"/>
-      <c r="T18" s="59"/>
-      <c r="U18" s="59"/>
-      <c r="V18" s="59"/>
-      <c r="W18" s="59"/>
-      <c r="X18" s="59"/>
-      <c r="Y18" s="59"/>
-      <c r="Z18" s="60"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="60"/>
+      <c r="O18" s="60"/>
+      <c r="P18" s="60"/>
+      <c r="Q18" s="60"/>
+      <c r="R18" s="60"/>
+      <c r="S18" s="60"/>
+      <c r="T18" s="60"/>
+      <c r="U18" s="60"/>
+      <c r="V18" s="60"/>
+      <c r="W18" s="60"/>
+      <c r="X18" s="60"/>
+      <c r="Y18" s="60"/>
+      <c r="Z18" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3837,48 +3893,48 @@
     <mergeCell ref="D5:W5"/>
   </mergeCells>
   <conditionalFormatting sqref="E4 G4 I4 K4 M4 O4 Q4 S4 E7:E17 G7:G17 I7:I17 K7:K17 M7:M17 O7:O17 Q7:Q17 S7:S17 U17 W17">
-    <cfRule type="cellIs" dxfId="47" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4 G4 I4 K4 M4 O4 Q4 S4 E7:E17 G7:G17 I7:I17 K7:K17 M7:M17 O7:O17 Q7:Q17 S7:S17 U17 W17">
-    <cfRule type="cellIs" dxfId="46" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="between">
       <formula>9.99</formula>
       <formula>9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4 G4 I4 K4 M4 O4 Q4 S4 E7:E17 G7:G17 I7:I17 K7:K17 M7:M17 O7:O17 Q7:Q17 S7:S17 U17 W17">
-    <cfRule type="cellIs" dxfId="45" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="13" priority="3" operator="between">
       <formula>8.99</formula>
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4 G4 I4 K4 M4 O4 Q4 S4 E7:E17 G7:G17 I7:I17 K7:K17 M7:M17 O7:O17 Q7:Q17 S7:S17 U17 W17">
-    <cfRule type="cellIs" dxfId="44" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="12" priority="4" operator="between">
       <formula>7.99</formula>
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4 G4 I4 K4 M4 O4 Q4 S4 E7:E17 G7:G17 I7:I17 K7:K17 M7:M17 O7:O17 Q7:Q17 S7:S17 U17 W17">
-    <cfRule type="cellIs" dxfId="43" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="11" priority="5" operator="between">
       <formula>6.99</formula>
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4 G4 I4 K4 M4 O4 Q4 S4 E7:E17 G7:G17 I7:I17 K7:K17 M7:M17 O7:O17 Q7:Q17 S7:S17 U17 W17">
-    <cfRule type="cellIs" dxfId="42" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="10" priority="6" operator="between">
       <formula>5.99</formula>
       <formula>5.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4 G4 I4 K4 M4 O4 Q4 S4 E7:E17 G7:G17 I7:I17 K7:K17 M7:M17 O7:O17 Q7:Q17 S7:S17 U17 W17">
-    <cfRule type="cellIs" dxfId="41" priority="7" operator="between">
+    <cfRule type="cellIs" dxfId="9" priority="7" operator="between">
       <formula>5.49</formula>
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4 G4 I4 K4 M4 O4 Q4 S4 E7:E17 G7:G17 I7:I17 K7:K17 M7:M17 O7:O17 Q7:Q17 S7:S17 U17 W17">
-    <cfRule type="cellIs" dxfId="40" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3946,33 +4002,33 @@
         <v>1</v>
       </c>
       <c r="C1" s="2"/>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="48"/>
-      <c r="V1" s="55" t="s">
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
+      <c r="W1" s="48"/>
+      <c r="X1" s="48"/>
+      <c r="Y1" s="48"/>
+      <c r="Z1" s="48"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -3980,31 +4036,31 @@
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="5"/>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="50"/>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="50"/>
-      <c r="S2" s="50"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="51"/>
-      <c r="V2" s="56"/>
-      <c r="W2" s="50"/>
-      <c r="X2" s="50"/>
-      <c r="Y2" s="50"/>
-      <c r="Z2" s="50"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="57"/>
+      <c r="W2" s="51"/>
+      <c r="X2" s="51"/>
+      <c r="Y2" s="51"/>
+      <c r="Z2" s="51"/>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -4014,31 +4070,31 @@
         <v>7</v>
       </c>
       <c r="C3" s="8"/>
-      <c r="D3" s="52" t="s">
+      <c r="D3" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="53"/>
-      <c r="S3" s="53"/>
-      <c r="T3" s="53"/>
-      <c r="U3" s="54"/>
-      <c r="V3" s="57"/>
-      <c r="W3" s="53"/>
-      <c r="X3" s="53"/>
-      <c r="Y3" s="53"/>
-      <c r="Z3" s="53"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="54"/>
+      <c r="S3" s="54"/>
+      <c r="T3" s="54"/>
+      <c r="U3" s="55"/>
+      <c r="V3" s="58"/>
+      <c r="W3" s="54"/>
+      <c r="X3" s="54"/>
+      <c r="Y3" s="54"/>
+      <c r="Z3" s="54"/>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
@@ -4106,28 +4162,28 @@
       <c r="A5" s="9"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
-      <c r="D5" s="62" t="s">
+      <c r="D5" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="50"/>
-      <c r="M5" s="50"/>
-      <c r="N5" s="50"/>
-      <c r="O5" s="50"/>
-      <c r="P5" s="50"/>
-      <c r="Q5" s="50"/>
-      <c r="R5" s="50"/>
-      <c r="S5" s="50"/>
-      <c r="T5" s="50"/>
-      <c r="U5" s="50"/>
-      <c r="V5" s="50"/>
-      <c r="W5" s="50"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="51"/>
+      <c r="Q5" s="51"/>
+      <c r="R5" s="51"/>
+      <c r="S5" s="51"/>
+      <c r="T5" s="51"/>
+      <c r="U5" s="51"/>
+      <c r="V5" s="51"/>
+      <c r="W5" s="51"/>
       <c r="X5" s="10"/>
       <c r="Y5" s="16" t="s">
         <v>20</v>
@@ -4221,7 +4277,7 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="62" t="s">
         <v>26</v>
       </c>
       <c r="B7" s="20">
@@ -4275,7 +4331,7 @@
       <c r="Z7" s="27"/>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="50"/>
+      <c r="A8" s="51"/>
       <c r="B8" s="20">
         <v>12335</v>
       </c>
@@ -4327,7 +4383,7 @@
       <c r="Z8" s="27"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="50"/>
+      <c r="A9" s="51"/>
       <c r="B9" s="20">
         <v>12335</v>
       </c>
@@ -4379,7 +4435,7 @@
       <c r="Z9" s="27"/>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="50"/>
+      <c r="A10" s="51"/>
       <c r="B10" s="20">
         <v>12335</v>
       </c>
@@ -4431,7 +4487,7 @@
       <c r="Z10" s="27"/>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="50"/>
+      <c r="A11" s="51"/>
       <c r="B11" s="20">
         <v>12335</v>
       </c>
@@ -4483,7 +4539,7 @@
       <c r="Z11" s="27"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="50"/>
+      <c r="A12" s="51"/>
       <c r="B12" s="20">
         <v>12335</v>
       </c>
@@ -4535,7 +4591,7 @@
       <c r="Z12" s="27"/>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="50"/>
+      <c r="A13" s="51"/>
       <c r="B13" s="20">
         <v>12335</v>
       </c>
@@ -4587,7 +4643,7 @@
       <c r="Z13" s="27"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="50"/>
+      <c r="A14" s="51"/>
       <c r="B14" s="20">
         <v>12335</v>
       </c>
@@ -4639,7 +4695,7 @@
       <c r="Z14" s="27"/>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="50"/>
+      <c r="A15" s="51"/>
       <c r="B15" s="20">
         <v>12335</v>
       </c>
@@ -4691,7 +4747,7 @@
       <c r="Z15" s="27"/>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="50"/>
+      <c r="A16" s="51"/>
       <c r="B16" s="20">
         <v>12335</v>
       </c>
@@ -4821,34 +4877,34 @@
       <c r="Z17" s="32"/>
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="58" t="s">
+      <c r="A18" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="59"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="59"/>
-      <c r="L18" s="59"/>
-      <c r="M18" s="59"/>
-      <c r="N18" s="59"/>
-      <c r="O18" s="59"/>
-      <c r="P18" s="59"/>
-      <c r="Q18" s="59"/>
-      <c r="R18" s="59"/>
-      <c r="S18" s="59"/>
-      <c r="T18" s="59"/>
-      <c r="U18" s="59"/>
-      <c r="V18" s="59"/>
-      <c r="W18" s="59"/>
-      <c r="X18" s="59"/>
-      <c r="Y18" s="59"/>
-      <c r="Z18" s="60"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="60"/>
+      <c r="O18" s="60"/>
+      <c r="P18" s="60"/>
+      <c r="Q18" s="60"/>
+      <c r="R18" s="60"/>
+      <c r="S18" s="60"/>
+      <c r="T18" s="60"/>
+      <c r="U18" s="60"/>
+      <c r="V18" s="60"/>
+      <c r="W18" s="60"/>
+      <c r="X18" s="60"/>
+      <c r="Y18" s="60"/>
+      <c r="Z18" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4861,48 +4917,48 @@
     <mergeCell ref="D5:W5"/>
   </mergeCells>
   <conditionalFormatting sqref="E4 G4 I4 K4 M4 O4 Q4 S4 E7:E17 G7:G17 I7:I17 K7:K17 M7:M17 O7:O17 Q7:Q17 S7:S17 U17 W17">
-    <cfRule type="cellIs" dxfId="39" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4 G4 I4 K4 M4 O4 Q4 S4 E7:E17 G7:G17 I7:I17 K7:K17 M7:M17 O7:O17 Q7:Q17 S7:S17 U17 W17">
-    <cfRule type="cellIs" dxfId="38" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="between">
       <formula>9.99</formula>
       <formula>9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4 G4 I4 K4 M4 O4 Q4 S4 E7:E17 G7:G17 I7:I17 K7:K17 M7:M17 O7:O17 Q7:Q17 S7:S17 U17 W17">
-    <cfRule type="cellIs" dxfId="37" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="between">
       <formula>8.99</formula>
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4 G4 I4 K4 M4 O4 Q4 S4 E7:E17 G7:G17 I7:I17 K7:K17 M7:M17 O7:O17 Q7:Q17 S7:S17 U17 W17">
-    <cfRule type="cellIs" dxfId="36" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="between">
       <formula>7.99</formula>
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4 G4 I4 K4 M4 O4 Q4 S4 E7:E17 G7:G17 I7:I17 K7:K17 M7:M17 O7:O17 Q7:Q17 S7:S17 U17 W17">
-    <cfRule type="cellIs" dxfId="35" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="between">
       <formula>6.99</formula>
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4 G4 I4 K4 M4 O4 Q4 S4 E7:E17 G7:G17 I7:I17 K7:K17 M7:M17 O7:O17 Q7:Q17 S7:S17 U17 W17">
-    <cfRule type="cellIs" dxfId="34" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="between">
       <formula>5.99</formula>
       <formula>5.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4 G4 I4 K4 M4 O4 Q4 S4 E7:E17 G7:G17 I7:I17 K7:K17 M7:M17 O7:O17 Q7:Q17 S7:S17 U17 W17">
-    <cfRule type="cellIs" dxfId="33" priority="7" operator="between">
+    <cfRule type="cellIs" dxfId="1" priority="7" operator="between">
       <formula>5.49</formula>
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4 G4 I4 K4 M4 O4 Q4 S4 E7:E17 G7:G17 I7:I17 K7:K17 M7:M17 O7:O17 Q7:Q17 S7:S17 U17 W17">
-    <cfRule type="cellIs" dxfId="32" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="8" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Team Docs/PeerReview.xlsx
+++ b/Team Docs/PeerReview.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Huurmam van Abdullah\Desktop\Saxion\Year 2\Term 3\Project-startup\Team Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Y2\Block 3\Project startup\Team Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{277EA3C8-ACE4-4F41-93C3-8AA88ACEC538}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C9E739E-A99B-4DE0-A5EC-7274C17F38FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3540" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 2 Review" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="94">
   <si>
     <t>PEER1</t>
   </si>
@@ -314,14 +314,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Strength(s): Madre the initial prototyoe very quicjly
-and never says no to adding a new feature, adds 
-logiical feedback when talking about dsign
-Improvement(s): Sometimes get stuck onj points
-during discussions
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Strength(s): Reacting well to being lead of other programmers, knowledge of engine programming 
 helping the project along, good communication
 Improvement(s): At times gets stuck on tiny details when
@@ -395,21 +387,67 @@
   </si>
   <si>
     <t>Strength(s):
-You work fast for prototyping with a focus on the priorities. You work with C# with expertise and efficiency. With C++ you don't shy away from challenge despite having mentioned that Engine dev and C++ is daunting. You ask for help when you need it and are willing to lend out a helping hand whenever it is needed. You get done what is needed.
-Improvement(s):
-Your understanding of more advanced C++ concepts can use improvement. If you're stuck with C++ you could ask for help sooner or for tips for research directions.</t>
-  </si>
-  <si>
-    <t>Strength(s):
 Skilled in C++ and engine development. Feels responsible for his tasks. Is willing to put in extra work when necessary. made improvements in trusting other programmers to implement sensitive systems.
 Improvement(s):
 Workload delegation, you could spread out your wokload more between the other programmers. Implementation time underestimation, despite adding 30% more implementation time you still manage to spend more time than the actual estimation. You should trust your fellow programmers more with intricate and complicated core systems. You tend to try to overcomplicate implementations for only a slightly bigger convenience for other team members, ask your temmembers to spend 5 seconds more instead of spending hours more yourself. Don't be a perfectionistic little bitch.</t>
   </si>
   <si>
+    <t xml:space="preserve">As a summary, according to my team mates I always deliever what's asked from me in high quality and can be relied on even in areas that are not my expertise. I always ask for feedback, even during the process.
+</t>
+  </si>
+  <si>
+    <t>For improvments I need to be more communicative with my team mates during work, meaning less time on headphones and more time being present.</t>
+  </si>
+  <si>
+    <t>Received very helpful feedback: Be more confident, grant myself more work time and give more feedback to peers.</t>
+  </si>
+  <si>
+    <t>Give myself more work time, keep asking for feedback about my work, give feedback to others more.</t>
+  </si>
+  <si>
+    <t>Quick at making prototypes and isn't afraid to add or remove features when asked. Gets distracted sometimes. Gives advice but sometimes get stuck on specific points. Learn more about advanced c++ concepts and ask sooner for help.</t>
+  </si>
+  <si>
+    <t>Dabble with more C++ in general but more specifically advanced data structures. Make decisions more quickly instead of arguing about it.</t>
+  </si>
+  <si>
     <t>Strength(s):
-You deliver your work in a timely manner to the best of your abilities. Despite having daunting complicated tasks in an unknown engine and with a failry daunting unknown language you don't shy away from struggling through it anyways and delivering performance.
+You work fast for prototyping with a focus on the priorities. You work with C# with expertise and efficiency. With C++ you don't shy away from challenge despite having mentioned that Engine dev and C++ is daunting. You ask for help when you need it and are willing to lend out a helping hand whenever it is needed. You get done what is needed.
 Improvement(s):
-C++ skills in more advanced topics could be improved. You lack confidence in your code. You are a good programmer, acknowledge that.</t>
+Your understanding of more advanced C++ concepts can use improvement. If you're stuck with C++ you could ask for help sooner or for tips for research directions.
+You should learn more about advanced data structures.</t>
+  </si>
+  <si>
+    <t>Strength(s):
+You deliver your work in a timely manner to the best of your abilities. Despite having daunting complicated tasks in an unknown engine and with a failry daunting unknown language you don't shy away from struggling through it anyways and delivering performance. You add a positive feel to the team.
+Improvement(s):
+C++ skills in more advanced topics could be improved. You lack confidence in your code. You are a good programmer, acknowledge that.
+You can spend more attention on being on time.
+You should learn more about advanced data structures.</t>
+  </si>
+  <si>
+    <t>I keep getting stuck on no longer relevant topics during discussions, dragging out discussions unnecessarily. Should learn better time management.</t>
+  </si>
+  <si>
+    <t>I should rethink whether what I want to say is really still relevant. I should trust my fellow programmers with bigger tasks and add an even higher time margin to tasks.</t>
+  </si>
+  <si>
+    <t>I planned well for the sprint, good a keeping meetings and
+discussions streamlined, I have a good work ethic and
+can improvise</t>
+  </si>
+  <si>
+    <t>I will keep my working hours between 09.30 and 17.00 for 
+most days, I will also try and listen to other peoples ideas 
+a lot better</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strength(s): Made the initial prototype very quicky
+and never says no to adding a new feature, adds 
+logical feedback when talking about design
+Improvement(s): Sometimes get stuck on points
+during discussions
+</t>
   </si>
 </sst>
 </file>
@@ -826,7 +864,391 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="56">
+  <dxfs count="104">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCCCCC"/>
+          <bgColor rgb="FFCCCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4CCCC"/>
+          <bgColor rgb="FFF4CCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9EAD3"/>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD0E0E3"/>
+          <bgColor rgb="FFD0E0E3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCCCCC"/>
+          <bgColor rgb="FFCCCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4CCCC"/>
+          <bgColor rgb="FFF4CCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9EAD3"/>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD0E0E3"/>
+          <bgColor rgb="FFD0E0E3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCCCCC"/>
+          <bgColor rgb="FFCCCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4CCCC"/>
+          <bgColor rgb="FFF4CCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9EAD3"/>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD0E0E3"/>
+          <bgColor rgb="FFD0E0E3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCCCCC"/>
+          <bgColor rgb="FFCCCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4CCCC"/>
+          <bgColor rgb="FFF4CCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9EAD3"/>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD0E0E3"/>
+          <bgColor rgb="FFD0E0E3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCCCCC"/>
+          <bgColor rgb="FFCCCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4CCCC"/>
+          <bgColor rgb="FFF4CCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9EAD3"/>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD0E0E3"/>
+          <bgColor rgb="FFD0E0E3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCCCCC"/>
+          <bgColor rgb="FFCCCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4CCCC"/>
+          <bgColor rgb="FFF4CCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9EAD3"/>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD0E0E3"/>
+          <bgColor rgb="FFD0E0E3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1331,10 +1753,18 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
+      <sheetName val="Week 2 Review"/>
+      <sheetName val="Week 4 Review"/>
+      <sheetName val="Week 6 Review"/>
+      <sheetName val="Progress Overview"/>
       <sheetName val="Data"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1643,40 +2073,40 @@
   </sheetPr>
   <dimension ref="A1:Z18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y9" sqref="Y9"/>
+    <sheetView tabSelected="1" topLeftCell="I2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="50.7109375" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" customWidth="1"/>
-    <col min="6" max="6" width="50.7109375" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" customWidth="1"/>
-    <col min="8" max="8" width="50.7109375" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" customWidth="1"/>
-    <col min="10" max="10" width="50.7109375" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" customWidth="1"/>
-    <col min="12" max="12" width="50.7109375" customWidth="1"/>
-    <col min="13" max="13" width="6.7109375" customWidth="1"/>
-    <col min="14" max="14" width="50.7109375" customWidth="1"/>
-    <col min="15" max="15" width="6.7109375" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" customWidth="1"/>
-    <col min="17" max="17" width="5.140625" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" customWidth="1"/>
-    <col min="19" max="19" width="5.140625" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" customWidth="1"/>
-    <col min="21" max="21" width="5.140625" customWidth="1"/>
-    <col min="22" max="22" width="15.7109375" customWidth="1"/>
-    <col min="23" max="23" width="5.140625" customWidth="1"/>
-    <col min="24" max="24" width="2.7109375" customWidth="1"/>
+    <col min="1" max="1" width="7.44140625" customWidth="1"/>
+    <col min="2" max="2" width="8.109375" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="50.6640625" customWidth="1"/>
+    <col min="5" max="5" width="6.6640625" customWidth="1"/>
+    <col min="6" max="6" width="50.6640625" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" customWidth="1"/>
+    <col min="8" max="8" width="50.6640625" customWidth="1"/>
+    <col min="9" max="9" width="6.6640625" customWidth="1"/>
+    <col min="10" max="10" width="50.6640625" customWidth="1"/>
+    <col min="11" max="11" width="6.6640625" customWidth="1"/>
+    <col min="12" max="12" width="50.6640625" customWidth="1"/>
+    <col min="13" max="13" width="6.6640625" customWidth="1"/>
+    <col min="14" max="14" width="50.6640625" customWidth="1"/>
+    <col min="15" max="15" width="6.6640625" customWidth="1"/>
+    <col min="16" max="16" width="14.6640625" customWidth="1"/>
+    <col min="17" max="17" width="5.109375" customWidth="1"/>
+    <col min="18" max="18" width="14.6640625" customWidth="1"/>
+    <col min="19" max="19" width="5.109375" customWidth="1"/>
+    <col min="20" max="20" width="14.6640625" customWidth="1"/>
+    <col min="21" max="21" width="5.109375" customWidth="1"/>
+    <col min="22" max="22" width="15.6640625" customWidth="1"/>
+    <col min="23" max="23" width="5.109375" customWidth="1"/>
+    <col min="24" max="24" width="2.6640625" customWidth="1"/>
     <col min="25" max="26" width="42" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1712,7 +2142,7 @@
       <c r="Y1" s="48"/>
       <c r="Z1" s="48"/>
     </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1746,7 +2176,7 @@
       <c r="Y2" s="51"/>
       <c r="Z2" s="51"/>
     </row>
-    <row r="3" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
@@ -1782,7 +2212,7 @@
       <c r="Y3" s="54"/>
       <c r="Z3" s="54"/>
     </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -1844,7 +2274,7 @@
       <c r="Y4" s="10"/>
       <c r="Z4" s="10"/>
     </row>
-    <row r="5" spans="1:26" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -1876,7 +2306,7 @@
       </c>
       <c r="Z5" s="16"/>
     </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="17" t="s">
         <v>21</v>
@@ -1962,7 +2392,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:26" s="46" customFormat="1" ht="100.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" s="46" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="62" t="s">
         <v>26</v>
       </c>
@@ -1991,19 +2421,19 @@
         <v>8</v>
       </c>
       <c r="J7" s="22" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="K7" s="42">
         <v>8</v>
       </c>
       <c r="L7" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M7" s="24">
         <v>8</v>
       </c>
       <c r="N7" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O7" s="24">
         <v>7</v>
@@ -2025,10 +2455,14 @@
       </c>
       <c r="W7" s="24"/>
       <c r="X7" s="25"/>
-      <c r="Y7" s="44"/>
-      <c r="Z7" s="45"/>
-    </row>
-    <row r="8" spans="1:26" ht="100.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y7" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z7" s="45" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" s="46" customFormat="1" ht="100.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="51"/>
       <c r="B8" s="20">
         <v>464704</v>
@@ -2063,36 +2497,40 @@
       <c r="L8" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="M8" s="29">
+      <c r="M8" s="30">
         <v>7</v>
       </c>
       <c r="N8" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="O8" s="29">
+      <c r="O8" s="30">
         <v>7</v>
       </c>
       <c r="P8" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="Q8" s="29"/>
+      <c r="Q8" s="30"/>
       <c r="R8" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="S8" s="29"/>
+      <c r="S8" s="30"/>
       <c r="T8" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="U8" s="29"/>
+      <c r="U8" s="30"/>
       <c r="V8" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="W8" s="29"/>
+      <c r="W8" s="30"/>
       <c r="X8" s="25"/>
-      <c r="Y8" s="26"/>
-      <c r="Z8" s="27"/>
-    </row>
-    <row r="9" spans="1:26" s="46" customFormat="1" ht="100.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y8" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z8" s="27" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" s="46" customFormat="1" ht="100.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="51"/>
       <c r="B9" s="20">
         <v>428729</v>
@@ -2101,37 +2539,37 @@
         <v>51</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E9" s="42">
         <v>10</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G9" s="42">
         <v>10</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I9" s="42">
         <v>7</v>
       </c>
       <c r="J9" s="22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K9" s="42">
         <v>10</v>
       </c>
       <c r="L9" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M9" s="24">
         <v>10</v>
       </c>
       <c r="N9" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O9" s="24">
         <v>10</v>
@@ -2153,10 +2591,14 @@
       </c>
       <c r="W9" s="24"/>
       <c r="X9" s="25"/>
-      <c r="Y9" s="26"/>
-      <c r="Z9" s="27"/>
-    </row>
-    <row r="10" spans="1:26" s="46" customFormat="1" ht="100.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y9" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z9" s="27" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" s="46" customFormat="1" ht="100.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="51"/>
       <c r="B10" s="20">
         <v>444711</v>
@@ -2217,10 +2659,14 @@
       </c>
       <c r="W10" s="30"/>
       <c r="X10" s="25"/>
-      <c r="Y10" s="26"/>
-      <c r="Z10" s="27"/>
-    </row>
-    <row r="11" spans="1:26" s="46" customFormat="1" ht="100.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y10" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z10" s="27" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" s="46" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="51"/>
       <c r="B11" s="20">
         <v>445021</v>
@@ -2229,37 +2675,37 @@
         <v>47</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E11" s="24">
         <v>8</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G11" s="24">
         <v>8</v>
       </c>
       <c r="H11" s="40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I11" s="24">
         <v>8</v>
       </c>
       <c r="J11" s="22" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="K11" s="24">
         <v>8</v>
       </c>
       <c r="L11" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M11" s="24">
         <v>7</v>
       </c>
       <c r="N11" s="22" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="O11" s="24">
         <v>8</v>
@@ -2281,10 +2727,14 @@
       </c>
       <c r="W11" s="24"/>
       <c r="X11" s="25"/>
-      <c r="Y11" s="26"/>
-      <c r="Z11" s="27"/>
-    </row>
-    <row r="12" spans="1:26" ht="100.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y11" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z11" s="27" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="100.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="51"/>
       <c r="B12" s="20">
         <v>459575</v>
@@ -2336,7 +2786,7 @@
       <c r="Y12" s="26"/>
       <c r="Z12" s="27"/>
     </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="51"/>
       <c r="B13" s="20">
         <v>12335</v>
@@ -2388,7 +2838,7 @@
       <c r="Y13" s="26"/>
       <c r="Z13" s="27"/>
     </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="51"/>
       <c r="B14" s="20">
         <v>12335</v>
@@ -2440,7 +2890,7 @@
       <c r="Y14" s="26"/>
       <c r="Z14" s="27"/>
     </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="51"/>
       <c r="B15" s="20">
         <v>12335</v>
@@ -2492,7 +2942,7 @@
       <c r="Y15" s="26"/>
       <c r="Z15" s="27"/>
     </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="51"/>
       <c r="B16" s="20">
         <v>12335</v>
@@ -2544,7 +2994,7 @@
       <c r="Y16" s="26"/>
       <c r="Z16" s="27"/>
     </row>
-    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="31"/>
       <c r="B17" s="32"/>
       <c r="C17" s="32"/>
@@ -2622,7 +3072,7 @@
       <c r="Y17" s="32"/>
       <c r="Z17" s="32"/>
     </row>
-    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="59" t="s">
         <v>40</v>
       </c>
@@ -2662,233 +3112,279 @@
     <mergeCell ref="A7:A16"/>
     <mergeCell ref="D5:W5"/>
   </mergeCells>
-  <conditionalFormatting sqref="E4 G4 I4 K4 M4 O4 Q4 S4 E8 G8 I8 K8 M8 O8 Q8 S8 U17 W17 S12:S17 Q12:Q17 O12:O17 M12:M17 K12:K17 I12:I17 G12:G17 E12:E17">
-    <cfRule type="cellIs" dxfId="55" priority="33" operator="equal">
+  <conditionalFormatting sqref="E4 G4 I4 K4 M4 O4 Q4 S4 U17 W17 S12:S17 Q12:Q17 O12:O17 M12:M17 K12:K17 I12:I17 G12:G17 E12:E17">
+    <cfRule type="cellIs" dxfId="103" priority="81" operator="equal">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4 G4 I4 K4 M4 O4 Q4 S4 E8 G8 I8 K8 M8 O8 Q8 S8 U17 W17 S12:S17 Q12:Q17 O12:O17 M12:M17 K12:K17 I12:I17 G12:G17 E12:E17">
-    <cfRule type="cellIs" dxfId="54" priority="34" operator="between">
+  <conditionalFormatting sqref="E4 G4 I4 K4 M4 O4 Q4 S4 U17 W17 S12:S17 Q12:Q17 O12:O17 M12:M17 K12:K17 I12:I17 G12:G17 E12:E17">
+    <cfRule type="cellIs" dxfId="102" priority="82" operator="between">
       <formula>9.99</formula>
       <formula>9</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4 G4 I4 K4 M4 O4 Q4 S4 E8 G8 I8 K8 M8 O8 Q8 S8 U17 W17 S12:S17 Q12:Q17 O12:O17 M12:M17 K12:K17 I12:I17 G12:G17 E12:E17">
-    <cfRule type="cellIs" dxfId="53" priority="35" operator="between">
+  <conditionalFormatting sqref="E4 G4 I4 K4 M4 O4 Q4 S4 U17 W17 S12:S17 Q12:Q17 O12:O17 M12:M17 K12:K17 I12:I17 G12:G17 E12:E17">
+    <cfRule type="cellIs" dxfId="101" priority="83" operator="between">
       <formula>8.99</formula>
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4 G4 I4 K4 M4 O4 Q4 S4 E8 G8 I8 K8 M8 O8 Q8 S8 U17 W17 S12:S17 Q12:Q17 O12:O17 M12:M17 K12:K17 I12:I17 G12:G17 E12:E17">
-    <cfRule type="cellIs" dxfId="52" priority="36" operator="between">
+  <conditionalFormatting sqref="E4 G4 I4 K4 M4 O4 Q4 S4 U17 W17 S12:S17 Q12:Q17 O12:O17 M12:M17 K12:K17 I12:I17 G12:G17 E12:E17">
+    <cfRule type="cellIs" dxfId="100" priority="84" operator="between">
       <formula>7.99</formula>
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4 G4 I4 K4 M4 O4 Q4 S4 E8 G8 I8 K8 M8 O8 Q8 S8 U17 W17 S12:S17 Q12:Q17 O12:O17 M12:M17 K12:K17 I12:I17 G12:G17 E12:E17">
-    <cfRule type="cellIs" dxfId="51" priority="37" operator="between">
+  <conditionalFormatting sqref="E4 G4 I4 K4 M4 O4 Q4 S4 U17 W17 S12:S17 Q12:Q17 O12:O17 M12:M17 K12:K17 I12:I17 G12:G17 E12:E17">
+    <cfRule type="cellIs" dxfId="99" priority="85" operator="between">
       <formula>6.99</formula>
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4 G4 I4 K4 M4 O4 Q4 S4 E8 G8 I8 K8 M8 O8 Q8 S8 U17 W17 S12:S17 Q12:Q17 O12:O17 M12:M17 K12:K17 I12:I17 G12:G17 E12:E17">
-    <cfRule type="cellIs" dxfId="50" priority="38" operator="between">
+  <conditionalFormatting sqref="E4 G4 I4 K4 M4 O4 Q4 S4 U17 W17 S12:S17 Q12:Q17 O12:O17 M12:M17 K12:K17 I12:I17 G12:G17 E12:E17">
+    <cfRule type="cellIs" dxfId="98" priority="86" operator="between">
       <formula>5.99</formula>
       <formula>5.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4 G4 I4 K4 M4 O4 Q4 S4 E8 G8 I8 K8 M8 O8 Q8 S8 U17 W17 S12:S17 Q12:Q17 O12:O17 M12:M17 K12:K17 I12:I17 G12:G17 E12:E17">
-    <cfRule type="cellIs" dxfId="49" priority="39" operator="between">
+  <conditionalFormatting sqref="E4 G4 I4 K4 M4 O4 Q4 S4 U17 W17 S12:S17 Q12:Q17 O12:O17 M12:M17 K12:K17 I12:I17 G12:G17 E12:E17">
+    <cfRule type="cellIs" dxfId="97" priority="87" operator="between">
       <formula>5.49</formula>
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4 G4 I4 K4 M4 O4 Q4 S4 E8 G8 I8 K8 M8 O8 Q8 S8 U17 W17 S12:S17 Q12:Q17 O12:O17 M12:M17 K12:K17 I12:I17 G12:G17 E12:E17">
-    <cfRule type="cellIs" dxfId="48" priority="40" operator="equal">
+  <conditionalFormatting sqref="E4 G4 I4 K4 M4 O4 Q4 S4 U17 W17 S12:S17 Q12:Q17 O12:O17 M12:M17 K12:K17 I12:I17 G12:G17 E12:E17">
+    <cfRule type="cellIs" dxfId="96" priority="88" operator="equal">
+      <formula>"NA"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9 G9 I9 K9 M9 O9 Q9 S9">
+    <cfRule type="cellIs" dxfId="39" priority="33" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9 G9 I9 K9 M9 O9 Q9 S9">
+    <cfRule type="cellIs" dxfId="38" priority="34" operator="between">
+      <formula>9.99</formula>
+      <formula>9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9 G9 I9 K9 M9 O9 Q9 S9">
+    <cfRule type="cellIs" dxfId="37" priority="35" operator="between">
+      <formula>8.99</formula>
+      <formula>8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9 G9 I9 K9 M9 O9 Q9 S9">
+    <cfRule type="cellIs" dxfId="36" priority="36" operator="between">
+      <formula>7.99</formula>
+      <formula>7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9 G9 I9 K9 M9 O9 Q9 S9">
+    <cfRule type="cellIs" dxfId="35" priority="37" operator="between">
+      <formula>6.99</formula>
+      <formula>6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9 G9 I9 K9 M9 O9 Q9 S9">
+    <cfRule type="cellIs" dxfId="34" priority="38" operator="between">
+      <formula>5.99</formula>
+      <formula>5.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9 G9 I9 K9 M9 O9 Q9 S9">
+    <cfRule type="cellIs" dxfId="33" priority="39" operator="between">
+      <formula>5.49</formula>
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9 G9 I9 K9 M9 O9 Q9 S9">
+    <cfRule type="cellIs" dxfId="32" priority="40" operator="equal">
+      <formula>"NA"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8 G8 I8 K8 M8 O8 Q8 S8">
+    <cfRule type="cellIs" dxfId="31" priority="25" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8 G8 I8 K8 M8 O8 Q8 S8">
+    <cfRule type="cellIs" dxfId="30" priority="26" operator="between">
+      <formula>9.99</formula>
+      <formula>9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8 G8 I8 K8 M8 O8 Q8 S8">
+    <cfRule type="cellIs" dxfId="29" priority="27" operator="between">
+      <formula>8.99</formula>
+      <formula>8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8 G8 I8 K8 M8 O8 Q8 S8">
+    <cfRule type="cellIs" dxfId="28" priority="28" operator="between">
+      <formula>7.99</formula>
+      <formula>7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8 G8 I8 K8 M8 O8 Q8 S8">
+    <cfRule type="cellIs" dxfId="27" priority="29" operator="between">
+      <formula>6.99</formula>
+      <formula>6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8 G8 I8 K8 M8 O8 Q8 S8">
+    <cfRule type="cellIs" dxfId="26" priority="30" operator="between">
+      <formula>5.99</formula>
+      <formula>5.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8 G8 I8 K8 M8 O8 Q8 S8">
+    <cfRule type="cellIs" dxfId="25" priority="31" operator="between">
+      <formula>5.49</formula>
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8 G8 I8 K8 M8 O8 Q8 S8">
+    <cfRule type="cellIs" dxfId="24" priority="32" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10 G10 I10 K10 M10 O10 Q10 S10">
-    <cfRule type="cellIs" dxfId="47" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="17" operator="equal">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10 G10 I10 K10 M10 O10 Q10 S10">
-    <cfRule type="cellIs" dxfId="46" priority="26" operator="between">
+    <cfRule type="cellIs" dxfId="22" priority="18" operator="between">
       <formula>9.99</formula>
       <formula>9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10 G10 I10 K10 M10 O10 Q10 S10">
-    <cfRule type="cellIs" dxfId="45" priority="27" operator="between">
+    <cfRule type="cellIs" dxfId="21" priority="19" operator="between">
       <formula>8.99</formula>
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10 G10 I10 K10 M10 O10 Q10 S10">
-    <cfRule type="cellIs" dxfId="44" priority="28" operator="between">
+    <cfRule type="cellIs" dxfId="20" priority="20" operator="between">
       <formula>7.99</formula>
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10 G10 I10 K10 M10 O10 Q10 S10">
-    <cfRule type="cellIs" dxfId="43" priority="29" operator="between">
+    <cfRule type="cellIs" dxfId="19" priority="21" operator="between">
       <formula>6.99</formula>
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10 G10 I10 K10 M10 O10 Q10 S10">
-    <cfRule type="cellIs" dxfId="42" priority="30" operator="between">
+    <cfRule type="cellIs" dxfId="18" priority="22" operator="between">
       <formula>5.99</formula>
       <formula>5.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10 G10 I10 K10 M10 O10 Q10 S10">
-    <cfRule type="cellIs" dxfId="41" priority="31" operator="between">
+    <cfRule type="cellIs" dxfId="17" priority="23" operator="between">
       <formula>5.49</formula>
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10 G10 I10 K10 M10 O10 Q10 S10">
-    <cfRule type="cellIs" dxfId="40" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="24" operator="equal">
+      <formula>"NA"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11 G11 I11 K11 M11 O11 Q11 S11">
+    <cfRule type="cellIs" dxfId="15" priority="9" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11 G11 I11 K11 M11 O11 Q11 S11">
+    <cfRule type="cellIs" dxfId="14" priority="10" operator="between">
+      <formula>9.99</formula>
+      <formula>9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11 G11 I11 K11 M11 O11 Q11 S11">
+    <cfRule type="cellIs" dxfId="13" priority="11" operator="between">
+      <formula>8.99</formula>
+      <formula>8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11 G11 I11 K11 M11 O11 Q11 S11">
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="between">
+      <formula>7.99</formula>
+      <formula>7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11 G11 I11 K11 M11 O11 Q11 S11">
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="between">
+      <formula>6.99</formula>
+      <formula>6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11 G11 I11 K11 M11 O11 Q11 S11">
+    <cfRule type="cellIs" dxfId="10" priority="14" operator="between">
+      <formula>5.99</formula>
+      <formula>5.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11 G11 I11 K11 M11 O11 Q11 S11">
+    <cfRule type="cellIs" dxfId="9" priority="15" operator="between">
+      <formula>5.49</formula>
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11 G11 I11 K11 M11 O11 Q11 S11">
+    <cfRule type="cellIs" dxfId="8" priority="16" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7 G7 I7 K7 M7 O7 Q7 S7">
-    <cfRule type="cellIs" dxfId="39" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7 G7 I7 K7 M7 O7 Q7 S7">
-    <cfRule type="cellIs" dxfId="38" priority="18" operator="between">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="between">
       <formula>9.99</formula>
       <formula>9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7 G7 I7 K7 M7 O7 Q7 S7">
-    <cfRule type="cellIs" dxfId="37" priority="19" operator="between">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="between">
       <formula>8.99</formula>
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7 G7 I7 K7 M7 O7 Q7 S7">
-    <cfRule type="cellIs" dxfId="36" priority="20" operator="between">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="between">
       <formula>7.99</formula>
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7 G7 I7 K7 M7 O7 Q7 S7">
-    <cfRule type="cellIs" dxfId="35" priority="21" operator="between">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="between">
       <formula>6.99</formula>
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7 G7 I7 K7 M7 O7 Q7 S7">
-    <cfRule type="cellIs" dxfId="34" priority="22" operator="between">
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="between">
       <formula>5.99</formula>
       <formula>5.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7 G7 I7 K7 M7 O7 Q7 S7">
-    <cfRule type="cellIs" dxfId="33" priority="23" operator="between">
+    <cfRule type="cellIs" dxfId="1" priority="7" operator="between">
       <formula>5.49</formula>
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7 G7 I7 K7 M7 O7 Q7 S7">
-    <cfRule type="cellIs" dxfId="32" priority="24" operator="equal">
-      <formula>"NA"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9 G9 I9 K9 M9 O9 Q9 S9">
-    <cfRule type="cellIs" dxfId="31" priority="9" operator="equal">
-      <formula>10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9 G9 I9 K9 M9 O9 Q9 S9">
-    <cfRule type="cellIs" dxfId="30" priority="10" operator="between">
-      <formula>9.99</formula>
-      <formula>9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9 G9 I9 K9 M9 O9 Q9 S9">
-    <cfRule type="cellIs" dxfId="29" priority="11" operator="between">
-      <formula>8.99</formula>
-      <formula>8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9 G9 I9 K9 M9 O9 Q9 S9">
-    <cfRule type="cellIs" dxfId="28" priority="12" operator="between">
-      <formula>7.99</formula>
-      <formula>7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9 G9 I9 K9 M9 O9 Q9 S9">
-    <cfRule type="cellIs" dxfId="27" priority="13" operator="between">
-      <formula>6.99</formula>
-      <formula>6</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9 G9 I9 K9 M9 O9 Q9 S9">
-    <cfRule type="cellIs" dxfId="26" priority="14" operator="between">
-      <formula>5.99</formula>
-      <formula>5.5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9 G9 I9 K9 M9 O9 Q9 S9">
-    <cfRule type="cellIs" dxfId="25" priority="15" operator="between">
-      <formula>5.49</formula>
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9 G9 I9 K9 M9 O9 Q9 S9">
-    <cfRule type="cellIs" dxfId="24" priority="16" operator="equal">
-      <formula>"NA"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E11 G11 I11 K11 M11 O11 Q11 S11">
-    <cfRule type="cellIs" dxfId="23" priority="1" operator="equal">
-      <formula>10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E11 G11 I11 K11 M11 O11 Q11 S11">
-    <cfRule type="cellIs" dxfId="22" priority="2" operator="between">
-      <formula>9.99</formula>
-      <formula>9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E11 G11 I11 K11 M11 O11 Q11 S11">
-    <cfRule type="cellIs" dxfId="21" priority="3" operator="between">
-      <formula>8.99</formula>
-      <formula>8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E11 G11 I11 K11 M11 O11 Q11 S11">
-    <cfRule type="cellIs" dxfId="20" priority="4" operator="between">
-      <formula>7.99</formula>
-      <formula>7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E11 G11 I11 K11 M11 O11 Q11 S11">
-    <cfRule type="cellIs" dxfId="19" priority="5" operator="between">
-      <formula>6.99</formula>
-      <formula>6</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E11 G11 I11 K11 M11 O11 Q11 S11">
-    <cfRule type="cellIs" dxfId="18" priority="6" operator="between">
-      <formula>5.99</formula>
-      <formula>5.5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E11 G11 I11 K11 M11 O11 Q11 S11">
-    <cfRule type="cellIs" dxfId="17" priority="7" operator="between">
-      <formula>5.49</formula>
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E11 G11 I11 K11 M11 O11 Q11 S11">
-    <cfRule type="cellIs" dxfId="16" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="8" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2897,36 +3393,42 @@
   <pageSetup pageOrder="overThenDown" orientation="landscape" cellComments="atEnd" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>Data!$A$2:$A$9</xm:f>
           </x14:formula1>
-          <xm:sqref>I12:I16 K12:K16 M12:M16 O12:O16 Q12:Q16 S12:S16 U12:U16 W12:W16 E12:E16 S8 Q8 O8 M8 K8 I8 G8 E8 W8 U8 G12:G16</xm:sqref>
+          <xm:sqref>I12:I16 K12:K16 M12:M16 O12:O16 Q12:Q16 S12:S16 U12:U16 W12:W16 E12:E16 G12:G16</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{E63D5A7E-6F1C-47C6-B47D-1FDB9AD75B60}">
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{1161C697-BE4E-4CF5-8019-BCCD17EB2718}">
           <x14:formula1>
             <xm:f>'I:\Y2\Block 3\Project startup\Design Docs\[PeerReview_ArjendeAldrey.xlsx]Data'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>E10 G10 I10 K10 M10 O10 Q10 S10 U10 W10</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{CA525BAC-F289-433F-A4B1-1094EE328182}">
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{D7ABF77E-6B4B-48E3-BF45-BA0AF8CC3417}">
           <x14:formula1>
             <xm:f>'I:\Y2\Block 3\Project startup\Design Docs\[PeerReview_Rob.xlsx]Data'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>E7 G7 I7 K7 M7 O7 Q7 S7 U7 W7</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{DB193587-6E1A-4D95-85BF-3FD174764E62}">
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{493EC00B-FCF5-408D-98AD-55D756DEB96A}">
           <x14:formula1>
             <xm:f>'I:\Y2\Block 3\Project startup\Design Docs\[PeerReview-Humam.xlsx]Data'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>E9 G9 I9 K9 M9 O9 Q9 S9 U9 W9</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{DE79D871-36A9-4F36-A38E-D392AA9D52C0}">
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{5D027BDF-208D-4867-9F10-04F8F18B5572}">
           <x14:formula1>
-            <xm:f>[PeerReviewGlyn.xlsx]Data!#REF!</xm:f>
+            <xm:f>'I:\Y2\Block 3\Project startup\Team Docs\[PeerReviewGlyn.xlsx]Data'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>E11 G11 I11 K11 M11 O11 Q11 S11 U11 W11</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{52246BAC-375D-4811-841F-2240B4E3A26E}">
+          <x14:formula1>
+            <xm:f>'I:\Y2\Block 3\Project startup\Team Docs\[PeerReview_Tanya.xlsx]Data'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>S8 Q8 O8 M8 K8 I8 G8 E8 W8 U8</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2944,35 +3446,35 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="7.44140625" customWidth="1"/>
+    <col min="2" max="2" width="8.109375" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="5.140625" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" customWidth="1"/>
-    <col min="7" max="7" width="5.140625" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" customWidth="1"/>
-    <col min="9" max="9" width="5.140625" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" customWidth="1"/>
-    <col min="11" max="11" width="5.140625" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" customWidth="1"/>
-    <col min="13" max="13" width="5.140625" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" customWidth="1"/>
-    <col min="15" max="15" width="5.140625" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" customWidth="1"/>
-    <col min="17" max="17" width="5.140625" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" customWidth="1"/>
-    <col min="19" max="19" width="5.140625" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" customWidth="1"/>
-    <col min="21" max="21" width="5.140625" customWidth="1"/>
-    <col min="22" max="22" width="15.7109375" customWidth="1"/>
-    <col min="23" max="23" width="5.140625" customWidth="1"/>
-    <col min="24" max="24" width="2.7109375" customWidth="1"/>
+    <col min="5" max="5" width="5.109375" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" customWidth="1"/>
+    <col min="7" max="7" width="5.109375" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" customWidth="1"/>
+    <col min="9" max="9" width="5.109375" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" customWidth="1"/>
+    <col min="11" max="11" width="5.109375" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" customWidth="1"/>
+    <col min="13" max="13" width="5.109375" customWidth="1"/>
+    <col min="14" max="14" width="14.6640625" customWidth="1"/>
+    <col min="15" max="15" width="5.109375" customWidth="1"/>
+    <col min="16" max="16" width="14.6640625" customWidth="1"/>
+    <col min="17" max="17" width="5.109375" customWidth="1"/>
+    <col min="18" max="18" width="14.6640625" customWidth="1"/>
+    <col min="19" max="19" width="5.109375" customWidth="1"/>
+    <col min="20" max="20" width="14.6640625" customWidth="1"/>
+    <col min="21" max="21" width="5.109375" customWidth="1"/>
+    <col min="22" max="22" width="15.6640625" customWidth="1"/>
+    <col min="23" max="23" width="5.109375" customWidth="1"/>
+    <col min="24" max="24" width="2.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3008,7 +3510,7 @@
       <c r="Y1" s="48"/>
       <c r="Z1" s="48"/>
     </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -3040,7 +3542,7 @@
       <c r="Y2" s="51"/>
       <c r="Z2" s="51"/>
     </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
@@ -3074,7 +3576,7 @@
       <c r="Y3" s="54"/>
       <c r="Z3" s="54"/>
     </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -3136,7 +3638,7 @@
       <c r="Y4" s="10"/>
       <c r="Z4" s="10"/>
     </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -3168,7 +3670,7 @@
       </c>
       <c r="Z5" s="16"/>
     </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="17" t="s">
         <v>21</v>
@@ -3254,7 +3756,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="62" t="s">
         <v>26</v>
       </c>
@@ -3308,7 +3810,7 @@
       <c r="Y7" s="26"/>
       <c r="Z7" s="27"/>
     </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="51"/>
       <c r="B8" s="20">
         <v>12335</v>
@@ -3360,7 +3862,7 @@
       <c r="Y8" s="26"/>
       <c r="Z8" s="27"/>
     </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="51"/>
       <c r="B9" s="20">
         <v>12335</v>
@@ -3412,7 +3914,7 @@
       <c r="Y9" s="26"/>
       <c r="Z9" s="27"/>
     </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="51"/>
       <c r="B10" s="20">
         <v>12335</v>
@@ -3464,7 +3966,7 @@
       <c r="Y10" s="26"/>
       <c r="Z10" s="27"/>
     </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="51"/>
       <c r="B11" s="20">
         <v>12335</v>
@@ -3516,7 +4018,7 @@
       <c r="Y11" s="26"/>
       <c r="Z11" s="27"/>
     </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="51"/>
       <c r="B12" s="20">
         <v>12335</v>
@@ -3568,7 +4070,7 @@
       <c r="Y12" s="26"/>
       <c r="Z12" s="27"/>
     </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="51"/>
       <c r="B13" s="20">
         <v>12335</v>
@@ -3620,7 +4122,7 @@
       <c r="Y13" s="26"/>
       <c r="Z13" s="27"/>
     </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="51"/>
       <c r="B14" s="20">
         <v>12335</v>
@@ -3672,7 +4174,7 @@
       <c r="Y14" s="26"/>
       <c r="Z14" s="27"/>
     </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="51"/>
       <c r="B15" s="20">
         <v>12335</v>
@@ -3724,7 +4226,7 @@
       <c r="Y15" s="26"/>
       <c r="Z15" s="27"/>
     </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="51"/>
       <c r="B16" s="20">
         <v>12335</v>
@@ -3776,7 +4278,7 @@
       <c r="Y16" s="26"/>
       <c r="Z16" s="27"/>
     </row>
-    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="31"/>
       <c r="B17" s="32"/>
       <c r="C17" s="32"/>
@@ -3854,7 +4356,7 @@
       <c r="Y17" s="32"/>
       <c r="Z17" s="32"/>
     </row>
-    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="59" t="s">
         <v>40</v>
       </c>
@@ -3895,48 +4397,48 @@
     <mergeCell ref="D5:W5"/>
   </mergeCells>
   <conditionalFormatting sqref="E4 G4 I4 K4 M4 O4 Q4 S4 E7:E17 G7:G17 I7:I17 K7:K17 M7:M17 O7:O17 Q7:Q17 S7:S17 U17 W17">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="1" operator="equal">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4 G4 I4 K4 M4 O4 Q4 S4 E7:E17 G7:G17 I7:I17 K7:K17 M7:M17 O7:O17 Q7:Q17 S7:S17 U17 W17">
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="62" priority="2" operator="between">
       <formula>9.99</formula>
       <formula>9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4 G4 I4 K4 M4 O4 Q4 S4 E7:E17 G7:G17 I7:I17 K7:K17 M7:M17 O7:O17 Q7:Q17 S7:S17 U17 W17">
-    <cfRule type="cellIs" dxfId="13" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="61" priority="3" operator="between">
       <formula>8.99</formula>
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4 G4 I4 K4 M4 O4 Q4 S4 E7:E17 G7:G17 I7:I17 K7:K17 M7:M17 O7:O17 Q7:Q17 S7:S17 U17 W17">
-    <cfRule type="cellIs" dxfId="12" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="60" priority="4" operator="between">
       <formula>7.99</formula>
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4 G4 I4 K4 M4 O4 Q4 S4 E7:E17 G7:G17 I7:I17 K7:K17 M7:M17 O7:O17 Q7:Q17 S7:S17 U17 W17">
-    <cfRule type="cellIs" dxfId="11" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="59" priority="5" operator="between">
       <formula>6.99</formula>
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4 G4 I4 K4 M4 O4 Q4 S4 E7:E17 G7:G17 I7:I17 K7:K17 M7:M17 O7:O17 Q7:Q17 S7:S17 U17 W17">
-    <cfRule type="cellIs" dxfId="10" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="58" priority="6" operator="between">
       <formula>5.99</formula>
       <formula>5.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4 G4 I4 K4 M4 O4 Q4 S4 E7:E17 G7:G17 I7:I17 K7:K17 M7:M17 O7:O17 Q7:Q17 S7:S17 U17 W17">
-    <cfRule type="cellIs" dxfId="9" priority="7" operator="between">
+    <cfRule type="cellIs" dxfId="57" priority="7" operator="between">
       <formula>5.49</formula>
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4 G4 I4 K4 M4 O4 Q4 S4 E7:E17 G7:G17 I7:I17 K7:K17 M7:M17 O7:O17 Q7:Q17 S7:S17 U17 W17">
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="8" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3968,35 +4470,35 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="7.44140625" customWidth="1"/>
+    <col min="2" max="2" width="8.109375" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="5.140625" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" customWidth="1"/>
-    <col min="7" max="7" width="5.140625" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" customWidth="1"/>
-    <col min="9" max="9" width="5.140625" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" customWidth="1"/>
-    <col min="11" max="11" width="5.140625" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" customWidth="1"/>
-    <col min="13" max="13" width="5.140625" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" customWidth="1"/>
-    <col min="15" max="15" width="5.140625" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" customWidth="1"/>
-    <col min="17" max="17" width="5.140625" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" customWidth="1"/>
-    <col min="19" max="19" width="5.140625" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" customWidth="1"/>
-    <col min="21" max="21" width="5.140625" customWidth="1"/>
-    <col min="22" max="22" width="15.7109375" customWidth="1"/>
-    <col min="23" max="23" width="5.140625" customWidth="1"/>
-    <col min="24" max="24" width="2.7109375" customWidth="1"/>
+    <col min="5" max="5" width="5.109375" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" customWidth="1"/>
+    <col min="7" max="7" width="5.109375" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" customWidth="1"/>
+    <col min="9" max="9" width="5.109375" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" customWidth="1"/>
+    <col min="11" max="11" width="5.109375" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" customWidth="1"/>
+    <col min="13" max="13" width="5.109375" customWidth="1"/>
+    <col min="14" max="14" width="14.6640625" customWidth="1"/>
+    <col min="15" max="15" width="5.109375" customWidth="1"/>
+    <col min="16" max="16" width="14.6640625" customWidth="1"/>
+    <col min="17" max="17" width="5.109375" customWidth="1"/>
+    <col min="18" max="18" width="14.6640625" customWidth="1"/>
+    <col min="19" max="19" width="5.109375" customWidth="1"/>
+    <col min="20" max="20" width="14.6640625" customWidth="1"/>
+    <col min="21" max="21" width="5.109375" customWidth="1"/>
+    <col min="22" max="22" width="15.6640625" customWidth="1"/>
+    <col min="23" max="23" width="5.109375" customWidth="1"/>
+    <col min="24" max="24" width="2.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4032,7 +4534,7 @@
       <c r="Y1" s="48"/>
       <c r="Z1" s="48"/>
     </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -4064,7 +4566,7 @@
       <c r="Y2" s="51"/>
       <c r="Z2" s="51"/>
     </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
@@ -4098,7 +4600,7 @@
       <c r="Y3" s="54"/>
       <c r="Z3" s="54"/>
     </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -4160,7 +4662,7 @@
       <c r="Y4" s="10"/>
       <c r="Z4" s="10"/>
     </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -4192,7 +4694,7 @@
       </c>
       <c r="Z5" s="16"/>
     </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="17" t="s">
         <v>21</v>
@@ -4278,7 +4780,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="62" t="s">
         <v>26</v>
       </c>
@@ -4332,7 +4834,7 @@
       <c r="Y7" s="26"/>
       <c r="Z7" s="27"/>
     </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="51"/>
       <c r="B8" s="20">
         <v>12335</v>
@@ -4384,7 +4886,7 @@
       <c r="Y8" s="26"/>
       <c r="Z8" s="27"/>
     </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="51"/>
       <c r="B9" s="20">
         <v>12335</v>
@@ -4436,7 +4938,7 @@
       <c r="Y9" s="26"/>
       <c r="Z9" s="27"/>
     </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="51"/>
       <c r="B10" s="20">
         <v>12335</v>
@@ -4488,7 +4990,7 @@
       <c r="Y10" s="26"/>
       <c r="Z10" s="27"/>
     </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="51"/>
       <c r="B11" s="20">
         <v>12335</v>
@@ -4540,7 +5042,7 @@
       <c r="Y11" s="26"/>
       <c r="Z11" s="27"/>
     </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="51"/>
       <c r="B12" s="20">
         <v>12335</v>
@@ -4592,7 +5094,7 @@
       <c r="Y12" s="26"/>
       <c r="Z12" s="27"/>
     </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="51"/>
       <c r="B13" s="20">
         <v>12335</v>
@@ -4644,7 +5146,7 @@
       <c r="Y13" s="26"/>
       <c r="Z13" s="27"/>
     </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="51"/>
       <c r="B14" s="20">
         <v>12335</v>
@@ -4696,7 +5198,7 @@
       <c r="Y14" s="26"/>
       <c r="Z14" s="27"/>
     </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="51"/>
       <c r="B15" s="20">
         <v>12335</v>
@@ -4748,7 +5250,7 @@
       <c r="Y15" s="26"/>
       <c r="Z15" s="27"/>
     </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="51"/>
       <c r="B16" s="20">
         <v>12335</v>
@@ -4800,7 +5302,7 @@
       <c r="Y16" s="26"/>
       <c r="Z16" s="27"/>
     </row>
-    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="31"/>
       <c r="B17" s="32"/>
       <c r="C17" s="32"/>
@@ -4878,7 +5380,7 @@
       <c r="Y17" s="32"/>
       <c r="Z17" s="32"/>
     </row>
-    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="59" t="s">
         <v>40</v>
       </c>
@@ -4919,48 +5421,48 @@
     <mergeCell ref="D5:W5"/>
   </mergeCells>
   <conditionalFormatting sqref="E4 G4 I4 K4 M4 O4 Q4 S4 E7:E17 G7:G17 I7:I17 K7:K17 M7:M17 O7:O17 Q7:Q17 S7:S17 U17 W17">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="1" operator="equal">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4 G4 I4 K4 M4 O4 Q4 S4 E7:E17 G7:G17 I7:I17 K7:K17 M7:M17 O7:O17 Q7:Q17 S7:S17 U17 W17">
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="54" priority="2" operator="between">
       <formula>9.99</formula>
       <formula>9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4 G4 I4 K4 M4 O4 Q4 S4 E7:E17 G7:G17 I7:I17 K7:K17 M7:M17 O7:O17 Q7:Q17 S7:S17 U17 W17">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="53" priority="3" operator="between">
       <formula>8.99</formula>
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4 G4 I4 K4 M4 O4 Q4 S4 E7:E17 G7:G17 I7:I17 K7:K17 M7:M17 O7:O17 Q7:Q17 S7:S17 U17 W17">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="52" priority="4" operator="between">
       <formula>7.99</formula>
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4 G4 I4 K4 M4 O4 Q4 S4 E7:E17 G7:G17 I7:I17 K7:K17 M7:M17 O7:O17 Q7:Q17 S7:S17 U17 W17">
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="51" priority="5" operator="between">
       <formula>6.99</formula>
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4 G4 I4 K4 M4 O4 Q4 S4 E7:E17 G7:G17 I7:I17 K7:K17 M7:M17 O7:O17 Q7:Q17 S7:S17 U17 W17">
-    <cfRule type="cellIs" dxfId="2" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="50" priority="6" operator="between">
       <formula>5.99</formula>
       <formula>5.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4 G4 I4 K4 M4 O4 Q4 S4 E7:E17 G7:G17 I7:I17 K7:K17 M7:M17 O7:O17 Q7:Q17 S7:S17 U17 W17">
-    <cfRule type="cellIs" dxfId="1" priority="7" operator="between">
+    <cfRule type="cellIs" dxfId="49" priority="7" operator="between">
       <formula>5.49</formula>
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4 G4 I4 K4 M4 O4 Q4 S4 E7:E17 G7:G17 I7:I17 K7:K17 M7:M17 O7:O17 Q7:Q17 S7:S17 U17 W17">
-    <cfRule type="cellIs" dxfId="0" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="8" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4991,24 +5493,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" customWidth="1"/>
-    <col min="2" max="2" width="5.85546875" customWidth="1"/>
-    <col min="3" max="4" width="57.85546875" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" customWidth="1"/>
-    <col min="6" max="6" width="5.85546875" customWidth="1"/>
-    <col min="7" max="8" width="57.85546875" customWidth="1"/>
-    <col min="11" max="11" width="3.5703125" customWidth="1"/>
-    <col min="14" max="14" width="3.5703125" customWidth="1"/>
-    <col min="17" max="17" width="3.5703125" customWidth="1"/>
-    <col min="20" max="20" width="3.5703125" customWidth="1"/>
-    <col min="23" max="23" width="3.5703125" customWidth="1"/>
-    <col min="26" max="26" width="3.5703125" customWidth="1"/>
-    <col min="29" max="29" width="3.5703125" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" customWidth="1"/>
+    <col min="2" max="2" width="5.88671875" customWidth="1"/>
+    <col min="3" max="4" width="57.88671875" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" customWidth="1"/>
+    <col min="6" max="6" width="5.88671875" customWidth="1"/>
+    <col min="7" max="8" width="57.88671875" customWidth="1"/>
+    <col min="11" max="11" width="3.5546875" customWidth="1"/>
+    <col min="14" max="14" width="3.5546875" customWidth="1"/>
+    <col min="17" max="17" width="3.5546875" customWidth="1"/>
+    <col min="20" max="20" width="3.5546875" customWidth="1"/>
+    <col min="23" max="23" width="3.5546875" customWidth="1"/>
+    <col min="26" max="26" width="3.5546875" customWidth="1"/>
+    <col min="29" max="29" width="3.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="34"/>
       <c r="B1" s="36" t="str">
         <f>'Week 2 Review'!C7</f>
@@ -5020,7 +5522,7 @@
         <v>Rowan Ramsey</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="34"/>
       <c r="B2" s="38" t="s">
         <v>41</v>
@@ -5042,7 +5544,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
         <v>44</v>
       </c>
@@ -5050,13 +5552,17 @@
         <f>'Week 2 Review'!E$17</f>
         <v>1</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="str">
         <f>'Week 2 Review'!Y$7</f>
-        <v>0</v>
-      </c>
-      <c r="D3">
+        <v>I planned well for the sprint, good a keeping meetings and
+discussions streamlined, I have a good work ethic and
+can improvise</v>
+      </c>
+      <c r="D3" t="str">
         <f>'Week 2 Review'!Z$7</f>
-        <v>0</v>
+        <v>I will keep my working hours between 09.30 and 17.00 for 
+most days, I will also try and listen to other peoples ideas 
+a lot better</v>
       </c>
       <c r="E3" s="34" t="s">
         <v>44</v>
@@ -5074,7 +5580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
         <v>45</v>
       </c>
@@ -5106,7 +5612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="34" t="s">
         <v>46</v>
       </c>
@@ -5138,7 +5644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="34"/>
       <c r="B6" s="36" t="str">
         <f>'Week 2 Review'!C8</f>
@@ -5150,7 +5656,7 @@
         <v>Team Member 7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="34"/>
       <c r="B7" s="38" t="s">
         <v>41</v>
@@ -5172,7 +5678,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="34" t="s">
         <v>44</v>
       </c>
@@ -5180,13 +5686,13 @@
         <f>'Week 2 Review'!G$17</f>
         <v>1</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="str">
         <f>'Week 2 Review'!Y$8</f>
-        <v>0</v>
-      </c>
-      <c r="D8">
+        <v>Received very helpful feedback: Be more confident, grant myself more work time and give more feedback to peers.</v>
+      </c>
+      <c r="D8" t="str">
         <f>'Week 2 Review'!Z$8</f>
-        <v>0</v>
+        <v>Give myself more work time, keep asking for feedback about my work, give feedback to others more.</v>
       </c>
       <c r="E8" s="34" t="s">
         <v>44</v>
@@ -5204,7 +5710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="34" t="s">
         <v>45</v>
       </c>
@@ -5236,7 +5742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="34" t="s">
         <v>46</v>
       </c>
@@ -5268,7 +5774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="34"/>
       <c r="B11" s="36" t="str">
         <f>'Week 2 Review'!C9</f>
@@ -5280,7 +5786,7 @@
         <v>Team Member 8</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="34"/>
       <c r="B12" s="38" t="s">
         <v>41</v>
@@ -5302,7 +5808,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="34" t="s">
         <v>44</v>
       </c>
@@ -5310,13 +5816,14 @@
         <f>'Week 2 Review'!I$17</f>
         <v>1</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="str">
         <f>'Week 2 Review'!Y$9</f>
-        <v>0</v>
-      </c>
-      <c r="D13">
+        <v xml:space="preserve">As a summary, according to my team mates I always deliever what's asked from me in high quality and can be relied on even in areas that are not my expertise. I always ask for feedback, even during the process.
+</v>
+      </c>
+      <c r="D13" t="str">
         <f>'Week 2 Review'!Z$9</f>
-        <v>0</v>
+        <v>For improvments I need to be more communicative with my team mates during work, meaning less time on headphones and more time being present.</v>
       </c>
       <c r="E13" s="34" t="s">
         <v>44</v>
@@ -5334,7 +5841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="34" t="s">
         <v>45</v>
       </c>
@@ -5366,7 +5873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="34" t="s">
         <v>46</v>
       </c>
@@ -5398,7 +5905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="34"/>
       <c r="B16" s="36" t="str">
         <f>'Week 2 Review'!C10</f>
@@ -5411,7 +5918,7 @@
       </c>
       <c r="H16" s="34"/>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="34"/>
       <c r="B17" s="38" t="s">
         <v>41</v>
@@ -5433,7 +5940,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="34" t="s">
         <v>44</v>
       </c>
@@ -5441,13 +5948,13 @@
         <f>'Week 2 Review'!K$17</f>
         <v>1</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="str">
         <f>'Week 2 Review'!Y$10</f>
-        <v>0</v>
-      </c>
-      <c r="D18">
+        <v>Quick at making prototypes and isn't afraid to add or remove features when asked. Gets distracted sometimes. Gives advice but sometimes get stuck on specific points. Learn more about advanced c++ concepts and ask sooner for help.</v>
+      </c>
+      <c r="D18" t="str">
         <f>'Week 2 Review'!Z$10</f>
-        <v>0</v>
+        <v>Dabble with more C++ in general but more specifically advanced data structures. Make decisions more quickly instead of arguing about it.</v>
       </c>
       <c r="E18" s="34" t="s">
         <v>44</v>
@@ -5465,7 +5972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="34" t="s">
         <v>45</v>
       </c>
@@ -5497,7 +6004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="34" t="s">
         <v>46</v>
       </c>
@@ -5529,7 +6036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="34"/>
       <c r="B21" s="36" t="str">
         <f>'Week 2 Review'!C11</f>
@@ -5543,7 +6050,7 @@
       <c r="G21" s="34"/>
       <c r="H21" s="34"/>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="34"/>
       <c r="B22" s="38" t="s">
         <v>41</v>
@@ -5565,7 +6072,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="34" t="s">
         <v>44</v>
       </c>
@@ -5573,13 +6080,13 @@
         <f>'Week 2 Review'!M$17</f>
         <v>1</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="str">
         <f>'Week 2 Review'!Y$11</f>
-        <v>0</v>
-      </c>
-      <c r="D23">
+        <v>I keep getting stuck on no longer relevant topics during discussions, dragging out discussions unnecessarily. Should learn better time management.</v>
+      </c>
+      <c r="D23" t="str">
         <f>'Week 2 Review'!Z$11</f>
-        <v>0</v>
+        <v>I should rethink whether what I want to say is really still relevant. I should trust my fellow programmers with bigger tasks and add an even higher time margin to tasks.</v>
       </c>
       <c r="E23" s="34" t="s">
         <v>44</v>
@@ -5597,7 +6104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="34" t="s">
         <v>45</v>
       </c>
@@ -5629,7 +6136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="34" t="s">
         <v>46</v>
       </c>
@@ -5675,3027 +6182,3027 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="35" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="35">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="35">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="35">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="35">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="35">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="35">
         <v>5.5</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="35">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="35" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="35"/>
     </row>
-    <row r="11" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="35"/>
     </row>
-    <row r="12" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="35"/>
     </row>
-    <row r="13" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="35"/>
     </row>
-    <row r="14" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="37"/>
     </row>
-    <row r="15" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="37"/>
     </row>
-    <row r="16" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="37"/>
     </row>
-    <row r="17" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="37"/>
     </row>
-    <row r="18" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="37"/>
     </row>
-    <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="37"/>
     </row>
-    <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="37"/>
     </row>
-    <row r="21" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="37"/>
     </row>
-    <row r="22" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="37"/>
     </row>
-    <row r="23" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="37"/>
     </row>
-    <row r="24" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="37"/>
     </row>
-    <row r="25" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="37"/>
     </row>
-    <row r="26" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="37"/>
     </row>
-    <row r="27" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="37"/>
     </row>
-    <row r="28" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="37"/>
     </row>
-    <row r="29" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="37"/>
     </row>
-    <row r="30" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="37"/>
     </row>
-    <row r="31" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="37"/>
     </row>
-    <row r="32" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="37"/>
     </row>
-    <row r="33" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="37"/>
     </row>
-    <row r="34" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A34" s="37"/>
     </row>
-    <row r="35" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="37"/>
     </row>
-    <row r="36" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="37"/>
     </row>
-    <row r="37" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A37" s="37"/>
     </row>
-    <row r="38" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A38" s="37"/>
     </row>
-    <row r="39" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A39" s="37"/>
     </row>
-    <row r="40" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A40" s="37"/>
     </row>
-    <row r="41" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A41" s="37"/>
     </row>
-    <row r="42" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A42" s="37"/>
     </row>
-    <row r="43" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A43" s="37"/>
     </row>
-    <row r="44" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A44" s="37"/>
     </row>
-    <row r="45" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A45" s="37"/>
     </row>
-    <row r="46" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A46" s="37"/>
     </row>
-    <row r="47" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A47" s="37"/>
     </row>
-    <row r="48" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A48" s="37"/>
     </row>
-    <row r="49" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A49" s="37"/>
     </row>
-    <row r="50" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A50" s="37"/>
     </row>
-    <row r="51" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A51" s="37"/>
     </row>
-    <row r="52" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A52" s="37"/>
     </row>
-    <row r="53" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A53" s="37"/>
     </row>
-    <row r="54" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A54" s="37"/>
     </row>
-    <row r="55" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A55" s="37"/>
     </row>
-    <row r="56" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A56" s="37"/>
     </row>
-    <row r="57" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A57" s="37"/>
     </row>
-    <row r="58" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A58" s="37"/>
     </row>
-    <row r="59" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A59" s="37"/>
     </row>
-    <row r="60" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A60" s="37"/>
     </row>
-    <row r="61" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A61" s="37"/>
     </row>
-    <row r="62" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A62" s="37"/>
     </row>
-    <row r="63" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A63" s="37"/>
     </row>
-    <row r="64" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A64" s="37"/>
     </row>
-    <row r="65" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A65" s="37"/>
     </row>
-    <row r="66" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A66" s="37"/>
     </row>
-    <row r="67" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A67" s="37"/>
     </row>
-    <row r="68" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A68" s="37"/>
     </row>
-    <row r="69" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A69" s="37"/>
     </row>
-    <row r="70" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A70" s="37"/>
     </row>
-    <row r="71" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A71" s="37"/>
     </row>
-    <row r="72" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A72" s="37"/>
     </row>
-    <row r="73" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A73" s="37"/>
     </row>
-    <row r="74" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A74" s="37"/>
     </row>
-    <row r="75" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A75" s="37"/>
     </row>
-    <row r="76" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A76" s="37"/>
     </row>
-    <row r="77" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A77" s="37"/>
     </row>
-    <row r="78" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A78" s="37"/>
     </row>
-    <row r="79" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A79" s="37"/>
     </row>
-    <row r="80" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A80" s="37"/>
     </row>
-    <row r="81" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A81" s="37"/>
     </row>
-    <row r="82" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A82" s="37"/>
     </row>
-    <row r="83" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A83" s="37"/>
     </row>
-    <row r="84" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A84" s="37"/>
     </row>
-    <row r="85" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A85" s="37"/>
     </row>
-    <row r="86" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A86" s="37"/>
     </row>
-    <row r="87" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A87" s="37"/>
     </row>
-    <row r="88" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A88" s="37"/>
     </row>
-    <row r="89" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A89" s="37"/>
     </row>
-    <row r="90" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A90" s="37"/>
     </row>
-    <row r="91" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A91" s="37"/>
     </row>
-    <row r="92" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A92" s="37"/>
     </row>
-    <row r="93" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A93" s="37"/>
     </row>
-    <row r="94" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A94" s="37"/>
     </row>
-    <row r="95" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A95" s="37"/>
     </row>
-    <row r="96" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A96" s="37"/>
     </row>
-    <row r="97" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A97" s="37"/>
     </row>
-    <row r="98" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A98" s="37"/>
     </row>
-    <row r="99" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A99" s="37"/>
     </row>
-    <row r="100" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A100" s="37"/>
     </row>
-    <row r="101" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A101" s="37"/>
     </row>
-    <row r="102" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A102" s="37"/>
     </row>
-    <row r="103" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A103" s="37"/>
     </row>
-    <row r="104" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A104" s="37"/>
     </row>
-    <row r="105" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A105" s="37"/>
     </row>
-    <row r="106" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A106" s="37"/>
     </row>
-    <row r="107" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A107" s="37"/>
     </row>
-    <row r="108" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A108" s="37"/>
     </row>
-    <row r="109" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A109" s="37"/>
     </row>
-    <row r="110" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A110" s="37"/>
     </row>
-    <row r="111" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A111" s="37"/>
     </row>
-    <row r="112" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A112" s="37"/>
     </row>
-    <row r="113" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A113" s="37"/>
     </row>
-    <row r="114" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A114" s="37"/>
     </row>
-    <row r="115" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A115" s="37"/>
     </row>
-    <row r="116" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A116" s="37"/>
     </row>
-    <row r="117" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A117" s="37"/>
     </row>
-    <row r="118" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A118" s="37"/>
     </row>
-    <row r="119" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A119" s="37"/>
     </row>
-    <row r="120" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A120" s="37"/>
     </row>
-    <row r="121" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A121" s="37"/>
     </row>
-    <row r="122" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A122" s="37"/>
     </row>
-    <row r="123" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A123" s="37"/>
     </row>
-    <row r="124" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A124" s="37"/>
     </row>
-    <row r="125" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A125" s="37"/>
     </row>
-    <row r="126" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A126" s="37"/>
     </row>
-    <row r="127" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A127" s="37"/>
     </row>
-    <row r="128" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A128" s="37"/>
     </row>
-    <row r="129" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A129" s="37"/>
     </row>
-    <row r="130" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A130" s="37"/>
     </row>
-    <row r="131" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A131" s="37"/>
     </row>
-    <row r="132" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A132" s="37"/>
     </row>
-    <row r="133" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A133" s="37"/>
     </row>
-    <row r="134" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A134" s="37"/>
     </row>
-    <row r="135" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A135" s="37"/>
     </row>
-    <row r="136" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A136" s="37"/>
     </row>
-    <row r="137" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A137" s="37"/>
     </row>
-    <row r="138" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A138" s="37"/>
     </row>
-    <row r="139" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A139" s="37"/>
     </row>
-    <row r="140" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A140" s="37"/>
     </row>
-    <row r="141" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A141" s="37"/>
     </row>
-    <row r="142" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A142" s="37"/>
     </row>
-    <row r="143" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A143" s="37"/>
     </row>
-    <row r="144" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A144" s="37"/>
     </row>
-    <row r="145" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A145" s="37"/>
     </row>
-    <row r="146" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A146" s="37"/>
     </row>
-    <row r="147" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A147" s="37"/>
     </row>
-    <row r="148" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A148" s="37"/>
     </row>
-    <row r="149" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A149" s="37"/>
     </row>
-    <row r="150" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A150" s="37"/>
     </row>
-    <row r="151" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A151" s="37"/>
     </row>
-    <row r="152" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A152" s="37"/>
     </row>
-    <row r="153" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A153" s="37"/>
     </row>
-    <row r="154" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A154" s="37"/>
     </row>
-    <row r="155" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A155" s="37"/>
     </row>
-    <row r="156" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A156" s="37"/>
     </row>
-    <row r="157" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A157" s="37"/>
     </row>
-    <row r="158" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A158" s="37"/>
     </row>
-    <row r="159" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A159" s="37"/>
     </row>
-    <row r="160" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A160" s="37"/>
     </row>
-    <row r="161" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A161" s="37"/>
     </row>
-    <row r="162" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A162" s="37"/>
     </row>
-    <row r="163" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A163" s="37"/>
     </row>
-    <row r="164" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A164" s="37"/>
     </row>
-    <row r="165" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A165" s="37"/>
     </row>
-    <row r="166" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A166" s="37"/>
     </row>
-    <row r="167" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A167" s="37"/>
     </row>
-    <row r="168" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A168" s="37"/>
     </row>
-    <row r="169" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A169" s="37"/>
     </row>
-    <row r="170" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A170" s="37"/>
     </row>
-    <row r="171" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A171" s="37"/>
     </row>
-    <row r="172" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A172" s="37"/>
     </row>
-    <row r="173" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A173" s="37"/>
     </row>
-    <row r="174" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A174" s="37"/>
     </row>
-    <row r="175" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A175" s="37"/>
     </row>
-    <row r="176" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A176" s="37"/>
     </row>
-    <row r="177" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A177" s="37"/>
     </row>
-    <row r="178" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A178" s="37"/>
     </row>
-    <row r="179" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A179" s="37"/>
     </row>
-    <row r="180" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A180" s="37"/>
     </row>
-    <row r="181" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A181" s="37"/>
     </row>
-    <row r="182" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A182" s="37"/>
     </row>
-    <row r="183" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A183" s="37"/>
     </row>
-    <row r="184" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A184" s="37"/>
     </row>
-    <row r="185" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A185" s="37"/>
     </row>
-    <row r="186" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A186" s="37"/>
     </row>
-    <row r="187" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A187" s="37"/>
     </row>
-    <row r="188" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A188" s="37"/>
     </row>
-    <row r="189" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A189" s="37"/>
     </row>
-    <row r="190" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A190" s="37"/>
     </row>
-    <row r="191" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A191" s="37"/>
     </row>
-    <row r="192" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A192" s="37"/>
     </row>
-    <row r="193" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A193" s="37"/>
     </row>
-    <row r="194" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A194" s="37"/>
     </row>
-    <row r="195" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A195" s="37"/>
     </row>
-    <row r="196" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A196" s="37"/>
     </row>
-    <row r="197" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A197" s="37"/>
     </row>
-    <row r="198" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A198" s="37"/>
     </row>
-    <row r="199" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A199" s="37"/>
     </row>
-    <row r="200" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A200" s="37"/>
     </row>
-    <row r="201" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A201" s="37"/>
     </row>
-    <row r="202" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A202" s="37"/>
     </row>
-    <row r="203" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A203" s="37"/>
     </row>
-    <row r="204" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A204" s="37"/>
     </row>
-    <row r="205" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A205" s="37"/>
     </row>
-    <row r="206" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A206" s="37"/>
     </row>
-    <row r="207" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A207" s="37"/>
     </row>
-    <row r="208" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A208" s="37"/>
     </row>
-    <row r="209" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A209" s="37"/>
     </row>
-    <row r="210" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A210" s="37"/>
     </row>
-    <row r="211" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A211" s="37"/>
     </row>
-    <row r="212" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A212" s="37"/>
     </row>
-    <row r="213" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A213" s="37"/>
     </row>
-    <row r="214" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A214" s="37"/>
     </row>
-    <row r="215" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A215" s="37"/>
     </row>
-    <row r="216" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A216" s="37"/>
     </row>
-    <row r="217" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A217" s="37"/>
     </row>
-    <row r="218" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A218" s="37"/>
     </row>
-    <row r="219" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A219" s="37"/>
     </row>
-    <row r="220" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A220" s="37"/>
     </row>
-    <row r="221" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A221" s="37"/>
     </row>
-    <row r="222" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A222" s="37"/>
     </row>
-    <row r="223" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A223" s="37"/>
     </row>
-    <row r="224" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A224" s="37"/>
     </row>
-    <row r="225" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A225" s="37"/>
     </row>
-    <row r="226" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A226" s="37"/>
     </row>
-    <row r="227" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A227" s="37"/>
     </row>
-    <row r="228" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A228" s="37"/>
     </row>
-    <row r="229" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A229" s="37"/>
     </row>
-    <row r="230" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A230" s="37"/>
     </row>
-    <row r="231" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A231" s="37"/>
     </row>
-    <row r="232" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A232" s="37"/>
     </row>
-    <row r="233" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A233" s="37"/>
     </row>
-    <row r="234" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A234" s="37"/>
     </row>
-    <row r="235" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A235" s="37"/>
     </row>
-    <row r="236" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A236" s="37"/>
     </row>
-    <row r="237" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A237" s="37"/>
     </row>
-    <row r="238" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A238" s="37"/>
     </row>
-    <row r="239" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A239" s="37"/>
     </row>
-    <row r="240" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A240" s="37"/>
     </row>
-    <row r="241" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A241" s="37"/>
     </row>
-    <row r="242" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A242" s="37"/>
     </row>
-    <row r="243" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A243" s="37"/>
     </row>
-    <row r="244" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A244" s="37"/>
     </row>
-    <row r="245" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A245" s="37"/>
     </row>
-    <row r="246" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A246" s="37"/>
     </row>
-    <row r="247" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A247" s="37"/>
     </row>
-    <row r="248" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A248" s="37"/>
     </row>
-    <row r="249" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A249" s="37"/>
     </row>
-    <row r="250" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A250" s="37"/>
     </row>
-    <row r="251" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A251" s="37"/>
     </row>
-    <row r="252" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A252" s="37"/>
     </row>
-    <row r="253" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A253" s="37"/>
     </row>
-    <row r="254" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A254" s="37"/>
     </row>
-    <row r="255" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A255" s="37"/>
     </row>
-    <row r="256" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A256" s="37"/>
     </row>
-    <row r="257" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A257" s="37"/>
     </row>
-    <row r="258" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A258" s="37"/>
     </row>
-    <row r="259" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A259" s="37"/>
     </row>
-    <row r="260" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A260" s="37"/>
     </row>
-    <row r="261" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A261" s="37"/>
     </row>
-    <row r="262" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A262" s="37"/>
     </row>
-    <row r="263" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A263" s="37"/>
     </row>
-    <row r="264" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A264" s="37"/>
     </row>
-    <row r="265" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A265" s="37"/>
     </row>
-    <row r="266" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A266" s="37"/>
     </row>
-    <row r="267" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A267" s="37"/>
     </row>
-    <row r="268" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A268" s="37"/>
     </row>
-    <row r="269" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A269" s="37"/>
     </row>
-    <row r="270" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A270" s="37"/>
     </row>
-    <row r="271" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A271" s="37"/>
     </row>
-    <row r="272" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A272" s="37"/>
     </row>
-    <row r="273" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A273" s="37"/>
     </row>
-    <row r="274" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A274" s="37"/>
     </row>
-    <row r="275" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A275" s="37"/>
     </row>
-    <row r="276" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A276" s="37"/>
     </row>
-    <row r="277" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A277" s="37"/>
     </row>
-    <row r="278" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A278" s="37"/>
     </row>
-    <row r="279" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A279" s="37"/>
     </row>
-    <row r="280" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A280" s="37"/>
     </row>
-    <row r="281" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A281" s="37"/>
     </row>
-    <row r="282" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A282" s="37"/>
     </row>
-    <row r="283" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A283" s="37"/>
     </row>
-    <row r="284" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A284" s="37"/>
     </row>
-    <row r="285" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A285" s="37"/>
     </row>
-    <row r="286" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A286" s="37"/>
     </row>
-    <row r="287" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A287" s="37"/>
     </row>
-    <row r="288" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A288" s="37"/>
     </row>
-    <row r="289" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A289" s="37"/>
     </row>
-    <row r="290" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A290" s="37"/>
     </row>
-    <row r="291" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A291" s="37"/>
     </row>
-    <row r="292" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A292" s="37"/>
     </row>
-    <row r="293" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A293" s="37"/>
     </row>
-    <row r="294" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A294" s="37"/>
     </row>
-    <row r="295" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A295" s="37"/>
     </row>
-    <row r="296" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A296" s="37"/>
     </row>
-    <row r="297" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A297" s="37"/>
     </row>
-    <row r="298" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A298" s="37"/>
     </row>
-    <row r="299" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A299" s="37"/>
     </row>
-    <row r="300" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A300" s="37"/>
     </row>
-    <row r="301" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A301" s="37"/>
     </row>
-    <row r="302" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A302" s="37"/>
     </row>
-    <row r="303" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A303" s="37"/>
     </row>
-    <row r="304" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A304" s="37"/>
     </row>
-    <row r="305" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A305" s="37"/>
     </row>
-    <row r="306" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A306" s="37"/>
     </row>
-    <row r="307" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A307" s="37"/>
     </row>
-    <row r="308" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A308" s="37"/>
     </row>
-    <row r="309" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A309" s="37"/>
     </row>
-    <row r="310" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A310" s="37"/>
     </row>
-    <row r="311" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A311" s="37"/>
     </row>
-    <row r="312" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A312" s="37"/>
     </row>
-    <row r="313" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A313" s="37"/>
     </row>
-    <row r="314" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A314" s="37"/>
     </row>
-    <row r="315" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A315" s="37"/>
     </row>
-    <row r="316" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A316" s="37"/>
     </row>
-    <row r="317" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A317" s="37"/>
     </row>
-    <row r="318" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A318" s="37"/>
     </row>
-    <row r="319" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A319" s="37"/>
     </row>
-    <row r="320" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A320" s="37"/>
     </row>
-    <row r="321" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A321" s="37"/>
     </row>
-    <row r="322" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A322" s="37"/>
     </row>
-    <row r="323" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A323" s="37"/>
     </row>
-    <row r="324" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A324" s="37"/>
     </row>
-    <row r="325" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A325" s="37"/>
     </row>
-    <row r="326" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A326" s="37"/>
     </row>
-    <row r="327" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A327" s="37"/>
     </row>
-    <row r="328" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A328" s="37"/>
     </row>
-    <row r="329" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A329" s="37"/>
     </row>
-    <row r="330" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A330" s="37"/>
     </row>
-    <row r="331" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A331" s="37"/>
     </row>
-    <row r="332" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A332" s="37"/>
     </row>
-    <row r="333" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A333" s="37"/>
     </row>
-    <row r="334" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A334" s="37"/>
     </row>
-    <row r="335" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A335" s="37"/>
     </row>
-    <row r="336" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A336" s="37"/>
     </row>
-    <row r="337" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A337" s="37"/>
     </row>
-    <row r="338" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A338" s="37"/>
     </row>
-    <row r="339" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A339" s="37"/>
     </row>
-    <row r="340" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A340" s="37"/>
     </row>
-    <row r="341" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A341" s="37"/>
     </row>
-    <row r="342" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A342" s="37"/>
     </row>
-    <row r="343" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A343" s="37"/>
     </row>
-    <row r="344" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A344" s="37"/>
     </row>
-    <row r="345" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A345" s="37"/>
     </row>
-    <row r="346" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A346" s="37"/>
     </row>
-    <row r="347" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A347" s="37"/>
     </row>
-    <row r="348" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A348" s="37"/>
     </row>
-    <row r="349" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A349" s="37"/>
     </row>
-    <row r="350" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A350" s="37"/>
     </row>
-    <row r="351" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A351" s="37"/>
     </row>
-    <row r="352" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A352" s="37"/>
     </row>
-    <row r="353" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A353" s="37"/>
     </row>
-    <row r="354" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A354" s="37"/>
     </row>
-    <row r="355" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A355" s="37"/>
     </row>
-    <row r="356" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A356" s="37"/>
     </row>
-    <row r="357" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A357" s="37"/>
     </row>
-    <row r="358" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A358" s="37"/>
     </row>
-    <row r="359" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A359" s="37"/>
     </row>
-    <row r="360" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A360" s="37"/>
     </row>
-    <row r="361" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A361" s="37"/>
     </row>
-    <row r="362" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A362" s="37"/>
     </row>
-    <row r="363" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A363" s="37"/>
     </row>
-    <row r="364" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A364" s="37"/>
     </row>
-    <row r="365" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A365" s="37"/>
     </row>
-    <row r="366" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A366" s="37"/>
     </row>
-    <row r="367" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A367" s="37"/>
     </row>
-    <row r="368" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A368" s="37"/>
     </row>
-    <row r="369" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A369" s="37"/>
     </row>
-    <row r="370" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A370" s="37"/>
     </row>
-    <row r="371" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A371" s="37"/>
     </row>
-    <row r="372" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A372" s="37"/>
     </row>
-    <row r="373" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A373" s="37"/>
     </row>
-    <row r="374" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A374" s="37"/>
     </row>
-    <row r="375" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A375" s="37"/>
     </row>
-    <row r="376" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A376" s="37"/>
     </row>
-    <row r="377" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A377" s="37"/>
     </row>
-    <row r="378" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A378" s="37"/>
     </row>
-    <row r="379" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A379" s="37"/>
     </row>
-    <row r="380" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A380" s="37"/>
     </row>
-    <row r="381" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A381" s="37"/>
     </row>
-    <row r="382" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A382" s="37"/>
     </row>
-    <row r="383" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A383" s="37"/>
     </row>
-    <row r="384" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A384" s="37"/>
     </row>
-    <row r="385" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A385" s="37"/>
     </row>
-    <row r="386" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A386" s="37"/>
     </row>
-    <row r="387" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A387" s="37"/>
     </row>
-    <row r="388" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A388" s="37"/>
     </row>
-    <row r="389" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A389" s="37"/>
     </row>
-    <row r="390" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A390" s="37"/>
     </row>
-    <row r="391" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A391" s="37"/>
     </row>
-    <row r="392" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A392" s="37"/>
     </row>
-    <row r="393" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A393" s="37"/>
     </row>
-    <row r="394" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A394" s="37"/>
     </row>
-    <row r="395" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A395" s="37"/>
     </row>
-    <row r="396" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A396" s="37"/>
     </row>
-    <row r="397" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A397" s="37"/>
     </row>
-    <row r="398" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A398" s="37"/>
     </row>
-    <row r="399" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A399" s="37"/>
     </row>
-    <row r="400" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A400" s="37"/>
     </row>
-    <row r="401" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A401" s="37"/>
     </row>
-    <row r="402" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A402" s="37"/>
     </row>
-    <row r="403" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A403" s="37"/>
     </row>
-    <row r="404" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A404" s="37"/>
     </row>
-    <row r="405" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A405" s="37"/>
     </row>
-    <row r="406" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A406" s="37"/>
     </row>
-    <row r="407" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A407" s="37"/>
     </row>
-    <row r="408" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A408" s="37"/>
     </row>
-    <row r="409" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A409" s="37"/>
     </row>
-    <row r="410" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A410" s="37"/>
     </row>
-    <row r="411" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A411" s="37"/>
     </row>
-    <row r="412" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A412" s="37"/>
     </row>
-    <row r="413" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A413" s="37"/>
     </row>
-    <row r="414" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A414" s="37"/>
     </row>
-    <row r="415" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A415" s="37"/>
     </row>
-    <row r="416" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A416" s="37"/>
     </row>
-    <row r="417" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A417" s="37"/>
     </row>
-    <row r="418" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A418" s="37"/>
     </row>
-    <row r="419" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A419" s="37"/>
     </row>
-    <row r="420" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A420" s="37"/>
     </row>
-    <row r="421" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A421" s="37"/>
     </row>
-    <row r="422" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A422" s="37"/>
     </row>
-    <row r="423" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A423" s="37"/>
     </row>
-    <row r="424" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A424" s="37"/>
     </row>
-    <row r="425" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A425" s="37"/>
     </row>
-    <row r="426" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A426" s="37"/>
     </row>
-    <row r="427" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A427" s="37"/>
     </row>
-    <row r="428" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A428" s="37"/>
     </row>
-    <row r="429" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A429" s="37"/>
     </row>
-    <row r="430" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A430" s="37"/>
     </row>
-    <row r="431" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A431" s="37"/>
     </row>
-    <row r="432" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A432" s="37"/>
     </row>
-    <row r="433" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A433" s="37"/>
     </row>
-    <row r="434" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A434" s="37"/>
     </row>
-    <row r="435" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A435" s="37"/>
     </row>
-    <row r="436" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A436" s="37"/>
     </row>
-    <row r="437" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A437" s="37"/>
     </row>
-    <row r="438" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A438" s="37"/>
     </row>
-    <row r="439" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A439" s="37"/>
     </row>
-    <row r="440" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A440" s="37"/>
     </row>
-    <row r="441" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A441" s="37"/>
     </row>
-    <row r="442" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A442" s="37"/>
     </row>
-    <row r="443" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A443" s="37"/>
     </row>
-    <row r="444" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A444" s="37"/>
     </row>
-    <row r="445" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A445" s="37"/>
     </row>
-    <row r="446" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A446" s="37"/>
     </row>
-    <row r="447" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A447" s="37"/>
     </row>
-    <row r="448" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A448" s="37"/>
     </row>
-    <row r="449" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A449" s="37"/>
     </row>
-    <row r="450" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A450" s="37"/>
     </row>
-    <row r="451" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A451" s="37"/>
     </row>
-    <row r="452" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A452" s="37"/>
     </row>
-    <row r="453" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A453" s="37"/>
     </row>
-    <row r="454" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A454" s="37"/>
     </row>
-    <row r="455" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A455" s="37"/>
     </row>
-    <row r="456" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A456" s="37"/>
     </row>
-    <row r="457" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A457" s="37"/>
     </row>
-    <row r="458" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A458" s="37"/>
     </row>
-    <row r="459" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A459" s="37"/>
     </row>
-    <row r="460" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A460" s="37"/>
     </row>
-    <row r="461" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A461" s="37"/>
     </row>
-    <row r="462" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A462" s="37"/>
     </row>
-    <row r="463" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A463" s="37"/>
     </row>
-    <row r="464" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A464" s="37"/>
     </row>
-    <row r="465" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A465" s="37"/>
     </row>
-    <row r="466" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A466" s="37"/>
     </row>
-    <row r="467" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A467" s="37"/>
     </row>
-    <row r="468" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A468" s="37"/>
     </row>
-    <row r="469" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A469" s="37"/>
     </row>
-    <row r="470" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A470" s="37"/>
     </row>
-    <row r="471" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A471" s="37"/>
     </row>
-    <row r="472" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A472" s="37"/>
     </row>
-    <row r="473" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A473" s="37"/>
     </row>
-    <row r="474" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A474" s="37"/>
     </row>
-    <row r="475" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A475" s="37"/>
     </row>
-    <row r="476" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A476" s="37"/>
     </row>
-    <row r="477" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A477" s="37"/>
     </row>
-    <row r="478" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A478" s="37"/>
     </row>
-    <row r="479" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A479" s="37"/>
     </row>
-    <row r="480" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A480" s="37"/>
     </row>
-    <row r="481" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A481" s="37"/>
     </row>
-    <row r="482" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A482" s="37"/>
     </row>
-    <row r="483" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A483" s="37"/>
     </row>
-    <row r="484" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A484" s="37"/>
     </row>
-    <row r="485" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A485" s="37"/>
     </row>
-    <row r="486" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A486" s="37"/>
     </row>
-    <row r="487" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A487" s="37"/>
     </row>
-    <row r="488" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A488" s="37"/>
     </row>
-    <row r="489" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A489" s="37"/>
     </row>
-    <row r="490" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A490" s="37"/>
     </row>
-    <row r="491" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A491" s="37"/>
     </row>
-    <row r="492" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A492" s="37"/>
     </row>
-    <row r="493" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A493" s="37"/>
     </row>
-    <row r="494" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A494" s="37"/>
     </row>
-    <row r="495" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A495" s="37"/>
     </row>
-    <row r="496" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A496" s="37"/>
     </row>
-    <row r="497" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A497" s="37"/>
     </row>
-    <row r="498" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A498" s="37"/>
     </row>
-    <row r="499" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A499" s="37"/>
     </row>
-    <row r="500" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A500" s="37"/>
     </row>
-    <row r="501" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A501" s="37"/>
     </row>
-    <row r="502" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A502" s="37"/>
     </row>
-    <row r="503" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A503" s="37"/>
     </row>
-    <row r="504" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A504" s="37"/>
     </row>
-    <row r="505" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A505" s="37"/>
     </row>
-    <row r="506" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A506" s="37"/>
     </row>
-    <row r="507" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A507" s="37"/>
     </row>
-    <row r="508" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A508" s="37"/>
     </row>
-    <row r="509" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A509" s="37"/>
     </row>
-    <row r="510" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A510" s="37"/>
     </row>
-    <row r="511" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A511" s="37"/>
     </row>
-    <row r="512" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A512" s="37"/>
     </row>
-    <row r="513" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A513" s="37"/>
     </row>
-    <row r="514" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A514" s="37"/>
     </row>
-    <row r="515" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A515" s="37"/>
     </row>
-    <row r="516" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A516" s="37"/>
     </row>
-    <row r="517" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A517" s="37"/>
     </row>
-    <row r="518" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A518" s="37"/>
     </row>
-    <row r="519" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A519" s="37"/>
     </row>
-    <row r="520" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A520" s="37"/>
     </row>
-    <row r="521" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A521" s="37"/>
     </row>
-    <row r="522" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A522" s="37"/>
     </row>
-    <row r="523" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A523" s="37"/>
     </row>
-    <row r="524" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A524" s="37"/>
     </row>
-    <row r="525" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A525" s="37"/>
     </row>
-    <row r="526" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A526" s="37"/>
     </row>
-    <row r="527" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A527" s="37"/>
     </row>
-    <row r="528" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A528" s="37"/>
     </row>
-    <row r="529" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A529" s="37"/>
     </row>
-    <row r="530" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A530" s="37"/>
     </row>
-    <row r="531" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A531" s="37"/>
     </row>
-    <row r="532" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A532" s="37"/>
     </row>
-    <row r="533" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A533" s="37"/>
     </row>
-    <row r="534" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A534" s="37"/>
     </row>
-    <row r="535" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A535" s="37"/>
     </row>
-    <row r="536" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A536" s="37"/>
     </row>
-    <row r="537" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A537" s="37"/>
     </row>
-    <row r="538" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A538" s="37"/>
     </row>
-    <row r="539" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A539" s="37"/>
     </row>
-    <row r="540" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A540" s="37"/>
     </row>
-    <row r="541" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A541" s="37"/>
     </row>
-    <row r="542" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A542" s="37"/>
     </row>
-    <row r="543" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A543" s="37"/>
     </row>
-    <row r="544" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A544" s="37"/>
     </row>
-    <row r="545" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A545" s="37"/>
     </row>
-    <row r="546" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A546" s="37"/>
     </row>
-    <row r="547" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A547" s="37"/>
     </row>
-    <row r="548" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A548" s="37"/>
     </row>
-    <row r="549" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A549" s="37"/>
     </row>
-    <row r="550" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A550" s="37"/>
     </row>
-    <row r="551" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A551" s="37"/>
     </row>
-    <row r="552" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A552" s="37"/>
     </row>
-    <row r="553" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A553" s="37"/>
     </row>
-    <row r="554" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A554" s="37"/>
     </row>
-    <row r="555" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A555" s="37"/>
     </row>
-    <row r="556" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A556" s="37"/>
     </row>
-    <row r="557" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A557" s="37"/>
     </row>
-    <row r="558" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A558" s="37"/>
     </row>
-    <row r="559" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A559" s="37"/>
     </row>
-    <row r="560" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A560" s="37"/>
     </row>
-    <row r="561" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A561" s="37"/>
     </row>
-    <row r="562" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A562" s="37"/>
     </row>
-    <row r="563" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A563" s="37"/>
     </row>
-    <row r="564" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A564" s="37"/>
     </row>
-    <row r="565" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A565" s="37"/>
     </row>
-    <row r="566" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A566" s="37"/>
     </row>
-    <row r="567" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A567" s="37"/>
     </row>
-    <row r="568" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A568" s="37"/>
     </row>
-    <row r="569" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A569" s="37"/>
     </row>
-    <row r="570" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A570" s="37"/>
     </row>
-    <row r="571" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A571" s="37"/>
     </row>
-    <row r="572" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A572" s="37"/>
     </row>
-    <row r="573" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A573" s="37"/>
     </row>
-    <row r="574" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A574" s="37"/>
     </row>
-    <row r="575" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A575" s="37"/>
     </row>
-    <row r="576" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A576" s="37"/>
     </row>
-    <row r="577" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A577" s="37"/>
     </row>
-    <row r="578" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A578" s="37"/>
     </row>
-    <row r="579" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A579" s="37"/>
     </row>
-    <row r="580" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A580" s="37"/>
     </row>
-    <row r="581" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A581" s="37"/>
     </row>
-    <row r="582" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A582" s="37"/>
     </row>
-    <row r="583" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A583" s="37"/>
     </row>
-    <row r="584" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A584" s="37"/>
     </row>
-    <row r="585" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A585" s="37"/>
     </row>
-    <row r="586" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A586" s="37"/>
     </row>
-    <row r="587" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A587" s="37"/>
     </row>
-    <row r="588" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A588" s="37"/>
     </row>
-    <row r="589" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A589" s="37"/>
     </row>
-    <row r="590" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A590" s="37"/>
     </row>
-    <row r="591" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A591" s="37"/>
     </row>
-    <row r="592" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A592" s="37"/>
     </row>
-    <row r="593" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A593" s="37"/>
     </row>
-    <row r="594" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A594" s="37"/>
     </row>
-    <row r="595" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A595" s="37"/>
     </row>
-    <row r="596" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A596" s="37"/>
     </row>
-    <row r="597" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A597" s="37"/>
     </row>
-    <row r="598" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A598" s="37"/>
     </row>
-    <row r="599" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A599" s="37"/>
     </row>
-    <row r="600" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A600" s="37"/>
     </row>
-    <row r="601" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A601" s="37"/>
     </row>
-    <row r="602" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A602" s="37"/>
     </row>
-    <row r="603" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A603" s="37"/>
     </row>
-    <row r="604" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A604" s="37"/>
     </row>
-    <row r="605" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A605" s="37"/>
     </row>
-    <row r="606" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A606" s="37"/>
     </row>
-    <row r="607" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A607" s="37"/>
     </row>
-    <row r="608" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A608" s="37"/>
     </row>
-    <row r="609" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A609" s="37"/>
     </row>
-    <row r="610" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A610" s="37"/>
     </row>
-    <row r="611" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A611" s="37"/>
     </row>
-    <row r="612" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A612" s="37"/>
     </row>
-    <row r="613" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A613" s="37"/>
     </row>
-    <row r="614" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A614" s="37"/>
     </row>
-    <row r="615" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A615" s="37"/>
     </row>
-    <row r="616" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A616" s="37"/>
     </row>
-    <row r="617" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A617" s="37"/>
     </row>
-    <row r="618" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A618" s="37"/>
     </row>
-    <row r="619" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A619" s="37"/>
     </row>
-    <row r="620" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A620" s="37"/>
     </row>
-    <row r="621" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A621" s="37"/>
     </row>
-    <row r="622" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A622" s="37"/>
     </row>
-    <row r="623" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A623" s="37"/>
     </row>
-    <row r="624" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A624" s="37"/>
     </row>
-    <row r="625" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A625" s="37"/>
     </row>
-    <row r="626" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A626" s="37"/>
     </row>
-    <row r="627" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A627" s="37"/>
     </row>
-    <row r="628" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A628" s="37"/>
     </row>
-    <row r="629" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A629" s="37"/>
     </row>
-    <row r="630" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A630" s="37"/>
     </row>
-    <row r="631" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A631" s="37"/>
     </row>
-    <row r="632" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A632" s="37"/>
     </row>
-    <row r="633" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A633" s="37"/>
     </row>
-    <row r="634" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A634" s="37"/>
     </row>
-    <row r="635" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A635" s="37"/>
     </row>
-    <row r="636" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A636" s="37"/>
     </row>
-    <row r="637" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A637" s="37"/>
     </row>
-    <row r="638" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A638" s="37"/>
     </row>
-    <row r="639" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A639" s="37"/>
     </row>
-    <row r="640" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A640" s="37"/>
     </row>
-    <row r="641" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A641" s="37"/>
     </row>
-    <row r="642" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A642" s="37"/>
     </row>
-    <row r="643" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A643" s="37"/>
     </row>
-    <row r="644" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A644" s="37"/>
     </row>
-    <row r="645" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A645" s="37"/>
     </row>
-    <row r="646" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A646" s="37"/>
     </row>
-    <row r="647" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A647" s="37"/>
     </row>
-    <row r="648" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A648" s="37"/>
     </row>
-    <row r="649" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A649" s="37"/>
     </row>
-    <row r="650" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A650" s="37"/>
     </row>
-    <row r="651" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A651" s="37"/>
     </row>
-    <row r="652" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A652" s="37"/>
     </row>
-    <row r="653" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A653" s="37"/>
     </row>
-    <row r="654" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A654" s="37"/>
     </row>
-    <row r="655" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A655" s="37"/>
     </row>
-    <row r="656" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A656" s="37"/>
     </row>
-    <row r="657" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A657" s="37"/>
     </row>
-    <row r="658" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A658" s="37"/>
     </row>
-    <row r="659" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A659" s="37"/>
     </row>
-    <row r="660" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A660" s="37"/>
     </row>
-    <row r="661" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A661" s="37"/>
     </row>
-    <row r="662" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A662" s="37"/>
     </row>
-    <row r="663" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A663" s="37"/>
     </row>
-    <row r="664" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A664" s="37"/>
     </row>
-    <row r="665" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A665" s="37"/>
     </row>
-    <row r="666" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A666" s="37"/>
     </row>
-    <row r="667" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A667" s="37"/>
     </row>
-    <row r="668" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A668" s="37"/>
     </row>
-    <row r="669" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A669" s="37"/>
     </row>
-    <row r="670" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A670" s="37"/>
     </row>
-    <row r="671" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A671" s="37"/>
     </row>
-    <row r="672" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A672" s="37"/>
     </row>
-    <row r="673" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A673" s="37"/>
     </row>
-    <row r="674" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A674" s="37"/>
     </row>
-    <row r="675" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A675" s="37"/>
     </row>
-    <row r="676" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A676" s="37"/>
     </row>
-    <row r="677" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A677" s="37"/>
     </row>
-    <row r="678" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A678" s="37"/>
     </row>
-    <row r="679" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A679" s="37"/>
     </row>
-    <row r="680" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A680" s="37"/>
     </row>
-    <row r="681" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A681" s="37"/>
     </row>
-    <row r="682" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A682" s="37"/>
     </row>
-    <row r="683" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A683" s="37"/>
     </row>
-    <row r="684" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A684" s="37"/>
     </row>
-    <row r="685" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A685" s="37"/>
     </row>
-    <row r="686" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A686" s="37"/>
     </row>
-    <row r="687" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A687" s="37"/>
     </row>
-    <row r="688" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A688" s="37"/>
     </row>
-    <row r="689" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A689" s="37"/>
     </row>
-    <row r="690" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A690" s="37"/>
     </row>
-    <row r="691" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A691" s="37"/>
     </row>
-    <row r="692" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A692" s="37"/>
     </row>
-    <row r="693" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A693" s="37"/>
     </row>
-    <row r="694" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A694" s="37"/>
     </row>
-    <row r="695" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A695" s="37"/>
     </row>
-    <row r="696" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A696" s="37"/>
     </row>
-    <row r="697" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A697" s="37"/>
     </row>
-    <row r="698" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A698" s="37"/>
     </row>
-    <row r="699" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A699" s="37"/>
     </row>
-    <row r="700" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A700" s="37"/>
     </row>
-    <row r="701" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A701" s="37"/>
     </row>
-    <row r="702" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A702" s="37"/>
     </row>
-    <row r="703" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A703" s="37"/>
     </row>
-    <row r="704" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A704" s="37"/>
     </row>
-    <row r="705" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A705" s="37"/>
     </row>
-    <row r="706" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A706" s="37"/>
     </row>
-    <row r="707" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A707" s="37"/>
     </row>
-    <row r="708" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A708" s="37"/>
     </row>
-    <row r="709" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A709" s="37"/>
     </row>
-    <row r="710" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A710" s="37"/>
     </row>
-    <row r="711" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A711" s="37"/>
     </row>
-    <row r="712" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A712" s="37"/>
     </row>
-    <row r="713" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A713" s="37"/>
     </row>
-    <row r="714" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A714" s="37"/>
     </row>
-    <row r="715" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A715" s="37"/>
     </row>
-    <row r="716" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A716" s="37"/>
     </row>
-    <row r="717" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A717" s="37"/>
     </row>
-    <row r="718" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A718" s="37"/>
     </row>
-    <row r="719" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A719" s="37"/>
     </row>
-    <row r="720" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A720" s="37"/>
     </row>
-    <row r="721" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A721" s="37"/>
     </row>
-    <row r="722" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A722" s="37"/>
     </row>
-    <row r="723" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A723" s="37"/>
     </row>
-    <row r="724" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A724" s="37"/>
     </row>
-    <row r="725" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A725" s="37"/>
     </row>
-    <row r="726" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A726" s="37"/>
     </row>
-    <row r="727" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A727" s="37"/>
     </row>
-    <row r="728" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A728" s="37"/>
     </row>
-    <row r="729" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A729" s="37"/>
     </row>
-    <row r="730" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A730" s="37"/>
     </row>
-    <row r="731" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A731" s="37"/>
     </row>
-    <row r="732" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A732" s="37"/>
     </row>
-    <row r="733" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A733" s="37"/>
     </row>
-    <row r="734" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A734" s="37"/>
     </row>
-    <row r="735" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A735" s="37"/>
     </row>
-    <row r="736" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A736" s="37"/>
     </row>
-    <row r="737" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A737" s="37"/>
     </row>
-    <row r="738" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A738" s="37"/>
     </row>
-    <row r="739" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A739" s="37"/>
     </row>
-    <row r="740" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A740" s="37"/>
     </row>
-    <row r="741" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A741" s="37"/>
     </row>
-    <row r="742" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A742" s="37"/>
     </row>
-    <row r="743" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A743" s="37"/>
     </row>
-    <row r="744" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A744" s="37"/>
     </row>
-    <row r="745" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A745" s="37"/>
     </row>
-    <row r="746" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A746" s="37"/>
     </row>
-    <row r="747" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A747" s="37"/>
     </row>
-    <row r="748" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A748" s="37"/>
     </row>
-    <row r="749" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A749" s="37"/>
     </row>
-    <row r="750" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A750" s="37"/>
     </row>
-    <row r="751" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A751" s="37"/>
     </row>
-    <row r="752" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A752" s="37"/>
     </row>
-    <row r="753" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A753" s="37"/>
     </row>
-    <row r="754" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A754" s="37"/>
     </row>
-    <row r="755" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A755" s="37"/>
     </row>
-    <row r="756" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A756" s="37"/>
     </row>
-    <row r="757" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A757" s="37"/>
     </row>
-    <row r="758" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A758" s="37"/>
     </row>
-    <row r="759" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A759" s="37"/>
     </row>
-    <row r="760" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A760" s="37"/>
     </row>
-    <row r="761" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A761" s="37"/>
     </row>
-    <row r="762" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A762" s="37"/>
     </row>
-    <row r="763" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A763" s="37"/>
     </row>
-    <row r="764" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A764" s="37"/>
     </row>
-    <row r="765" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A765" s="37"/>
     </row>
-    <row r="766" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A766" s="37"/>
     </row>
-    <row r="767" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A767" s="37"/>
     </row>
-    <row r="768" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A768" s="37"/>
     </row>
-    <row r="769" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A769" s="37"/>
     </row>
-    <row r="770" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A770" s="37"/>
     </row>
-    <row r="771" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A771" s="37"/>
     </row>
-    <row r="772" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A772" s="37"/>
     </row>
-    <row r="773" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A773" s="37"/>
     </row>
-    <row r="774" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A774" s="37"/>
     </row>
-    <row r="775" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A775" s="37"/>
     </row>
-    <row r="776" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A776" s="37"/>
     </row>
-    <row r="777" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A777" s="37"/>
     </row>
-    <row r="778" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A778" s="37"/>
     </row>
-    <row r="779" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A779" s="37"/>
     </row>
-    <row r="780" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A780" s="37"/>
     </row>
-    <row r="781" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A781" s="37"/>
     </row>
-    <row r="782" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A782" s="37"/>
     </row>
-    <row r="783" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A783" s="37"/>
     </row>
-    <row r="784" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A784" s="37"/>
     </row>
-    <row r="785" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A785" s="37"/>
     </row>
-    <row r="786" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A786" s="37"/>
     </row>
-    <row r="787" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A787" s="37"/>
     </row>
-    <row r="788" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A788" s="37"/>
     </row>
-    <row r="789" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A789" s="37"/>
     </row>
-    <row r="790" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A790" s="37"/>
     </row>
-    <row r="791" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A791" s="37"/>
     </row>
-    <row r="792" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A792" s="37"/>
     </row>
-    <row r="793" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A793" s="37"/>
     </row>
-    <row r="794" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A794" s="37"/>
     </row>
-    <row r="795" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A795" s="37"/>
     </row>
-    <row r="796" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A796" s="37"/>
     </row>
-    <row r="797" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A797" s="37"/>
     </row>
-    <row r="798" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A798" s="37"/>
     </row>
-    <row r="799" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A799" s="37"/>
     </row>
-    <row r="800" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A800" s="37"/>
     </row>
-    <row r="801" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A801" s="37"/>
     </row>
-    <row r="802" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A802" s="37"/>
     </row>
-    <row r="803" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A803" s="37"/>
     </row>
-    <row r="804" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A804" s="37"/>
     </row>
-    <row r="805" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A805" s="37"/>
     </row>
-    <row r="806" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A806" s="37"/>
     </row>
-    <row r="807" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A807" s="37"/>
     </row>
-    <row r="808" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A808" s="37"/>
     </row>
-    <row r="809" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A809" s="37"/>
     </row>
-    <row r="810" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A810" s="37"/>
     </row>
-    <row r="811" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A811" s="37"/>
     </row>
-    <row r="812" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A812" s="37"/>
     </row>
-    <row r="813" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A813" s="37"/>
     </row>
-    <row r="814" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A814" s="37"/>
     </row>
-    <row r="815" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A815" s="37"/>
     </row>
-    <row r="816" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A816" s="37"/>
     </row>
-    <row r="817" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A817" s="37"/>
     </row>
-    <row r="818" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A818" s="37"/>
     </row>
-    <row r="819" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A819" s="37"/>
     </row>
-    <row r="820" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A820" s="37"/>
     </row>
-    <row r="821" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A821" s="37"/>
     </row>
-    <row r="822" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A822" s="37"/>
     </row>
-    <row r="823" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A823" s="37"/>
     </row>
-    <row r="824" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A824" s="37"/>
     </row>
-    <row r="825" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A825" s="37"/>
     </row>
-    <row r="826" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A826" s="37"/>
     </row>
-    <row r="827" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A827" s="37"/>
     </row>
-    <row r="828" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A828" s="37"/>
     </row>
-    <row r="829" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A829" s="37"/>
     </row>
-    <row r="830" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A830" s="37"/>
     </row>
-    <row r="831" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A831" s="37"/>
     </row>
-    <row r="832" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A832" s="37"/>
     </row>
-    <row r="833" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A833" s="37"/>
     </row>
-    <row r="834" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A834" s="37"/>
     </row>
-    <row r="835" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A835" s="37"/>
     </row>
-    <row r="836" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A836" s="37"/>
     </row>
-    <row r="837" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A837" s="37"/>
     </row>
-    <row r="838" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A838" s="37"/>
     </row>
-    <row r="839" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A839" s="37"/>
     </row>
-    <row r="840" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A840" s="37"/>
     </row>
-    <row r="841" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A841" s="37"/>
     </row>
-    <row r="842" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A842" s="37"/>
     </row>
-    <row r="843" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A843" s="37"/>
     </row>
-    <row r="844" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A844" s="37"/>
     </row>
-    <row r="845" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A845" s="37"/>
     </row>
-    <row r="846" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A846" s="37"/>
     </row>
-    <row r="847" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A847" s="37"/>
     </row>
-    <row r="848" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A848" s="37"/>
     </row>
-    <row r="849" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A849" s="37"/>
     </row>
-    <row r="850" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A850" s="37"/>
     </row>
-    <row r="851" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A851" s="37"/>
     </row>
-    <row r="852" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A852" s="37"/>
     </row>
-    <row r="853" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A853" s="37"/>
     </row>
-    <row r="854" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A854" s="37"/>
     </row>
-    <row r="855" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A855" s="37"/>
     </row>
-    <row r="856" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A856" s="37"/>
     </row>
-    <row r="857" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A857" s="37"/>
     </row>
-    <row r="858" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A858" s="37"/>
     </row>
-    <row r="859" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A859" s="37"/>
     </row>
-    <row r="860" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A860" s="37"/>
     </row>
-    <row r="861" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A861" s="37"/>
     </row>
-    <row r="862" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A862" s="37"/>
     </row>
-    <row r="863" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A863" s="37"/>
     </row>
-    <row r="864" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A864" s="37"/>
     </row>
-    <row r="865" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A865" s="37"/>
     </row>
-    <row r="866" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A866" s="37"/>
     </row>
-    <row r="867" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A867" s="37"/>
     </row>
-    <row r="868" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A868" s="37"/>
     </row>
-    <row r="869" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A869" s="37"/>
     </row>
-    <row r="870" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A870" s="37"/>
     </row>
-    <row r="871" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A871" s="37"/>
     </row>
-    <row r="872" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A872" s="37"/>
     </row>
-    <row r="873" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A873" s="37"/>
     </row>
-    <row r="874" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A874" s="37"/>
     </row>
-    <row r="875" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A875" s="37"/>
     </row>
-    <row r="876" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A876" s="37"/>
     </row>
-    <row r="877" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A877" s="37"/>
     </row>
-    <row r="878" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A878" s="37"/>
     </row>
-    <row r="879" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A879" s="37"/>
     </row>
-    <row r="880" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="880" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A880" s="37"/>
     </row>
-    <row r="881" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A881" s="37"/>
     </row>
-    <row r="882" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="882" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A882" s="37"/>
     </row>
-    <row r="883" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A883" s="37"/>
     </row>
-    <row r="884" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A884" s="37"/>
     </row>
-    <row r="885" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="885" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A885" s="37"/>
     </row>
-    <row r="886" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A886" s="37"/>
     </row>
-    <row r="887" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A887" s="37"/>
     </row>
-    <row r="888" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A888" s="37"/>
     </row>
-    <row r="889" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A889" s="37"/>
     </row>
-    <row r="890" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="890" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A890" s="37"/>
     </row>
-    <row r="891" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A891" s="37"/>
     </row>
-    <row r="892" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="892" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A892" s="37"/>
     </row>
-    <row r="893" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A893" s="37"/>
     </row>
-    <row r="894" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="894" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A894" s="37"/>
     </row>
-    <row r="895" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="895" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A895" s="37"/>
     </row>
-    <row r="896" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A896" s="37"/>
     </row>
-    <row r="897" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A897" s="37"/>
     </row>
-    <row r="898" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="898" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A898" s="37"/>
     </row>
-    <row r="899" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="899" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A899" s="37"/>
     </row>
-    <row r="900" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="900" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A900" s="37"/>
     </row>
-    <row r="901" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="901" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A901" s="37"/>
     </row>
-    <row r="902" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="902" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A902" s="37"/>
     </row>
-    <row r="903" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="903" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A903" s="37"/>
     </row>
-    <row r="904" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A904" s="37"/>
     </row>
-    <row r="905" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="905" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A905" s="37"/>
     </row>
-    <row r="906" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="906" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A906" s="37"/>
     </row>
-    <row r="907" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="907" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A907" s="37"/>
     </row>
-    <row r="908" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="908" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A908" s="37"/>
     </row>
-    <row r="909" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="909" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A909" s="37"/>
     </row>
-    <row r="910" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="910" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A910" s="37"/>
     </row>
-    <row r="911" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A911" s="37"/>
     </row>
-    <row r="912" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="912" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A912" s="37"/>
     </row>
-    <row r="913" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="913" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A913" s="37"/>
     </row>
-    <row r="914" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="914" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A914" s="37"/>
     </row>
-    <row r="915" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="915" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A915" s="37"/>
     </row>
-    <row r="916" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="916" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A916" s="37"/>
     </row>
-    <row r="917" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="917" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A917" s="37"/>
     </row>
-    <row r="918" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="918" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A918" s="37"/>
     </row>
-    <row r="919" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="919" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A919" s="37"/>
     </row>
-    <row r="920" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="920" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A920" s="37"/>
     </row>
-    <row r="921" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="921" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A921" s="37"/>
     </row>
-    <row r="922" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="922" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A922" s="37"/>
     </row>
-    <row r="923" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="923" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A923" s="37"/>
     </row>
-    <row r="924" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="924" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A924" s="37"/>
     </row>
-    <row r="925" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="925" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A925" s="37"/>
     </row>
-    <row r="926" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="926" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A926" s="37"/>
     </row>
-    <row r="927" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="927" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A927" s="37"/>
     </row>
-    <row r="928" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="928" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A928" s="37"/>
     </row>
-    <row r="929" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="929" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A929" s="37"/>
     </row>
-    <row r="930" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="930" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A930" s="37"/>
     </row>
-    <row r="931" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="931" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A931" s="37"/>
     </row>
-    <row r="932" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="932" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A932" s="37"/>
     </row>
-    <row r="933" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="933" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A933" s="37"/>
     </row>
-    <row r="934" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="934" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A934" s="37"/>
     </row>
-    <row r="935" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="935" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A935" s="37"/>
     </row>
-    <row r="936" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="936" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A936" s="37"/>
     </row>
-    <row r="937" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="937" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A937" s="37"/>
     </row>
-    <row r="938" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="938" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A938" s="37"/>
     </row>
-    <row r="939" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="939" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A939" s="37"/>
     </row>
-    <row r="940" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="940" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A940" s="37"/>
     </row>
-    <row r="941" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="941" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A941" s="37"/>
     </row>
-    <row r="942" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="942" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A942" s="37"/>
     </row>
-    <row r="943" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="943" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A943" s="37"/>
     </row>
-    <row r="944" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="944" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A944" s="37"/>
     </row>
-    <row r="945" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="945" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A945" s="37"/>
     </row>
-    <row r="946" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="946" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A946" s="37"/>
     </row>
-    <row r="947" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="947" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A947" s="37"/>
     </row>
-    <row r="948" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="948" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A948" s="37"/>
     </row>
-    <row r="949" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="949" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A949" s="37"/>
     </row>
-    <row r="950" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="950" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A950" s="37"/>
     </row>
-    <row r="951" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="951" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A951" s="37"/>
     </row>
-    <row r="952" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="952" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A952" s="37"/>
     </row>
-    <row r="953" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="953" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A953" s="37"/>
     </row>
-    <row r="954" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="954" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A954" s="37"/>
     </row>
-    <row r="955" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="955" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A955" s="37"/>
     </row>
-    <row r="956" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="956" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A956" s="37"/>
     </row>
-    <row r="957" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="957" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A957" s="37"/>
     </row>
-    <row r="958" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="958" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A958" s="37"/>
     </row>
-    <row r="959" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="959" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A959" s="37"/>
     </row>
-    <row r="960" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="960" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A960" s="37"/>
     </row>
-    <row r="961" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="961" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A961" s="37"/>
     </row>
-    <row r="962" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="962" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A962" s="37"/>
     </row>
-    <row r="963" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="963" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A963" s="37"/>
     </row>
-    <row r="964" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="964" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A964" s="37"/>
     </row>
-    <row r="965" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="965" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A965" s="37"/>
     </row>
-    <row r="966" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="966" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A966" s="37"/>
     </row>
-    <row r="967" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="967" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A967" s="37"/>
     </row>
-    <row r="968" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="968" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A968" s="37"/>
     </row>
-    <row r="969" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="969" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A969" s="37"/>
     </row>
-    <row r="970" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="970" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A970" s="37"/>
     </row>
-    <row r="971" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="971" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A971" s="37"/>
     </row>
-    <row r="972" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="972" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A972" s="37"/>
     </row>
-    <row r="973" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="973" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A973" s="37"/>
     </row>
-    <row r="974" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="974" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A974" s="37"/>
     </row>
-    <row r="975" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="975" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A975" s="37"/>
     </row>
-    <row r="976" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="976" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A976" s="37"/>
     </row>
-    <row r="977" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="977" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A977" s="37"/>
     </row>
-    <row r="978" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="978" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A978" s="37"/>
     </row>
-    <row r="979" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="979" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A979" s="37"/>
     </row>
-    <row r="980" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="980" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A980" s="37"/>
     </row>
-    <row r="981" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="981" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A981" s="37"/>
     </row>
-    <row r="982" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="982" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A982" s="37"/>
     </row>
-    <row r="983" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="983" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A983" s="37"/>
     </row>
-    <row r="984" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="984" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A984" s="37"/>
     </row>
-    <row r="985" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="985" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A985" s="37"/>
     </row>
-    <row r="986" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="986" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A986" s="37"/>
     </row>
-    <row r="987" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="987" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A987" s="37"/>
     </row>
-    <row r="988" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="988" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A988" s="37"/>
     </row>
-    <row r="989" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="989" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A989" s="37"/>
     </row>
-    <row r="990" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="990" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A990" s="37"/>
     </row>
-    <row r="991" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="991" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A991" s="37"/>
     </row>
-    <row r="992" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="992" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A992" s="37"/>
     </row>
-    <row r="993" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="993" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A993" s="37"/>
     </row>
-    <row r="994" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="994" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A994" s="37"/>
     </row>
-    <row r="995" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="995" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A995" s="37"/>
     </row>
-    <row r="996" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="996" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A996" s="37"/>
     </row>
-    <row r="997" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="997" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A997" s="37"/>
     </row>
-    <row r="998" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="998" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A998" s="37"/>
     </row>
-    <row r="999" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="999" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A999" s="37"/>
     </row>
-    <row r="1000" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1000" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1000" s="37"/>
     </row>
   </sheetData>

--- a/Team Docs/PeerReview.xlsx
+++ b/Team Docs/PeerReview.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Y2\Block 3\Project startup\Team Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tanya\Project-startup\Team Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C35A57D-5720-4E7E-BAB7-66B1F24E3525}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BBCBBB4-0DBD-4815-A667-BFE9DF03B912}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
@@ -33,9 +33,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1426,7 +1424,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="120">
+  <dxfs count="112">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1671,70 +1669,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCCCCC"/>
-          <bgColor rgb="FFCCCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4CCCC"/>
-          <bgColor rgb="FFF4CCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFCE5CD"/>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFF2CC"/>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9EAD3"/>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD0E0E3"/>
-          <bgColor rgb="FFD0E0E3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCFE2F3"/>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
           <bgColor rgb="FFD9D2E9"/>
         </patternFill>
       </fill>
@@ -2806,37 +2740,37 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.5546875" customWidth="1"/>
-    <col min="2" max="2" width="8.109375" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="50.6640625" customWidth="1"/>
-    <col min="5" max="5" width="6.6640625" customWidth="1"/>
-    <col min="6" max="6" width="50.6640625" customWidth="1"/>
-    <col min="7" max="7" width="6.6640625" customWidth="1"/>
-    <col min="8" max="8" width="50.6640625" customWidth="1"/>
-    <col min="9" max="9" width="6.6640625" customWidth="1"/>
-    <col min="10" max="10" width="50.6640625" customWidth="1"/>
-    <col min="11" max="11" width="6.6640625" customWidth="1"/>
-    <col min="12" max="12" width="50.6640625" customWidth="1"/>
-    <col min="13" max="13" width="6.6640625" customWidth="1"/>
-    <col min="14" max="14" width="50.6640625" customWidth="1"/>
-    <col min="15" max="15" width="6.6640625" customWidth="1"/>
-    <col min="16" max="16" width="14.6640625" customWidth="1"/>
-    <col min="17" max="17" width="5.109375" customWidth="1"/>
-    <col min="18" max="18" width="14.6640625" customWidth="1"/>
-    <col min="19" max="19" width="5.109375" customWidth="1"/>
-    <col min="20" max="20" width="14.6640625" customWidth="1"/>
-    <col min="21" max="21" width="5.109375" customWidth="1"/>
-    <col min="22" max="22" width="15.6640625" customWidth="1"/>
-    <col min="23" max="23" width="5.109375" customWidth="1"/>
-    <col min="24" max="24" width="2.6640625" customWidth="1"/>
+    <col min="1" max="1" width="7.5703125" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="50.7109375" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" customWidth="1"/>
+    <col min="6" max="6" width="50.7109375" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" customWidth="1"/>
+    <col min="8" max="8" width="50.7109375" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="50.7109375" customWidth="1"/>
+    <col min="11" max="11" width="6.7109375" customWidth="1"/>
+    <col min="12" max="12" width="50.7109375" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" customWidth="1"/>
+    <col min="14" max="14" width="50.7109375" customWidth="1"/>
+    <col min="15" max="15" width="6.7109375" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" customWidth="1"/>
+    <col min="17" max="17" width="5.140625" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" customWidth="1"/>
+    <col min="19" max="19" width="5.140625" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" customWidth="1"/>
+    <col min="21" max="21" width="5.140625" customWidth="1"/>
+    <col min="22" max="22" width="15.7109375" customWidth="1"/>
+    <col min="23" max="23" width="5.140625" customWidth="1"/>
+    <col min="24" max="24" width="2.7109375" customWidth="1"/>
     <col min="25" max="25" width="42" customWidth="1"/>
-    <col min="26" max="26" width="42.109375" customWidth="1"/>
+    <col min="26" max="26" width="42.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2872,7 +2806,7 @@
       <c r="Y1" s="56"/>
       <c r="Z1" s="56"/>
     </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -2906,7 +2840,7 @@
       <c r="Y2" s="59"/>
       <c r="Z2" s="59"/>
     </row>
-    <row r="3" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
@@ -2942,7 +2876,7 @@
       <c r="Y3" s="62"/>
       <c r="Z3" s="62"/>
     </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -3004,7 +2938,7 @@
       <c r="Y4" s="10"/>
       <c r="Z4" s="10"/>
     </row>
-    <row r="5" spans="1:26" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -3036,7 +2970,7 @@
       </c>
       <c r="Z5" s="16"/>
     </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9"/>
       <c r="B6" s="17" t="s">
         <v>21</v>
@@ -3122,7 +3056,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:26" s="46" customFormat="1" ht="100.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" s="46" customFormat="1" ht="100.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="70" t="s">
         <v>26</v>
       </c>
@@ -3192,7 +3126,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:26" s="46" customFormat="1" ht="100.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" s="46" customFormat="1" ht="100.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="59"/>
       <c r="B8" s="20">
         <v>464704</v>
@@ -3260,7 +3194,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:26" s="46" customFormat="1" ht="100.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" s="46" customFormat="1" ht="100.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="59"/>
       <c r="B9" s="20">
         <v>428729</v>
@@ -3328,7 +3262,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:26" s="46" customFormat="1" ht="100.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" s="46" customFormat="1" ht="100.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="59"/>
       <c r="B10" s="20">
         <v>444711</v>
@@ -3396,7 +3330,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:26" s="46" customFormat="1" ht="100.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" s="46" customFormat="1" ht="100.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="59"/>
       <c r="B11" s="20">
         <v>445021</v>
@@ -3464,7 +3398,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="100.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" ht="100.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="59"/>
       <c r="B12" s="20">
         <v>459575</v>
@@ -3516,7 +3450,7 @@
       <c r="Y12" s="26"/>
       <c r="Z12" s="27"/>
     </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="59"/>
       <c r="B13" s="20">
         <v>12335</v>
@@ -3568,7 +3502,7 @@
       <c r="Y13" s="26"/>
       <c r="Z13" s="27"/>
     </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="59"/>
       <c r="B14" s="20">
         <v>12335</v>
@@ -3620,7 +3554,7 @@
       <c r="Y14" s="26"/>
       <c r="Z14" s="27"/>
     </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="59"/>
       <c r="B15" s="20">
         <v>12335</v>
@@ -3672,7 +3606,7 @@
       <c r="Y15" s="26"/>
       <c r="Z15" s="27"/>
     </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="59"/>
       <c r="B16" s="20">
         <v>12335</v>
@@ -3724,7 +3658,7 @@
       <c r="Y16" s="26"/>
       <c r="Z16" s="27"/>
     </row>
-    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="31"/>
       <c r="B17" s="32"/>
       <c r="C17" s="32"/>
@@ -3802,7 +3736,7 @@
       <c r="Y17" s="32"/>
       <c r="Z17" s="32"/>
     </row>
-    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="67" t="s">
         <v>40</v>
       </c>
@@ -3843,278 +3777,278 @@
     <mergeCell ref="D5:W5"/>
   </mergeCells>
   <conditionalFormatting sqref="E4 G4 I4 K4 M4 O4 Q4 S4 U17 W17 S12:S17 Q12:Q17 O12:O17 M12:M17 K12:K17 I12:I17 G12:G17 E12:E17">
-    <cfRule type="cellIs" dxfId="119" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="81" operator="equal">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4 G4 I4 K4 M4 O4 Q4 S4 U17 W17 S12:S17 Q12:Q17 O12:O17 M12:M17 K12:K17 I12:I17 G12:G17 E12:E17">
-    <cfRule type="cellIs" dxfId="118" priority="82" operator="between">
+    <cfRule type="cellIs" dxfId="110" priority="82" operator="between">
       <formula>9.99</formula>
       <formula>9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4 G4 I4 K4 M4 O4 Q4 S4 U17 W17 S12:S17 Q12:Q17 O12:O17 M12:M17 K12:K17 I12:I17 G12:G17 E12:E17">
-    <cfRule type="cellIs" dxfId="117" priority="83" operator="between">
+    <cfRule type="cellIs" dxfId="109" priority="83" operator="between">
       <formula>8.99</formula>
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4 G4 I4 K4 M4 O4 Q4 S4 U17 W17 S12:S17 Q12:Q17 O12:O17 M12:M17 K12:K17 I12:I17 G12:G17 E12:E17">
-    <cfRule type="cellIs" dxfId="116" priority="84" operator="between">
+    <cfRule type="cellIs" dxfId="108" priority="84" operator="between">
       <formula>7.99</formula>
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4 G4 I4 K4 M4 O4 Q4 S4 U17 W17 S12:S17 Q12:Q17 O12:O17 M12:M17 K12:K17 I12:I17 G12:G17 E12:E17">
-    <cfRule type="cellIs" dxfId="115" priority="85" operator="between">
+    <cfRule type="cellIs" dxfId="107" priority="85" operator="between">
       <formula>6.99</formula>
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4 G4 I4 K4 M4 O4 Q4 S4 U17 W17 S12:S17 Q12:Q17 O12:O17 M12:M17 K12:K17 I12:I17 G12:G17 E12:E17">
-    <cfRule type="cellIs" dxfId="114" priority="86" operator="between">
+    <cfRule type="cellIs" dxfId="106" priority="86" operator="between">
       <formula>5.99</formula>
       <formula>5.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4 G4 I4 K4 M4 O4 Q4 S4 U17 W17 S12:S17 Q12:Q17 O12:O17 M12:M17 K12:K17 I12:I17 G12:G17 E12:E17">
-    <cfRule type="cellIs" dxfId="113" priority="87" operator="between">
+    <cfRule type="cellIs" dxfId="105" priority="87" operator="between">
       <formula>5.49</formula>
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4 G4 I4 K4 M4 O4 Q4 S4 U17 W17 S12:S17 Q12:Q17 O12:O17 M12:M17 K12:K17 I12:I17 G12:G17 E12:E17">
-    <cfRule type="cellIs" dxfId="112" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="88" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9 G9 I9 K9 M9 O9 Q9 S9">
-    <cfRule type="cellIs" dxfId="111" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="33" operator="equal">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9 G9 I9 K9 M9 O9 Q9 S9">
-    <cfRule type="cellIs" dxfId="110" priority="34" operator="between">
+    <cfRule type="cellIs" dxfId="102" priority="34" operator="between">
       <formula>9.99</formula>
       <formula>9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9 G9 I9 K9 M9 O9 Q9 S9">
-    <cfRule type="cellIs" dxfId="109" priority="35" operator="between">
+    <cfRule type="cellIs" dxfId="101" priority="35" operator="between">
       <formula>8.99</formula>
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9 G9 I9 K9 M9 O9 Q9 S9">
-    <cfRule type="cellIs" dxfId="108" priority="36" operator="between">
+    <cfRule type="cellIs" dxfId="100" priority="36" operator="between">
       <formula>7.99</formula>
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9 G9 I9 K9 M9 O9 Q9 S9">
-    <cfRule type="cellIs" dxfId="107" priority="37" operator="between">
+    <cfRule type="cellIs" dxfId="99" priority="37" operator="between">
       <formula>6.99</formula>
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9 G9 I9 K9 M9 O9 Q9 S9">
-    <cfRule type="cellIs" dxfId="106" priority="38" operator="between">
+    <cfRule type="cellIs" dxfId="98" priority="38" operator="between">
       <formula>5.99</formula>
       <formula>5.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9 G9 I9 K9 M9 O9 Q9 S9">
-    <cfRule type="cellIs" dxfId="105" priority="39" operator="between">
+    <cfRule type="cellIs" dxfId="97" priority="39" operator="between">
       <formula>5.49</formula>
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9 G9 I9 K9 M9 O9 Q9 S9">
-    <cfRule type="cellIs" dxfId="104" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="40" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8 G8 I8 K8 M8 O8 Q8 S8">
-    <cfRule type="cellIs" dxfId="103" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="25" operator="equal">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8 G8 I8 K8 M8 O8 Q8 S8">
-    <cfRule type="cellIs" dxfId="102" priority="26" operator="between">
+    <cfRule type="cellIs" dxfId="94" priority="26" operator="between">
       <formula>9.99</formula>
       <formula>9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8 G8 I8 K8 M8 O8 Q8 S8">
-    <cfRule type="cellIs" dxfId="101" priority="27" operator="between">
+    <cfRule type="cellIs" dxfId="93" priority="27" operator="between">
       <formula>8.99</formula>
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8 G8 I8 K8 M8 O8 Q8 S8">
-    <cfRule type="cellIs" dxfId="100" priority="28" operator="between">
+    <cfRule type="cellIs" dxfId="92" priority="28" operator="between">
       <formula>7.99</formula>
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8 G8 I8 K8 M8 O8 Q8 S8">
-    <cfRule type="cellIs" dxfId="99" priority="29" operator="between">
+    <cfRule type="cellIs" dxfId="91" priority="29" operator="between">
       <formula>6.99</formula>
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8 G8 I8 K8 M8 O8 Q8 S8">
-    <cfRule type="cellIs" dxfId="98" priority="30" operator="between">
+    <cfRule type="cellIs" dxfId="90" priority="30" operator="between">
       <formula>5.99</formula>
       <formula>5.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8 G8 I8 K8 M8 O8 Q8 S8">
-    <cfRule type="cellIs" dxfId="97" priority="31" operator="between">
+    <cfRule type="cellIs" dxfId="89" priority="31" operator="between">
       <formula>5.49</formula>
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8 G8 I8 K8 M8 O8 Q8 S8">
-    <cfRule type="cellIs" dxfId="96" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="32" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10 G10 I10 K10 M10 O10 Q10 S10">
-    <cfRule type="cellIs" dxfId="95" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="17" operator="equal">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10 G10 I10 K10 M10 O10 Q10 S10">
-    <cfRule type="cellIs" dxfId="94" priority="18" operator="between">
+    <cfRule type="cellIs" dxfId="86" priority="18" operator="between">
       <formula>9.99</formula>
       <formula>9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10 G10 I10 K10 M10 O10 Q10 S10">
-    <cfRule type="cellIs" dxfId="93" priority="19" operator="between">
+    <cfRule type="cellIs" dxfId="85" priority="19" operator="between">
       <formula>8.99</formula>
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10 G10 I10 K10 M10 O10 Q10 S10">
-    <cfRule type="cellIs" dxfId="92" priority="20" operator="between">
+    <cfRule type="cellIs" dxfId="84" priority="20" operator="between">
       <formula>7.99</formula>
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10 G10 I10 K10 M10 O10 Q10 S10">
-    <cfRule type="cellIs" dxfId="91" priority="21" operator="between">
+    <cfRule type="cellIs" dxfId="83" priority="21" operator="between">
       <formula>6.99</formula>
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10 G10 I10 K10 M10 O10 Q10 S10">
-    <cfRule type="cellIs" dxfId="90" priority="22" operator="between">
+    <cfRule type="cellIs" dxfId="82" priority="22" operator="between">
       <formula>5.99</formula>
       <formula>5.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10 G10 I10 K10 M10 O10 Q10 S10">
-    <cfRule type="cellIs" dxfId="89" priority="23" operator="between">
+    <cfRule type="cellIs" dxfId="81" priority="23" operator="between">
       <formula>5.49</formula>
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10 G10 I10 K10 M10 O10 Q10 S10">
-    <cfRule type="cellIs" dxfId="88" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="24" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11 G11 I11 K11 M11 O11 Q11 S11">
-    <cfRule type="cellIs" dxfId="87" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="9" operator="equal">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11 G11 I11 K11 M11 O11 Q11 S11">
-    <cfRule type="cellIs" dxfId="86" priority="10" operator="between">
+    <cfRule type="cellIs" dxfId="78" priority="10" operator="between">
       <formula>9.99</formula>
       <formula>9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11 G11 I11 K11 M11 O11 Q11 S11">
-    <cfRule type="cellIs" dxfId="85" priority="11" operator="between">
+    <cfRule type="cellIs" dxfId="77" priority="11" operator="between">
       <formula>8.99</formula>
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11 G11 I11 K11 M11 O11 Q11 S11">
-    <cfRule type="cellIs" dxfId="84" priority="12" operator="between">
+    <cfRule type="cellIs" dxfId="76" priority="12" operator="between">
       <formula>7.99</formula>
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11 G11 I11 K11 M11 O11 Q11 S11">
-    <cfRule type="cellIs" dxfId="83" priority="13" operator="between">
+    <cfRule type="cellIs" dxfId="75" priority="13" operator="between">
       <formula>6.99</formula>
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11 G11 I11 K11 M11 O11 Q11 S11">
-    <cfRule type="cellIs" dxfId="82" priority="14" operator="between">
+    <cfRule type="cellIs" dxfId="74" priority="14" operator="between">
       <formula>5.99</formula>
       <formula>5.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11 G11 I11 K11 M11 O11 Q11 S11">
-    <cfRule type="cellIs" dxfId="81" priority="15" operator="between">
+    <cfRule type="cellIs" dxfId="73" priority="15" operator="between">
       <formula>5.49</formula>
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11 G11 I11 K11 M11 O11 Q11 S11">
-    <cfRule type="cellIs" dxfId="80" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="16" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7 G7 I7 K7 M7 O7 Q7 S7">
-    <cfRule type="cellIs" dxfId="79" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="1" operator="equal">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7 G7 I7 K7 M7 O7 Q7 S7">
-    <cfRule type="cellIs" dxfId="78" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="70" priority="2" operator="between">
       <formula>9.99</formula>
       <formula>9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7 G7 I7 K7 M7 O7 Q7 S7">
-    <cfRule type="cellIs" dxfId="77" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="69" priority="3" operator="between">
       <formula>8.99</formula>
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7 G7 I7 K7 M7 O7 Q7 S7">
-    <cfRule type="cellIs" dxfId="76" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="68" priority="4" operator="between">
       <formula>7.99</formula>
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7 G7 I7 K7 M7 O7 Q7 S7">
-    <cfRule type="cellIs" dxfId="75" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="67" priority="5" operator="between">
       <formula>6.99</formula>
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7 G7 I7 K7 M7 O7 Q7 S7">
-    <cfRule type="cellIs" dxfId="74" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="66" priority="6" operator="between">
       <formula>5.99</formula>
       <formula>5.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7 G7 I7 K7 M7 O7 Q7 S7">
-    <cfRule type="cellIs" dxfId="73" priority="7" operator="between">
+    <cfRule type="cellIs" dxfId="65" priority="7" operator="between">
       <formula>5.49</formula>
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7 G7 I7 K7 M7 O7 Q7 S7">
-    <cfRule type="cellIs" dxfId="72" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="8" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4170,42 +4104,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5FC9082-CAE4-466C-841B-C98B78D1D1C4}">
   <dimension ref="A1:Z18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C6" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" topLeftCell="B16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.5546875" style="47" customWidth="1"/>
-    <col min="2" max="2" width="8.109375" style="47" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" style="47" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="50.6640625" style="47" customWidth="1"/>
-    <col min="5" max="5" width="6.6640625" style="47" customWidth="1"/>
-    <col min="6" max="6" width="50.6640625" style="47" customWidth="1"/>
-    <col min="7" max="7" width="6.6640625" style="47" customWidth="1"/>
-    <col min="8" max="8" width="50.6640625" style="47" customWidth="1"/>
-    <col min="9" max="9" width="6.6640625" style="47" customWidth="1"/>
-    <col min="10" max="10" width="50.6640625" style="47" customWidth="1"/>
-    <col min="11" max="11" width="6.6640625" style="47" customWidth="1"/>
-    <col min="12" max="12" width="50.6640625" style="47" customWidth="1"/>
-    <col min="13" max="13" width="6.6640625" style="47" customWidth="1"/>
-    <col min="14" max="14" width="50.6640625" style="47" customWidth="1"/>
-    <col min="15" max="15" width="6.6640625" style="47" customWidth="1"/>
-    <col min="16" max="16" width="14.6640625" style="47" customWidth="1"/>
-    <col min="17" max="17" width="5.109375" style="47" customWidth="1"/>
-    <col min="18" max="18" width="14.6640625" style="47" customWidth="1"/>
-    <col min="19" max="19" width="5.109375" style="47" customWidth="1"/>
-    <col min="20" max="20" width="14.6640625" style="47" customWidth="1"/>
-    <col min="21" max="21" width="5.109375" style="47" customWidth="1"/>
-    <col min="22" max="22" width="15.6640625" style="47" customWidth="1"/>
-    <col min="23" max="23" width="5.109375" style="47" customWidth="1"/>
-    <col min="24" max="24" width="2.6640625" style="47" customWidth="1"/>
+    <col min="1" max="1" width="7.5703125" style="47" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" style="47" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="47" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="50.7109375" style="47" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" style="47" customWidth="1"/>
+    <col min="6" max="6" width="50.7109375" style="47" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" style="47" customWidth="1"/>
+    <col min="8" max="8" width="50.7109375" style="47" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" style="47" customWidth="1"/>
+    <col min="10" max="10" width="50.7109375" style="47" customWidth="1"/>
+    <col min="11" max="11" width="6.7109375" style="47" customWidth="1"/>
+    <col min="12" max="12" width="50.7109375" style="47" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="47" customWidth="1"/>
+    <col min="14" max="14" width="50.7109375" style="47" customWidth="1"/>
+    <col min="15" max="15" width="6.7109375" style="47" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="47" customWidth="1"/>
+    <col min="17" max="17" width="5.140625" style="47" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="47" customWidth="1"/>
+    <col min="19" max="19" width="5.140625" style="47" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="47" customWidth="1"/>
+    <col min="21" max="21" width="5.140625" style="47" customWidth="1"/>
+    <col min="22" max="22" width="15.7109375" style="47" customWidth="1"/>
+    <col min="23" max="23" width="5.140625" style="47" customWidth="1"/>
+    <col min="24" max="24" width="2.7109375" style="47" customWidth="1"/>
     <col min="25" max="25" width="42" style="47" customWidth="1"/>
-    <col min="26" max="26" width="42.109375" style="47" customWidth="1"/>
-    <col min="27" max="16384" width="14.44140625" style="47"/>
+    <col min="26" max="26" width="42.140625" style="47" customWidth="1"/>
+    <col min="27" max="16384" width="14.42578125" style="47"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4241,7 +4175,7 @@
       <c r="Y1" s="56"/>
       <c r="Z1" s="56"/>
     </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -4275,7 +4209,7 @@
       <c r="Y2" s="59"/>
       <c r="Z2" s="59"/>
     </row>
-    <row r="3" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
@@ -4311,7 +4245,7 @@
       <c r="Y3" s="62"/>
       <c r="Z3" s="62"/>
     </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="11"/>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
@@ -4373,7 +4307,7 @@
       <c r="Y4" s="13"/>
       <c r="Z4" s="13"/>
     </row>
-    <row r="5" spans="1:26" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
@@ -4405,7 +4339,7 @@
       </c>
       <c r="Z5" s="16"/>
     </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="11"/>
       <c r="B6" s="17" t="s">
         <v>21</v>
@@ -4491,7 +4425,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:26" s="46" customFormat="1" ht="139.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" s="46" customFormat="1" ht="139.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="70" t="s">
         <v>26</v>
       </c>
@@ -4557,7 +4491,7 @@
       <c r="Y7" s="44"/>
       <c r="Z7" s="45"/>
     </row>
-    <row r="8" spans="1:26" s="46" customFormat="1" ht="139.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" s="46" customFormat="1" ht="139.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="59"/>
       <c r="B8" s="20">
         <v>12335</v>
@@ -4568,27 +4502,39 @@
       <c r="D8" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="E8" s="30"/>
+      <c r="E8" s="30">
+        <v>9</v>
+      </c>
       <c r="F8" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="G8" s="30"/>
+      <c r="G8" s="30">
+        <v>7</v>
+      </c>
       <c r="H8" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="I8" s="30"/>
+      <c r="I8" s="30">
+        <v>8</v>
+      </c>
       <c r="J8" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="K8" s="30"/>
+      <c r="K8" s="30">
+        <v>8</v>
+      </c>
       <c r="L8" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="M8" s="30"/>
+      <c r="M8" s="30">
+        <v>8</v>
+      </c>
       <c r="N8" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="O8" s="30"/>
+      <c r="O8" s="30">
+        <v>9</v>
+      </c>
       <c r="P8" s="28" t="s">
         <v>28</v>
       </c>
@@ -4609,7 +4555,7 @@
       <c r="Y8" s="26"/>
       <c r="Z8" s="27"/>
     </row>
-    <row r="9" spans="1:26" s="46" customFormat="1" ht="139.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" s="46" customFormat="1" ht="139.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="59"/>
       <c r="B9" s="20">
         <v>428729</v>
@@ -4675,7 +4621,7 @@
       </c>
       <c r="Z9" s="27"/>
     </row>
-    <row r="10" spans="1:26" s="46" customFormat="1" ht="139.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" s="46" customFormat="1" ht="139.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="59"/>
       <c r="B10" s="20">
         <v>444711</v>
@@ -4739,7 +4685,7 @@
       <c r="Y10" s="26"/>
       <c r="Z10" s="27"/>
     </row>
-    <row r="11" spans="1:26" s="46" customFormat="1" ht="139.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" s="46" customFormat="1" ht="139.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="59"/>
       <c r="B11" s="20">
         <v>445021</v>
@@ -4803,7 +4749,7 @@
       <c r="Y11" s="26"/>
       <c r="Z11" s="27"/>
     </row>
-    <row r="12" spans="1:26" s="46" customFormat="1" ht="139.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" s="46" customFormat="1" ht="139.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="59"/>
       <c r="B12" s="48">
         <v>459575</v>
@@ -4867,7 +4813,7 @@
       <c r="Y12" s="53"/>
       <c r="Z12" s="54"/>
     </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="59"/>
       <c r="B13" s="20">
         <v>12335</v>
@@ -4919,7 +4865,7 @@
       <c r="Y13" s="26"/>
       <c r="Z13" s="27"/>
     </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="59"/>
       <c r="B14" s="20">
         <v>12335</v>
@@ -4971,7 +4917,7 @@
       <c r="Y14" s="26"/>
       <c r="Z14" s="27"/>
     </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="59"/>
       <c r="B15" s="20">
         <v>12335</v>
@@ -5023,7 +4969,7 @@
       <c r="Y15" s="26"/>
       <c r="Z15" s="27"/>
     </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="59"/>
       <c r="B16" s="20">
         <v>12335</v>
@@ -5075,7 +5021,7 @@
       <c r="Y16" s="26"/>
       <c r="Z16" s="27"/>
     </row>
-    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="31"/>
       <c r="B17" s="32"/>
       <c r="C17" s="32"/>
@@ -5153,7 +5099,7 @@
       <c r="Y17" s="32"/>
       <c r="Z17" s="32"/>
     </row>
-    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="67" t="s">
         <v>40</v>
       </c>
@@ -5194,140 +5140,140 @@
     <mergeCell ref="A7:A16"/>
   </mergeCells>
   <conditionalFormatting sqref="E4 G4 I4 K4 M4 O4 Q4 S4 U17 W17 S13:S17 Q13:Q17 O13:O17 M13:M17 K13:K17 I13:I17 G13:G17 E13:E17">
-    <cfRule type="cellIs" dxfId="71" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="73" operator="equal">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4 G4 I4 K4 M4 O4 Q4 S4 U17 W17 S13:S17 Q13:Q17 O13:O17 M13:M17 K13:K17 I13:I17 G13:G17 E13:E17">
-    <cfRule type="cellIs" dxfId="70" priority="74" operator="between">
+    <cfRule type="cellIs" dxfId="62" priority="74" operator="between">
       <formula>9.99</formula>
       <formula>9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4 G4 I4 K4 M4 O4 Q4 S4 U17 W17 S13:S17 Q13:Q17 O13:O17 M13:M17 K13:K17 I13:I17 G13:G17 E13:E17">
-    <cfRule type="cellIs" dxfId="69" priority="75" operator="between">
+    <cfRule type="cellIs" dxfId="61" priority="75" operator="between">
       <formula>8.99</formula>
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4 G4 I4 K4 M4 O4 Q4 S4 U17 W17 S13:S17 Q13:Q17 O13:O17 M13:M17 K13:K17 I13:I17 G13:G17 E13:E17">
-    <cfRule type="cellIs" dxfId="68" priority="76" operator="between">
+    <cfRule type="cellIs" dxfId="60" priority="76" operator="between">
       <formula>7.99</formula>
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4 G4 I4 K4 M4 O4 Q4 S4 U17 W17 S13:S17 Q13:Q17 O13:O17 M13:M17 K13:K17 I13:I17 G13:G17 E13:E17">
-    <cfRule type="cellIs" dxfId="67" priority="77" operator="between">
+    <cfRule type="cellIs" dxfId="59" priority="77" operator="between">
       <formula>6.99</formula>
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4 G4 I4 K4 M4 O4 Q4 S4 U17 W17 S13:S17 Q13:Q17 O13:O17 M13:M17 K13:K17 I13:I17 G13:G17 E13:E17">
-    <cfRule type="cellIs" dxfId="66" priority="78" operator="between">
+    <cfRule type="cellIs" dxfId="58" priority="78" operator="between">
       <formula>5.99</formula>
       <formula>5.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4 G4 I4 K4 M4 O4 Q4 S4 U17 W17 S13:S17 Q13:Q17 O13:O17 M13:M17 K13:K17 I13:I17 G13:G17 E13:E17">
-    <cfRule type="cellIs" dxfId="65" priority="79" operator="between">
+    <cfRule type="cellIs" dxfId="57" priority="79" operator="between">
       <formula>5.49</formula>
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4 G4 I4 K4 M4 O4 Q4 S4 U17 W17 S13:S17 Q13:Q17 O13:O17 M13:M17 K13:K17 I13:I17 G13:G17 E13:E17">
-    <cfRule type="cellIs" dxfId="64" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="80" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9 G9 I9 K9 M9 O9 Q9 S9">
-    <cfRule type="cellIs" dxfId="63" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="65" operator="equal">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9 G9 I9 K9 M9 O9 Q9 S9">
-    <cfRule type="cellIs" dxfId="62" priority="66" operator="between">
+    <cfRule type="cellIs" dxfId="54" priority="66" operator="between">
       <formula>9.99</formula>
       <formula>9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9 G9 I9 K9 M9 O9 Q9 S9">
-    <cfRule type="cellIs" dxfId="61" priority="67" operator="between">
+    <cfRule type="cellIs" dxfId="53" priority="67" operator="between">
       <formula>8.99</formula>
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9 G9 I9 K9 M9 O9 Q9 S9">
-    <cfRule type="cellIs" dxfId="60" priority="68" operator="between">
+    <cfRule type="cellIs" dxfId="52" priority="68" operator="between">
       <formula>7.99</formula>
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9 G9 I9 K9 M9 O9 Q9 S9">
-    <cfRule type="cellIs" dxfId="59" priority="69" operator="between">
+    <cfRule type="cellIs" dxfId="51" priority="69" operator="between">
       <formula>6.99</formula>
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9 G9 I9 K9 M9 O9 Q9 S9">
-    <cfRule type="cellIs" dxfId="58" priority="70" operator="between">
+    <cfRule type="cellIs" dxfId="50" priority="70" operator="between">
       <formula>5.99</formula>
       <formula>5.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9 G9 I9 K9 M9 O9 Q9 S9">
-    <cfRule type="cellIs" dxfId="57" priority="71" operator="between">
+    <cfRule type="cellIs" dxfId="49" priority="71" operator="between">
       <formula>5.49</formula>
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9 G9 I9 K9 M9 O9 Q9 S9">
-    <cfRule type="cellIs" dxfId="56" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="72" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11 G11 I11 K11 M11 O11 Q11 S11">
-    <cfRule type="cellIs" dxfId="55" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="41" operator="equal">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11 G11 I11 K11 M11 O11 Q11 S11">
-    <cfRule type="cellIs" dxfId="54" priority="42" operator="between">
+    <cfRule type="cellIs" dxfId="46" priority="42" operator="between">
       <formula>9.99</formula>
       <formula>9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11 G11 I11 K11 M11 O11 Q11 S11">
-    <cfRule type="cellIs" dxfId="53" priority="43" operator="between">
+    <cfRule type="cellIs" dxfId="45" priority="43" operator="between">
       <formula>8.99</formula>
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11 G11 I11 K11 M11 O11 Q11 S11">
-    <cfRule type="cellIs" dxfId="52" priority="44" operator="between">
+    <cfRule type="cellIs" dxfId="44" priority="44" operator="between">
       <formula>7.99</formula>
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11 G11 I11 K11 M11 O11 Q11 S11">
-    <cfRule type="cellIs" dxfId="51" priority="45" operator="between">
+    <cfRule type="cellIs" dxfId="43" priority="45" operator="between">
       <formula>6.99</formula>
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11 G11 I11 K11 M11 O11 Q11 S11">
-    <cfRule type="cellIs" dxfId="50" priority="46" operator="between">
+    <cfRule type="cellIs" dxfId="42" priority="46" operator="between">
       <formula>5.99</formula>
       <formula>5.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11 G11 I11 K11 M11 O11 Q11 S11">
-    <cfRule type="cellIs" dxfId="49" priority="47" operator="between">
+    <cfRule type="cellIs" dxfId="41" priority="47" operator="between">
       <formula>5.49</formula>
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11 G11 I11 K11 M11 O11 Q11 S11">
-    <cfRule type="cellIs" dxfId="48" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="48" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5470,48 +5416,48 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7 G7 I7 K7 M7 O7 Q7 S7">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7 G7 I7 K7 M7 O7 Q7 S7">
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="between">
       <formula>9.99</formula>
       <formula>9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7 G7 I7 K7 M7 O7 Q7 S7">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="13" priority="3" operator="between">
       <formula>8.99</formula>
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7 G7 I7 K7 M7 O7 Q7 S7">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="12" priority="4" operator="between">
       <formula>7.99</formula>
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7 G7 I7 K7 M7 O7 Q7 S7">
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="11" priority="5" operator="between">
       <formula>6.99</formula>
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7 G7 I7 K7 M7 O7 Q7 S7">
-    <cfRule type="cellIs" dxfId="2" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="10" priority="6" operator="between">
       <formula>5.99</formula>
       <formula>5.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7 G7 I7 K7 M7 O7 Q7 S7">
-    <cfRule type="cellIs" dxfId="1" priority="7" operator="between">
+    <cfRule type="cellIs" dxfId="9" priority="7" operator="between">
       <formula>5.49</formula>
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7 G7 I7 K7 M7 O7 Q7 S7">
-    <cfRule type="cellIs" dxfId="0" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5581,35 +5527,35 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.44140625" customWidth="1"/>
-    <col min="2" max="2" width="8.109375" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" customWidth="1"/>
+    <col min="1" max="1" width="7.42578125" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="5.109375" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" customWidth="1"/>
-    <col min="7" max="7" width="5.109375" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" customWidth="1"/>
-    <col min="9" max="9" width="5.109375" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" customWidth="1"/>
-    <col min="11" max="11" width="5.109375" customWidth="1"/>
-    <col min="12" max="12" width="14.6640625" customWidth="1"/>
-    <col min="13" max="13" width="5.109375" customWidth="1"/>
-    <col min="14" max="14" width="14.6640625" customWidth="1"/>
-    <col min="15" max="15" width="5.109375" customWidth="1"/>
-    <col min="16" max="16" width="14.6640625" customWidth="1"/>
-    <col min="17" max="17" width="5.109375" customWidth="1"/>
-    <col min="18" max="18" width="14.6640625" customWidth="1"/>
-    <col min="19" max="19" width="5.109375" customWidth="1"/>
-    <col min="20" max="20" width="14.6640625" customWidth="1"/>
-    <col min="21" max="21" width="5.109375" customWidth="1"/>
-    <col min="22" max="22" width="15.6640625" customWidth="1"/>
-    <col min="23" max="23" width="5.109375" customWidth="1"/>
-    <col min="24" max="24" width="2.6640625" customWidth="1"/>
+    <col min="5" max="5" width="5.140625" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="5.140625" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" customWidth="1"/>
+    <col min="9" max="9" width="5.140625" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" customWidth="1"/>
+    <col min="11" max="11" width="5.140625" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" customWidth="1"/>
+    <col min="13" max="13" width="5.140625" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" customWidth="1"/>
+    <col min="15" max="15" width="5.140625" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" customWidth="1"/>
+    <col min="17" max="17" width="5.140625" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" customWidth="1"/>
+    <col min="19" max="19" width="5.140625" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" customWidth="1"/>
+    <col min="21" max="21" width="5.140625" customWidth="1"/>
+    <col min="22" max="22" width="15.7109375" customWidth="1"/>
+    <col min="23" max="23" width="5.140625" customWidth="1"/>
+    <col min="24" max="24" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5645,7 +5591,7 @@
       <c r="Y1" s="56"/>
       <c r="Z1" s="56"/>
     </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -5677,7 +5623,7 @@
       <c r="Y2" s="59"/>
       <c r="Z2" s="59"/>
     </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
@@ -5711,7 +5657,7 @@
       <c r="Y3" s="62"/>
       <c r="Z3" s="62"/>
     </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -5773,7 +5719,7 @@
       <c r="Y4" s="10"/>
       <c r="Z4" s="10"/>
     </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -5805,7 +5751,7 @@
       </c>
       <c r="Z5" s="16"/>
     </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9"/>
       <c r="B6" s="17" t="s">
         <v>21</v>
@@ -5891,7 +5837,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="70" t="s">
         <v>26</v>
       </c>
@@ -5945,7 +5891,7 @@
       <c r="Y7" s="26"/>
       <c r="Z7" s="27"/>
     </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="59"/>
       <c r="B8" s="20">
         <v>12335</v>
@@ -5997,7 +5943,7 @@
       <c r="Y8" s="26"/>
       <c r="Z8" s="27"/>
     </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="59"/>
       <c r="B9" s="20">
         <v>12335</v>
@@ -6049,7 +5995,7 @@
       <c r="Y9" s="26"/>
       <c r="Z9" s="27"/>
     </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="59"/>
       <c r="B10" s="20">
         <v>12335</v>
@@ -6101,7 +6047,7 @@
       <c r="Y10" s="26"/>
       <c r="Z10" s="27"/>
     </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="59"/>
       <c r="B11" s="20">
         <v>12335</v>
@@ -6153,7 +6099,7 @@
       <c r="Y11" s="26"/>
       <c r="Z11" s="27"/>
     </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="59"/>
       <c r="B12" s="20">
         <v>12335</v>
@@ -6205,7 +6151,7 @@
       <c r="Y12" s="26"/>
       <c r="Z12" s="27"/>
     </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="59"/>
       <c r="B13" s="20">
         <v>12335</v>
@@ -6257,7 +6203,7 @@
       <c r="Y13" s="26"/>
       <c r="Z13" s="27"/>
     </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="59"/>
       <c r="B14" s="20">
         <v>12335</v>
@@ -6309,7 +6255,7 @@
       <c r="Y14" s="26"/>
       <c r="Z14" s="27"/>
     </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="59"/>
       <c r="B15" s="20">
         <v>12335</v>
@@ -6361,7 +6307,7 @@
       <c r="Y15" s="26"/>
       <c r="Z15" s="27"/>
     </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="59"/>
       <c r="B16" s="20">
         <v>12335</v>
@@ -6413,7 +6359,7 @@
       <c r="Y16" s="26"/>
       <c r="Z16" s="27"/>
     </row>
-    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="31"/>
       <c r="B17" s="32"/>
       <c r="C17" s="32"/>
@@ -6491,7 +6437,7 @@
       <c r="Y17" s="32"/>
       <c r="Z17" s="32"/>
     </row>
-    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="67" t="s">
         <v>40</v>
       </c>
@@ -6532,48 +6478,48 @@
     <mergeCell ref="D5:W5"/>
   </mergeCells>
   <conditionalFormatting sqref="E4 G4 I4 K4 M4 O4 Q4 S4 E7:E17 G7:G17 I7:I17 K7:K17 M7:M17 O7:O17 Q7:Q17 S7:S17 U17 W17">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4 G4 I4 K4 M4 O4 Q4 S4 E7:E17 G7:G17 I7:I17 K7:K17 M7:M17 O7:O17 Q7:Q17 S7:S17 U17 W17">
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="between">
       <formula>9.99</formula>
       <formula>9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4 G4 I4 K4 M4 O4 Q4 S4 E7:E17 G7:G17 I7:I17 K7:K17 M7:M17 O7:O17 Q7:Q17 S7:S17 U17 W17">
-    <cfRule type="cellIs" dxfId="13" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="between">
       <formula>8.99</formula>
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4 G4 I4 K4 M4 O4 Q4 S4 E7:E17 G7:G17 I7:I17 K7:K17 M7:M17 O7:O17 Q7:Q17 S7:S17 U17 W17">
-    <cfRule type="cellIs" dxfId="12" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="between">
       <formula>7.99</formula>
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4 G4 I4 K4 M4 O4 Q4 S4 E7:E17 G7:G17 I7:I17 K7:K17 M7:M17 O7:O17 Q7:Q17 S7:S17 U17 W17">
-    <cfRule type="cellIs" dxfId="11" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="between">
       <formula>6.99</formula>
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4 G4 I4 K4 M4 O4 Q4 S4 E7:E17 G7:G17 I7:I17 K7:K17 M7:M17 O7:O17 Q7:Q17 S7:S17 U17 W17">
-    <cfRule type="cellIs" dxfId="10" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="between">
       <formula>5.99</formula>
       <formula>5.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4 G4 I4 K4 M4 O4 Q4 S4 E7:E17 G7:G17 I7:I17 K7:K17 M7:M17 O7:O17 Q7:Q17 S7:S17 U17 W17">
-    <cfRule type="cellIs" dxfId="9" priority="7" operator="between">
+    <cfRule type="cellIs" dxfId="1" priority="7" operator="between">
       <formula>5.49</formula>
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4 G4 I4 K4 M4 O4 Q4 S4 E7:E17 G7:G17 I7:I17 K7:K17 M7:M17 O7:O17 Q7:Q17 S7:S17 U17 W17">
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="8" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6606,24 +6552,24 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" customWidth="1"/>
-    <col min="3" max="4" width="57.88671875" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" customWidth="1"/>
-    <col min="6" max="6" width="5.88671875" customWidth="1"/>
-    <col min="7" max="8" width="57.88671875" customWidth="1"/>
-    <col min="11" max="11" width="3.5546875" customWidth="1"/>
-    <col min="14" max="14" width="3.5546875" customWidth="1"/>
-    <col min="17" max="17" width="3.5546875" customWidth="1"/>
-    <col min="20" max="20" width="3.5546875" customWidth="1"/>
-    <col min="23" max="23" width="3.5546875" customWidth="1"/>
-    <col min="26" max="26" width="3.5546875" customWidth="1"/>
-    <col min="29" max="29" width="3.5546875" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" customWidth="1"/>
+    <col min="3" max="4" width="57.85546875" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" customWidth="1"/>
+    <col min="6" max="6" width="5.85546875" customWidth="1"/>
+    <col min="7" max="8" width="57.85546875" customWidth="1"/>
+    <col min="11" max="11" width="3.5703125" customWidth="1"/>
+    <col min="14" max="14" width="3.5703125" customWidth="1"/>
+    <col min="17" max="17" width="3.5703125" customWidth="1"/>
+    <col min="20" max="20" width="3.5703125" customWidth="1"/>
+    <col min="23" max="23" width="3.5703125" customWidth="1"/>
+    <col min="26" max="26" width="3.5703125" customWidth="1"/>
+    <col min="29" max="29" width="3.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="34"/>
       <c r="B1" s="36" t="str">
         <f>'Sprint 1'!C7</f>
@@ -6635,7 +6581,7 @@
         <v>Rowan Ramsey</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="34"/>
       <c r="B2" s="38" t="s">
         <v>41</v>
@@ -6657,7 +6603,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34" t="s">
         <v>44</v>
       </c>
@@ -6693,7 +6639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="34" t="s">
         <v>45</v>
       </c>
@@ -6725,7 +6671,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="34" t="s">
         <v>46</v>
       </c>
@@ -6757,7 +6703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="34"/>
       <c r="B6" s="36" t="str">
         <f>'Sprint 1'!C8</f>
@@ -6769,7 +6715,7 @@
         <v>Team Member 7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="34"/>
       <c r="B7" s="38" t="s">
         <v>41</v>
@@ -6791,7 +6737,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="34" t="s">
         <v>44</v>
       </c>
@@ -6823,7 +6769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="34" t="s">
         <v>45</v>
       </c>
@@ -6855,7 +6801,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="34" t="s">
         <v>46</v>
       </c>
@@ -6887,7 +6833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="34"/>
       <c r="B11" s="36" t="str">
         <f>'Sprint 1'!C9</f>
@@ -6899,7 +6845,7 @@
         <v>Team Member 8</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="34"/>
       <c r="B12" s="38" t="s">
         <v>41</v>
@@ -6921,7 +6867,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="34" t="s">
         <v>44</v>
       </c>
@@ -6954,7 +6900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="34" t="s">
         <v>45</v>
       </c>
@@ -6986,7 +6932,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="34" t="s">
         <v>46</v>
       </c>
@@ -7018,7 +6964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="34"/>
       <c r="B16" s="36" t="str">
         <f>'Sprint 1'!C10</f>
@@ -7031,7 +6977,7 @@
       </c>
       <c r="H16" s="34"/>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="34"/>
       <c r="B17" s="38" t="s">
         <v>41</v>
@@ -7053,7 +6999,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="34" t="s">
         <v>44</v>
       </c>
@@ -7085,7 +7031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="34" t="s">
         <v>45</v>
       </c>
@@ -7117,7 +7063,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="34" t="s">
         <v>46</v>
       </c>
@@ -7149,7 +7095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="34"/>
       <c r="B21" s="36" t="str">
         <f>'Sprint 1'!C11</f>
@@ -7163,7 +7109,7 @@
       <c r="G21" s="34"/>
       <c r="H21" s="34"/>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="34"/>
       <c r="B22" s="38" t="s">
         <v>41</v>
@@ -7185,7 +7131,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="34" t="s">
         <v>44</v>
       </c>
@@ -7217,7 +7163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="34" t="s">
         <v>45</v>
       </c>
@@ -7249,7 +7195,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="34" t="s">
         <v>46</v>
       </c>
@@ -7295,3027 +7241,3027 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="35" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="35">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="35">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="35">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="35">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="35">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="35">
         <v>5.5</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="35">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="35" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="35"/>
     </row>
-    <row r="11" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="35"/>
     </row>
-    <row r="12" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="35"/>
     </row>
-    <row r="13" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="35"/>
     </row>
-    <row r="14" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="37"/>
     </row>
-    <row r="15" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="37"/>
     </row>
-    <row r="16" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="37"/>
     </row>
-    <row r="17" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="37"/>
     </row>
-    <row r="18" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="37"/>
     </row>
-    <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="37"/>
     </row>
-    <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="37"/>
     </row>
-    <row r="21" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="37"/>
     </row>
-    <row r="22" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="37"/>
     </row>
-    <row r="23" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="37"/>
     </row>
-    <row r="24" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="37"/>
     </row>
-    <row r="25" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="37"/>
     </row>
-    <row r="26" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="37"/>
     </row>
-    <row r="27" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="37"/>
     </row>
-    <row r="28" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="37"/>
     </row>
-    <row r="29" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="37"/>
     </row>
-    <row r="30" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="37"/>
     </row>
-    <row r="31" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="37"/>
     </row>
-    <row r="32" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="37"/>
     </row>
-    <row r="33" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="37"/>
     </row>
-    <row r="34" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="37"/>
     </row>
-    <row r="35" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="37"/>
     </row>
-    <row r="36" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="37"/>
     </row>
-    <row r="37" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="37"/>
     </row>
-    <row r="38" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="37"/>
     </row>
-    <row r="39" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="37"/>
     </row>
-    <row r="40" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="37"/>
     </row>
-    <row r="41" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="37"/>
     </row>
-    <row r="42" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="37"/>
     </row>
-    <row r="43" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="37"/>
     </row>
-    <row r="44" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="37"/>
     </row>
-    <row r="45" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="37"/>
     </row>
-    <row r="46" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="37"/>
     </row>
-    <row r="47" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="37"/>
     </row>
-    <row r="48" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="37"/>
     </row>
-    <row r="49" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="37"/>
     </row>
-    <row r="50" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="37"/>
     </row>
-    <row r="51" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="37"/>
     </row>
-    <row r="52" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="37"/>
     </row>
-    <row r="53" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="37"/>
     </row>
-    <row r="54" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="37"/>
     </row>
-    <row r="55" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="37"/>
     </row>
-    <row r="56" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="37"/>
     </row>
-    <row r="57" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="37"/>
     </row>
-    <row r="58" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="37"/>
     </row>
-    <row r="59" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="37"/>
     </row>
-    <row r="60" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="37"/>
     </row>
-    <row r="61" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="37"/>
     </row>
-    <row r="62" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="37"/>
     </row>
-    <row r="63" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="37"/>
     </row>
-    <row r="64" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="37"/>
     </row>
-    <row r="65" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65" s="37"/>
     </row>
-    <row r="66" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="37"/>
     </row>
-    <row r="67" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A67" s="37"/>
     </row>
-    <row r="68" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A68" s="37"/>
     </row>
-    <row r="69" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A69" s="37"/>
     </row>
-    <row r="70" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A70" s="37"/>
     </row>
-    <row r="71" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A71" s="37"/>
     </row>
-    <row r="72" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A72" s="37"/>
     </row>
-    <row r="73" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A73" s="37"/>
     </row>
-    <row r="74" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A74" s="37"/>
     </row>
-    <row r="75" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A75" s="37"/>
     </row>
-    <row r="76" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A76" s="37"/>
     </row>
-    <row r="77" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A77" s="37"/>
     </row>
-    <row r="78" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A78" s="37"/>
     </row>
-    <row r="79" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A79" s="37"/>
     </row>
-    <row r="80" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A80" s="37"/>
     </row>
-    <row r="81" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A81" s="37"/>
     </row>
-    <row r="82" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A82" s="37"/>
     </row>
-    <row r="83" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A83" s="37"/>
     </row>
-    <row r="84" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A84" s="37"/>
     </row>
-    <row r="85" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A85" s="37"/>
     </row>
-    <row r="86" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A86" s="37"/>
     </row>
-    <row r="87" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A87" s="37"/>
     </row>
-    <row r="88" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A88" s="37"/>
     </row>
-    <row r="89" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A89" s="37"/>
     </row>
-    <row r="90" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A90" s="37"/>
     </row>
-    <row r="91" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A91" s="37"/>
     </row>
-    <row r="92" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A92" s="37"/>
     </row>
-    <row r="93" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A93" s="37"/>
     </row>
-    <row r="94" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A94" s="37"/>
     </row>
-    <row r="95" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A95" s="37"/>
     </row>
-    <row r="96" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A96" s="37"/>
     </row>
-    <row r="97" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A97" s="37"/>
     </row>
-    <row r="98" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A98" s="37"/>
     </row>
-    <row r="99" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A99" s="37"/>
     </row>
-    <row r="100" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A100" s="37"/>
     </row>
-    <row r="101" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A101" s="37"/>
     </row>
-    <row r="102" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A102" s="37"/>
     </row>
-    <row r="103" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A103" s="37"/>
     </row>
-    <row r="104" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A104" s="37"/>
     </row>
-    <row r="105" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A105" s="37"/>
     </row>
-    <row r="106" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A106" s="37"/>
     </row>
-    <row r="107" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A107" s="37"/>
     </row>
-    <row r="108" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A108" s="37"/>
     </row>
-    <row r="109" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A109" s="37"/>
     </row>
-    <row r="110" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A110" s="37"/>
     </row>
-    <row r="111" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A111" s="37"/>
     </row>
-    <row r="112" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A112" s="37"/>
     </row>
-    <row r="113" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A113" s="37"/>
     </row>
-    <row r="114" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A114" s="37"/>
     </row>
-    <row r="115" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A115" s="37"/>
     </row>
-    <row r="116" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A116" s="37"/>
     </row>
-    <row r="117" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A117" s="37"/>
     </row>
-    <row r="118" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A118" s="37"/>
     </row>
-    <row r="119" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A119" s="37"/>
     </row>
-    <row r="120" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A120" s="37"/>
     </row>
-    <row r="121" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A121" s="37"/>
     </row>
-    <row r="122" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A122" s="37"/>
     </row>
-    <row r="123" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A123" s="37"/>
     </row>
-    <row r="124" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A124" s="37"/>
     </row>
-    <row r="125" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A125" s="37"/>
     </row>
-    <row r="126" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A126" s="37"/>
     </row>
-    <row r="127" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A127" s="37"/>
     </row>
-    <row r="128" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A128" s="37"/>
     </row>
-    <row r="129" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A129" s="37"/>
     </row>
-    <row r="130" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A130" s="37"/>
     </row>
-    <row r="131" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A131" s="37"/>
     </row>
-    <row r="132" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A132" s="37"/>
     </row>
-    <row r="133" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A133" s="37"/>
     </row>
-    <row r="134" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A134" s="37"/>
     </row>
-    <row r="135" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A135" s="37"/>
     </row>
-    <row r="136" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A136" s="37"/>
     </row>
-    <row r="137" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A137" s="37"/>
     </row>
-    <row r="138" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A138" s="37"/>
     </row>
-    <row r="139" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A139" s="37"/>
     </row>
-    <row r="140" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A140" s="37"/>
     </row>
-    <row r="141" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A141" s="37"/>
     </row>
-    <row r="142" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A142" s="37"/>
     </row>
-    <row r="143" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A143" s="37"/>
     </row>
-    <row r="144" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A144" s="37"/>
     </row>
-    <row r="145" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A145" s="37"/>
     </row>
-    <row r="146" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A146" s="37"/>
     </row>
-    <row r="147" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A147" s="37"/>
     </row>
-    <row r="148" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A148" s="37"/>
     </row>
-    <row r="149" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A149" s="37"/>
     </row>
-    <row r="150" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A150" s="37"/>
     </row>
-    <row r="151" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A151" s="37"/>
     </row>
-    <row r="152" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A152" s="37"/>
     </row>
-    <row r="153" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A153" s="37"/>
     </row>
-    <row r="154" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A154" s="37"/>
     </row>
-    <row r="155" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A155" s="37"/>
     </row>
-    <row r="156" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A156" s="37"/>
     </row>
-    <row r="157" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A157" s="37"/>
     </row>
-    <row r="158" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A158" s="37"/>
     </row>
-    <row r="159" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A159" s="37"/>
     </row>
-    <row r="160" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A160" s="37"/>
     </row>
-    <row r="161" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A161" s="37"/>
     </row>
-    <row r="162" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A162" s="37"/>
     </row>
-    <row r="163" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A163" s="37"/>
     </row>
-    <row r="164" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A164" s="37"/>
     </row>
-    <row r="165" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A165" s="37"/>
     </row>
-    <row r="166" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A166" s="37"/>
     </row>
-    <row r="167" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A167" s="37"/>
     </row>
-    <row r="168" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A168" s="37"/>
     </row>
-    <row r="169" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A169" s="37"/>
     </row>
-    <row r="170" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A170" s="37"/>
     </row>
-    <row r="171" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A171" s="37"/>
     </row>
-    <row r="172" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A172" s="37"/>
     </row>
-    <row r="173" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A173" s="37"/>
     </row>
-    <row r="174" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A174" s="37"/>
     </row>
-    <row r="175" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A175" s="37"/>
     </row>
-    <row r="176" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A176" s="37"/>
     </row>
-    <row r="177" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A177" s="37"/>
     </row>
-    <row r="178" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A178" s="37"/>
     </row>
-    <row r="179" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A179" s="37"/>
     </row>
-    <row r="180" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A180" s="37"/>
     </row>
-    <row r="181" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A181" s="37"/>
     </row>
-    <row r="182" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A182" s="37"/>
     </row>
-    <row r="183" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A183" s="37"/>
     </row>
-    <row r="184" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A184" s="37"/>
     </row>
-    <row r="185" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A185" s="37"/>
     </row>
-    <row r="186" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A186" s="37"/>
     </row>
-    <row r="187" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A187" s="37"/>
     </row>
-    <row r="188" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A188" s="37"/>
     </row>
-    <row r="189" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A189" s="37"/>
     </row>
-    <row r="190" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A190" s="37"/>
     </row>
-    <row r="191" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A191" s="37"/>
     </row>
-    <row r="192" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A192" s="37"/>
     </row>
-    <row r="193" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A193" s="37"/>
     </row>
-    <row r="194" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A194" s="37"/>
     </row>
-    <row r="195" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A195" s="37"/>
     </row>
-    <row r="196" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A196" s="37"/>
     </row>
-    <row r="197" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A197" s="37"/>
     </row>
-    <row r="198" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A198" s="37"/>
     </row>
-    <row r="199" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A199" s="37"/>
     </row>
-    <row r="200" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A200" s="37"/>
     </row>
-    <row r="201" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A201" s="37"/>
     </row>
-    <row r="202" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A202" s="37"/>
     </row>
-    <row r="203" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A203" s="37"/>
     </row>
-    <row r="204" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A204" s="37"/>
     </row>
-    <row r="205" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A205" s="37"/>
     </row>
-    <row r="206" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A206" s="37"/>
     </row>
-    <row r="207" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A207" s="37"/>
     </row>
-    <row r="208" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A208" s="37"/>
     </row>
-    <row r="209" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A209" s="37"/>
     </row>
-    <row r="210" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A210" s="37"/>
     </row>
-    <row r="211" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A211" s="37"/>
     </row>
-    <row r="212" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A212" s="37"/>
     </row>
-    <row r="213" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A213" s="37"/>
     </row>
-    <row r="214" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A214" s="37"/>
     </row>
-    <row r="215" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A215" s="37"/>
     </row>
-    <row r="216" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A216" s="37"/>
     </row>
-    <row r="217" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A217" s="37"/>
     </row>
-    <row r="218" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A218" s="37"/>
     </row>
-    <row r="219" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A219" s="37"/>
     </row>
-    <row r="220" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A220" s="37"/>
     </row>
-    <row r="221" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A221" s="37"/>
     </row>
-    <row r="222" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A222" s="37"/>
     </row>
-    <row r="223" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A223" s="37"/>
     </row>
-    <row r="224" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A224" s="37"/>
     </row>
-    <row r="225" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A225" s="37"/>
     </row>
-    <row r="226" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A226" s="37"/>
     </row>
-    <row r="227" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A227" s="37"/>
     </row>
-    <row r="228" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A228" s="37"/>
     </row>
-    <row r="229" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A229" s="37"/>
     </row>
-    <row r="230" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A230" s="37"/>
     </row>
-    <row r="231" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A231" s="37"/>
     </row>
-    <row r="232" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A232" s="37"/>
     </row>
-    <row r="233" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A233" s="37"/>
     </row>
-    <row r="234" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A234" s="37"/>
     </row>
-    <row r="235" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A235" s="37"/>
     </row>
-    <row r="236" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A236" s="37"/>
     </row>
-    <row r="237" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A237" s="37"/>
     </row>
-    <row r="238" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A238" s="37"/>
     </row>
-    <row r="239" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A239" s="37"/>
     </row>
-    <row r="240" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A240" s="37"/>
     </row>
-    <row r="241" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A241" s="37"/>
     </row>
-    <row r="242" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A242" s="37"/>
     </row>
-    <row r="243" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A243" s="37"/>
     </row>
-    <row r="244" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A244" s="37"/>
     </row>
-    <row r="245" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A245" s="37"/>
     </row>
-    <row r="246" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A246" s="37"/>
     </row>
-    <row r="247" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A247" s="37"/>
     </row>
-    <row r="248" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A248" s="37"/>
     </row>
-    <row r="249" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A249" s="37"/>
     </row>
-    <row r="250" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A250" s="37"/>
     </row>
-    <row r="251" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A251" s="37"/>
     </row>
-    <row r="252" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A252" s="37"/>
     </row>
-    <row r="253" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A253" s="37"/>
     </row>
-    <row r="254" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A254" s="37"/>
     </row>
-    <row r="255" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A255" s="37"/>
     </row>
-    <row r="256" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A256" s="37"/>
     </row>
-    <row r="257" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A257" s="37"/>
     </row>
-    <row r="258" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A258" s="37"/>
     </row>
-    <row r="259" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A259" s="37"/>
     </row>
-    <row r="260" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A260" s="37"/>
     </row>
-    <row r="261" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A261" s="37"/>
     </row>
-    <row r="262" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A262" s="37"/>
     </row>
-    <row r="263" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A263" s="37"/>
     </row>
-    <row r="264" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A264" s="37"/>
     </row>
-    <row r="265" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A265" s="37"/>
     </row>
-    <row r="266" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A266" s="37"/>
     </row>
-    <row r="267" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A267" s="37"/>
     </row>
-    <row r="268" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A268" s="37"/>
     </row>
-    <row r="269" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A269" s="37"/>
     </row>
-    <row r="270" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A270" s="37"/>
     </row>
-    <row r="271" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A271" s="37"/>
     </row>
-    <row r="272" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A272" s="37"/>
     </row>
-    <row r="273" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A273" s="37"/>
     </row>
-    <row r="274" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A274" s="37"/>
     </row>
-    <row r="275" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A275" s="37"/>
     </row>
-    <row r="276" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A276" s="37"/>
     </row>
-    <row r="277" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A277" s="37"/>
     </row>
-    <row r="278" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A278" s="37"/>
     </row>
-    <row r="279" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A279" s="37"/>
     </row>
-    <row r="280" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A280" s="37"/>
     </row>
-    <row r="281" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A281" s="37"/>
     </row>
-    <row r="282" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A282" s="37"/>
     </row>
-    <row r="283" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A283" s="37"/>
     </row>
-    <row r="284" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A284" s="37"/>
     </row>
-    <row r="285" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A285" s="37"/>
     </row>
-    <row r="286" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A286" s="37"/>
     </row>
-    <row r="287" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A287" s="37"/>
     </row>
-    <row r="288" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A288" s="37"/>
     </row>
-    <row r="289" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A289" s="37"/>
     </row>
-    <row r="290" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A290" s="37"/>
     </row>
-    <row r="291" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A291" s="37"/>
     </row>
-    <row r="292" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A292" s="37"/>
     </row>
-    <row r="293" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A293" s="37"/>
     </row>
-    <row r="294" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A294" s="37"/>
     </row>
-    <row r="295" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A295" s="37"/>
     </row>
-    <row r="296" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A296" s="37"/>
     </row>
-    <row r="297" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A297" s="37"/>
     </row>
-    <row r="298" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A298" s="37"/>
     </row>
-    <row r="299" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A299" s="37"/>
     </row>
-    <row r="300" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A300" s="37"/>
     </row>
-    <row r="301" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A301" s="37"/>
     </row>
-    <row r="302" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A302" s="37"/>
     </row>
-    <row r="303" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A303" s="37"/>
     </row>
-    <row r="304" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A304" s="37"/>
     </row>
-    <row r="305" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A305" s="37"/>
     </row>
-    <row r="306" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A306" s="37"/>
     </row>
-    <row r="307" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A307" s="37"/>
     </row>
-    <row r="308" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A308" s="37"/>
     </row>
-    <row r="309" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A309" s="37"/>
     </row>
-    <row r="310" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A310" s="37"/>
     </row>
-    <row r="311" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A311" s="37"/>
     </row>
-    <row r="312" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A312" s="37"/>
     </row>
-    <row r="313" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A313" s="37"/>
     </row>
-    <row r="314" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A314" s="37"/>
     </row>
-    <row r="315" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A315" s="37"/>
     </row>
-    <row r="316" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A316" s="37"/>
     </row>
-    <row r="317" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A317" s="37"/>
     </row>
-    <row r="318" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A318" s="37"/>
     </row>
-    <row r="319" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A319" s="37"/>
     </row>
-    <row r="320" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A320" s="37"/>
     </row>
-    <row r="321" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A321" s="37"/>
     </row>
-    <row r="322" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A322" s="37"/>
     </row>
-    <row r="323" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A323" s="37"/>
     </row>
-    <row r="324" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A324" s="37"/>
     </row>
-    <row r="325" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A325" s="37"/>
     </row>
-    <row r="326" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A326" s="37"/>
     </row>
-    <row r="327" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A327" s="37"/>
     </row>
-    <row r="328" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A328" s="37"/>
     </row>
-    <row r="329" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A329" s="37"/>
     </row>
-    <row r="330" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A330" s="37"/>
     </row>
-    <row r="331" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A331" s="37"/>
     </row>
-    <row r="332" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A332" s="37"/>
     </row>
-    <row r="333" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A333" s="37"/>
     </row>
-    <row r="334" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A334" s="37"/>
     </row>
-    <row r="335" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A335" s="37"/>
     </row>
-    <row r="336" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A336" s="37"/>
     </row>
-    <row r="337" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A337" s="37"/>
     </row>
-    <row r="338" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A338" s="37"/>
     </row>
-    <row r="339" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A339" s="37"/>
     </row>
-    <row r="340" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A340" s="37"/>
     </row>
-    <row r="341" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A341" s="37"/>
     </row>
-    <row r="342" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A342" s="37"/>
     </row>
-    <row r="343" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A343" s="37"/>
     </row>
-    <row r="344" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A344" s="37"/>
     </row>
-    <row r="345" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A345" s="37"/>
     </row>
-    <row r="346" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A346" s="37"/>
     </row>
-    <row r="347" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A347" s="37"/>
     </row>
-    <row r="348" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A348" s="37"/>
     </row>
-    <row r="349" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A349" s="37"/>
     </row>
-    <row r="350" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A350" s="37"/>
     </row>
-    <row r="351" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A351" s="37"/>
     </row>
-    <row r="352" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A352" s="37"/>
     </row>
-    <row r="353" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A353" s="37"/>
     </row>
-    <row r="354" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A354" s="37"/>
     </row>
-    <row r="355" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A355" s="37"/>
     </row>
-    <row r="356" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A356" s="37"/>
     </row>
-    <row r="357" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A357" s="37"/>
     </row>
-    <row r="358" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A358" s="37"/>
     </row>
-    <row r="359" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A359" s="37"/>
     </row>
-    <row r="360" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A360" s="37"/>
     </row>
-    <row r="361" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A361" s="37"/>
     </row>
-    <row r="362" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A362" s="37"/>
     </row>
-    <row r="363" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A363" s="37"/>
     </row>
-    <row r="364" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A364" s="37"/>
     </row>
-    <row r="365" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A365" s="37"/>
     </row>
-    <row r="366" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A366" s="37"/>
     </row>
-    <row r="367" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A367" s="37"/>
     </row>
-    <row r="368" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A368" s="37"/>
     </row>
-    <row r="369" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A369" s="37"/>
     </row>
-    <row r="370" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A370" s="37"/>
     </row>
-    <row r="371" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A371" s="37"/>
     </row>
-    <row r="372" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A372" s="37"/>
     </row>
-    <row r="373" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A373" s="37"/>
     </row>
-    <row r="374" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A374" s="37"/>
     </row>
-    <row r="375" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A375" s="37"/>
     </row>
-    <row r="376" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A376" s="37"/>
     </row>
-    <row r="377" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A377" s="37"/>
     </row>
-    <row r="378" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A378" s="37"/>
     </row>
-    <row r="379" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A379" s="37"/>
     </row>
-    <row r="380" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A380" s="37"/>
     </row>
-    <row r="381" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A381" s="37"/>
     </row>
-    <row r="382" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A382" s="37"/>
     </row>
-    <row r="383" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A383" s="37"/>
     </row>
-    <row r="384" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A384" s="37"/>
     </row>
-    <row r="385" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A385" s="37"/>
     </row>
-    <row r="386" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A386" s="37"/>
     </row>
-    <row r="387" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A387" s="37"/>
     </row>
-    <row r="388" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A388" s="37"/>
     </row>
-    <row r="389" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A389" s="37"/>
     </row>
-    <row r="390" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A390" s="37"/>
     </row>
-    <row r="391" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A391" s="37"/>
     </row>
-    <row r="392" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A392" s="37"/>
     </row>
-    <row r="393" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A393" s="37"/>
     </row>
-    <row r="394" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A394" s="37"/>
     </row>
-    <row r="395" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A395" s="37"/>
     </row>
-    <row r="396" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A396" s="37"/>
     </row>
-    <row r="397" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A397" s="37"/>
     </row>
-    <row r="398" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A398" s="37"/>
     </row>
-    <row r="399" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A399" s="37"/>
     </row>
-    <row r="400" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A400" s="37"/>
     </row>
-    <row r="401" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A401" s="37"/>
     </row>
-    <row r="402" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A402" s="37"/>
     </row>
-    <row r="403" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A403" s="37"/>
     </row>
-    <row r="404" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A404" s="37"/>
     </row>
-    <row r="405" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A405" s="37"/>
     </row>
-    <row r="406" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A406" s="37"/>
     </row>
-    <row r="407" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A407" s="37"/>
     </row>
-    <row r="408" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A408" s="37"/>
     </row>
-    <row r="409" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A409" s="37"/>
     </row>
-    <row r="410" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A410" s="37"/>
     </row>
-    <row r="411" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A411" s="37"/>
     </row>
-    <row r="412" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A412" s="37"/>
     </row>
-    <row r="413" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A413" s="37"/>
     </row>
-    <row r="414" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A414" s="37"/>
     </row>
-    <row r="415" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A415" s="37"/>
     </row>
-    <row r="416" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A416" s="37"/>
     </row>
-    <row r="417" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A417" s="37"/>
     </row>
-    <row r="418" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A418" s="37"/>
     </row>
-    <row r="419" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A419" s="37"/>
     </row>
-    <row r="420" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A420" s="37"/>
     </row>
-    <row r="421" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A421" s="37"/>
     </row>
-    <row r="422" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A422" s="37"/>
     </row>
-    <row r="423" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A423" s="37"/>
     </row>
-    <row r="424" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A424" s="37"/>
     </row>
-    <row r="425" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A425" s="37"/>
     </row>
-    <row r="426" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A426" s="37"/>
     </row>
-    <row r="427" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A427" s="37"/>
     </row>
-    <row r="428" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A428" s="37"/>
     </row>
-    <row r="429" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A429" s="37"/>
     </row>
-    <row r="430" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A430" s="37"/>
     </row>
-    <row r="431" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A431" s="37"/>
     </row>
-    <row r="432" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A432" s="37"/>
     </row>
-    <row r="433" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A433" s="37"/>
     </row>
-    <row r="434" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A434" s="37"/>
     </row>
-    <row r="435" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A435" s="37"/>
     </row>
-    <row r="436" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A436" s="37"/>
     </row>
-    <row r="437" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A437" s="37"/>
     </row>
-    <row r="438" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A438" s="37"/>
     </row>
-    <row r="439" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A439" s="37"/>
     </row>
-    <row r="440" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A440" s="37"/>
     </row>
-    <row r="441" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A441" s="37"/>
     </row>
-    <row r="442" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A442" s="37"/>
     </row>
-    <row r="443" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A443" s="37"/>
     </row>
-    <row r="444" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A444" s="37"/>
     </row>
-    <row r="445" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A445" s="37"/>
     </row>
-    <row r="446" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A446" s="37"/>
     </row>
-    <row r="447" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A447" s="37"/>
     </row>
-    <row r="448" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A448" s="37"/>
     </row>
-    <row r="449" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A449" s="37"/>
     </row>
-    <row r="450" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A450" s="37"/>
     </row>
-    <row r="451" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A451" s="37"/>
     </row>
-    <row r="452" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A452" s="37"/>
     </row>
-    <row r="453" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A453" s="37"/>
     </row>
-    <row r="454" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A454" s="37"/>
     </row>
-    <row r="455" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A455" s="37"/>
     </row>
-    <row r="456" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A456" s="37"/>
     </row>
-    <row r="457" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A457" s="37"/>
     </row>
-    <row r="458" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A458" s="37"/>
     </row>
-    <row r="459" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A459" s="37"/>
     </row>
-    <row r="460" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A460" s="37"/>
     </row>
-    <row r="461" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A461" s="37"/>
     </row>
-    <row r="462" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A462" s="37"/>
     </row>
-    <row r="463" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A463" s="37"/>
     </row>
-    <row r="464" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A464" s="37"/>
     </row>
-    <row r="465" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A465" s="37"/>
     </row>
-    <row r="466" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A466" s="37"/>
     </row>
-    <row r="467" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A467" s="37"/>
     </row>
-    <row r="468" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A468" s="37"/>
     </row>
-    <row r="469" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A469" s="37"/>
     </row>
-    <row r="470" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A470" s="37"/>
     </row>
-    <row r="471" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A471" s="37"/>
     </row>
-    <row r="472" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A472" s="37"/>
     </row>
-    <row r="473" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A473" s="37"/>
     </row>
-    <row r="474" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A474" s="37"/>
     </row>
-    <row r="475" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A475" s="37"/>
     </row>
-    <row r="476" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A476" s="37"/>
     </row>
-    <row r="477" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A477" s="37"/>
     </row>
-    <row r="478" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A478" s="37"/>
     </row>
-    <row r="479" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A479" s="37"/>
     </row>
-    <row r="480" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A480" s="37"/>
     </row>
-    <row r="481" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A481" s="37"/>
     </row>
-    <row r="482" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A482" s="37"/>
     </row>
-    <row r="483" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A483" s="37"/>
     </row>
-    <row r="484" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A484" s="37"/>
     </row>
-    <row r="485" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A485" s="37"/>
     </row>
-    <row r="486" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A486" s="37"/>
     </row>
-    <row r="487" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A487" s="37"/>
     </row>
-    <row r="488" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A488" s="37"/>
     </row>
-    <row r="489" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A489" s="37"/>
     </row>
-    <row r="490" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A490" s="37"/>
     </row>
-    <row r="491" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A491" s="37"/>
     </row>
-    <row r="492" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A492" s="37"/>
     </row>
-    <row r="493" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A493" s="37"/>
     </row>
-    <row r="494" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A494" s="37"/>
     </row>
-    <row r="495" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A495" s="37"/>
     </row>
-    <row r="496" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A496" s="37"/>
     </row>
-    <row r="497" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A497" s="37"/>
     </row>
-    <row r="498" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A498" s="37"/>
     </row>
-    <row r="499" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A499" s="37"/>
     </row>
-    <row r="500" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A500" s="37"/>
     </row>
-    <row r="501" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A501" s="37"/>
     </row>
-    <row r="502" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A502" s="37"/>
     </row>
-    <row r="503" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A503" s="37"/>
     </row>
-    <row r="504" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A504" s="37"/>
     </row>
-    <row r="505" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A505" s="37"/>
     </row>
-    <row r="506" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A506" s="37"/>
     </row>
-    <row r="507" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A507" s="37"/>
     </row>
-    <row r="508" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A508" s="37"/>
     </row>
-    <row r="509" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A509" s="37"/>
     </row>
-    <row r="510" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A510" s="37"/>
     </row>
-    <row r="511" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A511" s="37"/>
     </row>
-    <row r="512" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A512" s="37"/>
     </row>
-    <row r="513" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A513" s="37"/>
     </row>
-    <row r="514" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A514" s="37"/>
     </row>
-    <row r="515" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A515" s="37"/>
     </row>
-    <row r="516" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A516" s="37"/>
     </row>
-    <row r="517" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A517" s="37"/>
     </row>
-    <row r="518" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A518" s="37"/>
     </row>
-    <row r="519" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A519" s="37"/>
     </row>
-    <row r="520" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A520" s="37"/>
     </row>
-    <row r="521" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A521" s="37"/>
     </row>
-    <row r="522" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A522" s="37"/>
     </row>
-    <row r="523" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A523" s="37"/>
     </row>
-    <row r="524" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A524" s="37"/>
     </row>
-    <row r="525" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A525" s="37"/>
     </row>
-    <row r="526" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A526" s="37"/>
     </row>
-    <row r="527" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A527" s="37"/>
     </row>
-    <row r="528" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A528" s="37"/>
     </row>
-    <row r="529" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A529" s="37"/>
     </row>
-    <row r="530" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A530" s="37"/>
     </row>
-    <row r="531" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A531" s="37"/>
     </row>
-    <row r="532" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A532" s="37"/>
     </row>
-    <row r="533" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A533" s="37"/>
     </row>
-    <row r="534" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A534" s="37"/>
     </row>
-    <row r="535" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A535" s="37"/>
     </row>
-    <row r="536" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A536" s="37"/>
     </row>
-    <row r="537" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A537" s="37"/>
     </row>
-    <row r="538" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A538" s="37"/>
     </row>
-    <row r="539" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A539" s="37"/>
     </row>
-    <row r="540" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A540" s="37"/>
     </row>
-    <row r="541" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A541" s="37"/>
     </row>
-    <row r="542" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A542" s="37"/>
     </row>
-    <row r="543" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A543" s="37"/>
     </row>
-    <row r="544" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A544" s="37"/>
     </row>
-    <row r="545" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A545" s="37"/>
     </row>
-    <row r="546" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A546" s="37"/>
     </row>
-    <row r="547" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A547" s="37"/>
     </row>
-    <row r="548" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A548" s="37"/>
     </row>
-    <row r="549" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A549" s="37"/>
     </row>
-    <row r="550" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A550" s="37"/>
     </row>
-    <row r="551" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A551" s="37"/>
     </row>
-    <row r="552" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A552" s="37"/>
     </row>
-    <row r="553" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A553" s="37"/>
     </row>
-    <row r="554" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A554" s="37"/>
     </row>
-    <row r="555" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A555" s="37"/>
     </row>
-    <row r="556" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A556" s="37"/>
     </row>
-    <row r="557" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A557" s="37"/>
     </row>
-    <row r="558" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A558" s="37"/>
     </row>
-    <row r="559" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A559" s="37"/>
     </row>
-    <row r="560" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A560" s="37"/>
     </row>
-    <row r="561" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A561" s="37"/>
     </row>
-    <row r="562" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A562" s="37"/>
     </row>
-    <row r="563" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A563" s="37"/>
     </row>
-    <row r="564" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A564" s="37"/>
     </row>
-    <row r="565" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A565" s="37"/>
     </row>
-    <row r="566" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A566" s="37"/>
     </row>
-    <row r="567" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A567" s="37"/>
     </row>
-    <row r="568" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A568" s="37"/>
     </row>
-    <row r="569" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A569" s="37"/>
     </row>
-    <row r="570" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A570" s="37"/>
     </row>
-    <row r="571" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A571" s="37"/>
     </row>
-    <row r="572" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A572" s="37"/>
     </row>
-    <row r="573" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A573" s="37"/>
     </row>
-    <row r="574" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A574" s="37"/>
     </row>
-    <row r="575" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A575" s="37"/>
     </row>
-    <row r="576" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A576" s="37"/>
     </row>
-    <row r="577" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A577" s="37"/>
     </row>
-    <row r="578" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A578" s="37"/>
     </row>
-    <row r="579" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A579" s="37"/>
     </row>
-    <row r="580" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A580" s="37"/>
     </row>
-    <row r="581" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A581" s="37"/>
     </row>
-    <row r="582" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A582" s="37"/>
     </row>
-    <row r="583" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A583" s="37"/>
     </row>
-    <row r="584" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A584" s="37"/>
     </row>
-    <row r="585" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A585" s="37"/>
     </row>
-    <row r="586" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A586" s="37"/>
     </row>
-    <row r="587" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A587" s="37"/>
     </row>
-    <row r="588" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A588" s="37"/>
     </row>
-    <row r="589" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A589" s="37"/>
     </row>
-    <row r="590" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A590" s="37"/>
     </row>
-    <row r="591" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A591" s="37"/>
     </row>
-    <row r="592" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A592" s="37"/>
     </row>
-    <row r="593" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A593" s="37"/>
     </row>
-    <row r="594" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A594" s="37"/>
     </row>
-    <row r="595" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A595" s="37"/>
     </row>
-    <row r="596" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A596" s="37"/>
     </row>
-    <row r="597" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A597" s="37"/>
     </row>
-    <row r="598" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A598" s="37"/>
     </row>
-    <row r="599" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A599" s="37"/>
     </row>
-    <row r="600" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A600" s="37"/>
     </row>
-    <row r="601" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A601" s="37"/>
     </row>
-    <row r="602" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A602" s="37"/>
     </row>
-    <row r="603" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A603" s="37"/>
     </row>
-    <row r="604" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A604" s="37"/>
     </row>
-    <row r="605" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A605" s="37"/>
     </row>
-    <row r="606" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A606" s="37"/>
     </row>
-    <row r="607" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A607" s="37"/>
     </row>
-    <row r="608" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A608" s="37"/>
     </row>
-    <row r="609" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A609" s="37"/>
     </row>
-    <row r="610" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A610" s="37"/>
     </row>
-    <row r="611" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A611" s="37"/>
     </row>
-    <row r="612" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A612" s="37"/>
     </row>
-    <row r="613" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A613" s="37"/>
     </row>
-    <row r="614" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A614" s="37"/>
     </row>
-    <row r="615" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A615" s="37"/>
     </row>
-    <row r="616" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A616" s="37"/>
     </row>
-    <row r="617" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A617" s="37"/>
     </row>
-    <row r="618" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A618" s="37"/>
     </row>
-    <row r="619" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A619" s="37"/>
     </row>
-    <row r="620" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A620" s="37"/>
     </row>
-    <row r="621" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A621" s="37"/>
     </row>
-    <row r="622" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A622" s="37"/>
     </row>
-    <row r="623" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A623" s="37"/>
     </row>
-    <row r="624" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A624" s="37"/>
     </row>
-    <row r="625" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A625" s="37"/>
     </row>
-    <row r="626" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A626" s="37"/>
     </row>
-    <row r="627" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A627" s="37"/>
     </row>
-    <row r="628" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A628" s="37"/>
     </row>
-    <row r="629" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A629" s="37"/>
     </row>
-    <row r="630" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A630" s="37"/>
     </row>
-    <row r="631" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A631" s="37"/>
     </row>
-    <row r="632" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A632" s="37"/>
     </row>
-    <row r="633" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A633" s="37"/>
     </row>
-    <row r="634" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A634" s="37"/>
     </row>
-    <row r="635" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A635" s="37"/>
     </row>
-    <row r="636" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A636" s="37"/>
     </row>
-    <row r="637" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A637" s="37"/>
     </row>
-    <row r="638" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A638" s="37"/>
     </row>
-    <row r="639" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A639" s="37"/>
     </row>
-    <row r="640" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A640" s="37"/>
     </row>
-    <row r="641" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A641" s="37"/>
     </row>
-    <row r="642" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A642" s="37"/>
     </row>
-    <row r="643" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A643" s="37"/>
     </row>
-    <row r="644" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A644" s="37"/>
     </row>
-    <row r="645" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A645" s="37"/>
     </row>
-    <row r="646" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A646" s="37"/>
     </row>
-    <row r="647" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A647" s="37"/>
     </row>
-    <row r="648" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A648" s="37"/>
     </row>
-    <row r="649" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A649" s="37"/>
     </row>
-    <row r="650" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A650" s="37"/>
     </row>
-    <row r="651" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A651" s="37"/>
     </row>
-    <row r="652" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A652" s="37"/>
     </row>
-    <row r="653" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A653" s="37"/>
     </row>
-    <row r="654" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A654" s="37"/>
     </row>
-    <row r="655" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A655" s="37"/>
     </row>
-    <row r="656" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A656" s="37"/>
     </row>
-    <row r="657" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A657" s="37"/>
     </row>
-    <row r="658" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A658" s="37"/>
     </row>
-    <row r="659" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A659" s="37"/>
     </row>
-    <row r="660" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A660" s="37"/>
     </row>
-    <row r="661" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A661" s="37"/>
     </row>
-    <row r="662" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A662" s="37"/>
     </row>
-    <row r="663" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A663" s="37"/>
     </row>
-    <row r="664" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A664" s="37"/>
     </row>
-    <row r="665" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A665" s="37"/>
     </row>
-    <row r="666" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A666" s="37"/>
     </row>
-    <row r="667" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A667" s="37"/>
     </row>
-    <row r="668" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A668" s="37"/>
     </row>
-    <row r="669" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A669" s="37"/>
     </row>
-    <row r="670" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A670" s="37"/>
     </row>
-    <row r="671" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A671" s="37"/>
     </row>
-    <row r="672" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A672" s="37"/>
     </row>
-    <row r="673" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A673" s="37"/>
     </row>
-    <row r="674" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A674" s="37"/>
     </row>
-    <row r="675" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A675" s="37"/>
     </row>
-    <row r="676" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A676" s="37"/>
     </row>
-    <row r="677" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A677" s="37"/>
     </row>
-    <row r="678" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A678" s="37"/>
     </row>
-    <row r="679" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A679" s="37"/>
     </row>
-    <row r="680" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A680" s="37"/>
     </row>
-    <row r="681" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A681" s="37"/>
     </row>
-    <row r="682" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A682" s="37"/>
     </row>
-    <row r="683" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A683" s="37"/>
     </row>
-    <row r="684" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A684" s="37"/>
     </row>
-    <row r="685" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A685" s="37"/>
     </row>
-    <row r="686" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A686" s="37"/>
     </row>
-    <row r="687" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A687" s="37"/>
     </row>
-    <row r="688" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A688" s="37"/>
     </row>
-    <row r="689" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A689" s="37"/>
     </row>
-    <row r="690" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A690" s="37"/>
     </row>
-    <row r="691" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A691" s="37"/>
     </row>
-    <row r="692" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A692" s="37"/>
     </row>
-    <row r="693" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A693" s="37"/>
     </row>
-    <row r="694" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A694" s="37"/>
     </row>
-    <row r="695" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A695" s="37"/>
     </row>
-    <row r="696" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A696" s="37"/>
     </row>
-    <row r="697" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A697" s="37"/>
     </row>
-    <row r="698" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A698" s="37"/>
     </row>
-    <row r="699" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A699" s="37"/>
     </row>
-    <row r="700" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A700" s="37"/>
     </row>
-    <row r="701" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A701" s="37"/>
     </row>
-    <row r="702" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A702" s="37"/>
     </row>
-    <row r="703" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A703" s="37"/>
     </row>
-    <row r="704" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A704" s="37"/>
     </row>
-    <row r="705" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A705" s="37"/>
     </row>
-    <row r="706" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A706" s="37"/>
     </row>
-    <row r="707" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A707" s="37"/>
     </row>
-    <row r="708" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A708" s="37"/>
     </row>
-    <row r="709" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A709" s="37"/>
     </row>
-    <row r="710" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A710" s="37"/>
     </row>
-    <row r="711" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A711" s="37"/>
     </row>
-    <row r="712" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A712" s="37"/>
     </row>
-    <row r="713" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A713" s="37"/>
     </row>
-    <row r="714" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A714" s="37"/>
     </row>
-    <row r="715" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A715" s="37"/>
     </row>
-    <row r="716" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A716" s="37"/>
     </row>
-    <row r="717" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A717" s="37"/>
     </row>
-    <row r="718" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A718" s="37"/>
     </row>
-    <row r="719" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A719" s="37"/>
     </row>
-    <row r="720" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A720" s="37"/>
     </row>
-    <row r="721" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A721" s="37"/>
     </row>
-    <row r="722" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A722" s="37"/>
     </row>
-    <row r="723" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A723" s="37"/>
     </row>
-    <row r="724" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A724" s="37"/>
     </row>
-    <row r="725" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A725" s="37"/>
     </row>
-    <row r="726" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A726" s="37"/>
     </row>
-    <row r="727" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A727" s="37"/>
     </row>
-    <row r="728" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A728" s="37"/>
     </row>
-    <row r="729" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A729" s="37"/>
     </row>
-    <row r="730" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A730" s="37"/>
     </row>
-    <row r="731" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A731" s="37"/>
     </row>
-    <row r="732" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A732" s="37"/>
     </row>
-    <row r="733" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A733" s="37"/>
     </row>
-    <row r="734" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A734" s="37"/>
     </row>
-    <row r="735" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A735" s="37"/>
     </row>
-    <row r="736" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A736" s="37"/>
     </row>
-    <row r="737" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A737" s="37"/>
     </row>
-    <row r="738" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A738" s="37"/>
     </row>
-    <row r="739" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A739" s="37"/>
     </row>
-    <row r="740" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A740" s="37"/>
     </row>
-    <row r="741" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A741" s="37"/>
     </row>
-    <row r="742" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A742" s="37"/>
     </row>
-    <row r="743" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A743" s="37"/>
     </row>
-    <row r="744" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A744" s="37"/>
     </row>
-    <row r="745" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A745" s="37"/>
     </row>
-    <row r="746" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A746" s="37"/>
     </row>
-    <row r="747" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A747" s="37"/>
     </row>
-    <row r="748" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A748" s="37"/>
     </row>
-    <row r="749" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A749" s="37"/>
     </row>
-    <row r="750" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A750" s="37"/>
     </row>
-    <row r="751" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A751" s="37"/>
     </row>
-    <row r="752" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A752" s="37"/>
     </row>
-    <row r="753" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A753" s="37"/>
     </row>
-    <row r="754" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A754" s="37"/>
     </row>
-    <row r="755" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A755" s="37"/>
     </row>
-    <row r="756" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A756" s="37"/>
     </row>
-    <row r="757" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A757" s="37"/>
     </row>
-    <row r="758" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A758" s="37"/>
     </row>
-    <row r="759" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A759" s="37"/>
     </row>
-    <row r="760" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A760" s="37"/>
     </row>
-    <row r="761" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A761" s="37"/>
     </row>
-    <row r="762" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A762" s="37"/>
     </row>
-    <row r="763" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A763" s="37"/>
     </row>
-    <row r="764" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A764" s="37"/>
     </row>
-    <row r="765" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A765" s="37"/>
     </row>
-    <row r="766" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A766" s="37"/>
     </row>
-    <row r="767" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A767" s="37"/>
     </row>
-    <row r="768" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A768" s="37"/>
     </row>
-    <row r="769" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A769" s="37"/>
     </row>
-    <row r="770" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A770" s="37"/>
     </row>
-    <row r="771" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A771" s="37"/>
     </row>
-    <row r="772" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A772" s="37"/>
     </row>
-    <row r="773" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A773" s="37"/>
     </row>
-    <row r="774" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A774" s="37"/>
     </row>
-    <row r="775" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A775" s="37"/>
     </row>
-    <row r="776" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A776" s="37"/>
     </row>
-    <row r="777" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A777" s="37"/>
     </row>
-    <row r="778" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A778" s="37"/>
     </row>
-    <row r="779" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A779" s="37"/>
     </row>
-    <row r="780" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A780" s="37"/>
     </row>
-    <row r="781" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A781" s="37"/>
     </row>
-    <row r="782" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A782" s="37"/>
     </row>
-    <row r="783" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A783" s="37"/>
     </row>
-    <row r="784" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A784" s="37"/>
     </row>
-    <row r="785" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A785" s="37"/>
     </row>
-    <row r="786" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A786" s="37"/>
     </row>
-    <row r="787" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A787" s="37"/>
     </row>
-    <row r="788" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A788" s="37"/>
     </row>
-    <row r="789" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A789" s="37"/>
     </row>
-    <row r="790" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A790" s="37"/>
     </row>
-    <row r="791" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A791" s="37"/>
     </row>
-    <row r="792" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A792" s="37"/>
     </row>
-    <row r="793" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A793" s="37"/>
     </row>
-    <row r="794" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A794" s="37"/>
     </row>
-    <row r="795" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A795" s="37"/>
     </row>
-    <row r="796" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A796" s="37"/>
     </row>
-    <row r="797" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A797" s="37"/>
     </row>
-    <row r="798" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A798" s="37"/>
     </row>
-    <row r="799" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A799" s="37"/>
     </row>
-    <row r="800" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A800" s="37"/>
     </row>
-    <row r="801" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A801" s="37"/>
     </row>
-    <row r="802" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A802" s="37"/>
     </row>
-    <row r="803" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A803" s="37"/>
     </row>
-    <row r="804" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A804" s="37"/>
     </row>
-    <row r="805" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A805" s="37"/>
     </row>
-    <row r="806" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A806" s="37"/>
     </row>
-    <row r="807" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A807" s="37"/>
     </row>
-    <row r="808" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A808" s="37"/>
     </row>
-    <row r="809" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A809" s="37"/>
     </row>
-    <row r="810" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A810" s="37"/>
     </row>
-    <row r="811" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A811" s="37"/>
     </row>
-    <row r="812" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A812" s="37"/>
     </row>
-    <row r="813" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A813" s="37"/>
     </row>
-    <row r="814" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A814" s="37"/>
     </row>
-    <row r="815" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A815" s="37"/>
     </row>
-    <row r="816" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A816" s="37"/>
     </row>
-    <row r="817" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A817" s="37"/>
     </row>
-    <row r="818" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A818" s="37"/>
     </row>
-    <row r="819" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A819" s="37"/>
     </row>
-    <row r="820" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A820" s="37"/>
     </row>
-    <row r="821" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A821" s="37"/>
     </row>
-    <row r="822" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A822" s="37"/>
     </row>
-    <row r="823" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A823" s="37"/>
     </row>
-    <row r="824" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A824" s="37"/>
     </row>
-    <row r="825" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A825" s="37"/>
     </row>
-    <row r="826" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A826" s="37"/>
     </row>
-    <row r="827" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A827" s="37"/>
     </row>
-    <row r="828" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A828" s="37"/>
     </row>
-    <row r="829" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A829" s="37"/>
     </row>
-    <row r="830" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A830" s="37"/>
     </row>
-    <row r="831" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A831" s="37"/>
     </row>
-    <row r="832" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A832" s="37"/>
     </row>
-    <row r="833" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A833" s="37"/>
     </row>
-    <row r="834" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A834" s="37"/>
     </row>
-    <row r="835" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A835" s="37"/>
     </row>
-    <row r="836" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A836" s="37"/>
     </row>
-    <row r="837" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A837" s="37"/>
     </row>
-    <row r="838" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A838" s="37"/>
     </row>
-    <row r="839" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A839" s="37"/>
     </row>
-    <row r="840" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A840" s="37"/>
     </row>
-    <row r="841" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A841" s="37"/>
     </row>
-    <row r="842" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A842" s="37"/>
     </row>
-    <row r="843" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A843" s="37"/>
     </row>
-    <row r="844" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A844" s="37"/>
     </row>
-    <row r="845" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A845" s="37"/>
     </row>
-    <row r="846" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A846" s="37"/>
     </row>
-    <row r="847" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A847" s="37"/>
     </row>
-    <row r="848" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A848" s="37"/>
     </row>
-    <row r="849" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A849" s="37"/>
     </row>
-    <row r="850" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A850" s="37"/>
     </row>
-    <row r="851" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A851" s="37"/>
     </row>
-    <row r="852" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A852" s="37"/>
     </row>
-    <row r="853" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A853" s="37"/>
     </row>
-    <row r="854" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A854" s="37"/>
     </row>
-    <row r="855" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A855" s="37"/>
     </row>
-    <row r="856" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A856" s="37"/>
     </row>
-    <row r="857" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A857" s="37"/>
     </row>
-    <row r="858" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A858" s="37"/>
     </row>
-    <row r="859" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A859" s="37"/>
     </row>
-    <row r="860" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A860" s="37"/>
     </row>
-    <row r="861" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A861" s="37"/>
     </row>
-    <row r="862" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A862" s="37"/>
     </row>
-    <row r="863" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A863" s="37"/>
     </row>
-    <row r="864" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A864" s="37"/>
     </row>
-    <row r="865" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A865" s="37"/>
     </row>
-    <row r="866" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A866" s="37"/>
     </row>
-    <row r="867" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A867" s="37"/>
     </row>
-    <row r="868" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A868" s="37"/>
     </row>
-    <row r="869" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A869" s="37"/>
     </row>
-    <row r="870" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A870" s="37"/>
     </row>
-    <row r="871" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A871" s="37"/>
     </row>
-    <row r="872" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A872" s="37"/>
     </row>
-    <row r="873" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A873" s="37"/>
     </row>
-    <row r="874" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A874" s="37"/>
     </row>
-    <row r="875" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A875" s="37"/>
     </row>
-    <row r="876" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A876" s="37"/>
     </row>
-    <row r="877" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A877" s="37"/>
     </row>
-    <row r="878" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A878" s="37"/>
     </row>
-    <row r="879" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A879" s="37"/>
     </row>
-    <row r="880" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A880" s="37"/>
     </row>
-    <row r="881" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A881" s="37"/>
     </row>
-    <row r="882" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A882" s="37"/>
     </row>
-    <row r="883" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A883" s="37"/>
     </row>
-    <row r="884" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A884" s="37"/>
     </row>
-    <row r="885" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A885" s="37"/>
     </row>
-    <row r="886" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A886" s="37"/>
     </row>
-    <row r="887" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A887" s="37"/>
     </row>
-    <row r="888" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A888" s="37"/>
     </row>
-    <row r="889" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A889" s="37"/>
     </row>
-    <row r="890" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A890" s="37"/>
     </row>
-    <row r="891" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A891" s="37"/>
     </row>
-    <row r="892" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A892" s="37"/>
     </row>
-    <row r="893" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A893" s="37"/>
     </row>
-    <row r="894" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A894" s="37"/>
     </row>
-    <row r="895" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A895" s="37"/>
     </row>
-    <row r="896" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A896" s="37"/>
     </row>
-    <row r="897" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A897" s="37"/>
     </row>
-    <row r="898" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A898" s="37"/>
     </row>
-    <row r="899" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A899" s="37"/>
     </row>
-    <row r="900" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A900" s="37"/>
     </row>
-    <row r="901" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A901" s="37"/>
     </row>
-    <row r="902" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A902" s="37"/>
     </row>
-    <row r="903" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A903" s="37"/>
     </row>
-    <row r="904" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A904" s="37"/>
     </row>
-    <row r="905" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A905" s="37"/>
     </row>
-    <row r="906" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A906" s="37"/>
     </row>
-    <row r="907" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A907" s="37"/>
     </row>
-    <row r="908" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A908" s="37"/>
     </row>
-    <row r="909" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A909" s="37"/>
     </row>
-    <row r="910" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A910" s="37"/>
     </row>
-    <row r="911" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A911" s="37"/>
     </row>
-    <row r="912" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A912" s="37"/>
     </row>
-    <row r="913" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A913" s="37"/>
     </row>
-    <row r="914" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A914" s="37"/>
     </row>
-    <row r="915" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A915" s="37"/>
     </row>
-    <row r="916" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A916" s="37"/>
     </row>
-    <row r="917" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A917" s="37"/>
     </row>
-    <row r="918" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A918" s="37"/>
     </row>
-    <row r="919" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A919" s="37"/>
     </row>
-    <row r="920" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A920" s="37"/>
     </row>
-    <row r="921" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A921" s="37"/>
     </row>
-    <row r="922" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A922" s="37"/>
     </row>
-    <row r="923" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A923" s="37"/>
     </row>
-    <row r="924" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A924" s="37"/>
     </row>
-    <row r="925" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A925" s="37"/>
     </row>
-    <row r="926" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A926" s="37"/>
     </row>
-    <row r="927" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A927" s="37"/>
     </row>
-    <row r="928" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A928" s="37"/>
     </row>
-    <row r="929" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A929" s="37"/>
     </row>
-    <row r="930" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A930" s="37"/>
     </row>
-    <row r="931" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A931" s="37"/>
     </row>
-    <row r="932" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A932" s="37"/>
     </row>
-    <row r="933" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A933" s="37"/>
     </row>
-    <row r="934" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A934" s="37"/>
     </row>
-    <row r="935" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A935" s="37"/>
     </row>
-    <row r="936" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A936" s="37"/>
     </row>
-    <row r="937" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A937" s="37"/>
     </row>
-    <row r="938" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A938" s="37"/>
     </row>
-    <row r="939" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A939" s="37"/>
     </row>
-    <row r="940" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A940" s="37"/>
     </row>
-    <row r="941" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A941" s="37"/>
     </row>
-    <row r="942" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A942" s="37"/>
     </row>
-    <row r="943" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A943" s="37"/>
     </row>
-    <row r="944" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A944" s="37"/>
     </row>
-    <row r="945" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A945" s="37"/>
     </row>
-    <row r="946" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A946" s="37"/>
     </row>
-    <row r="947" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A947" s="37"/>
     </row>
-    <row r="948" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A948" s="37"/>
     </row>
-    <row r="949" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A949" s="37"/>
     </row>
-    <row r="950" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A950" s="37"/>
     </row>
-    <row r="951" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A951" s="37"/>
     </row>
-    <row r="952" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A952" s="37"/>
     </row>
-    <row r="953" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A953" s="37"/>
     </row>
-    <row r="954" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A954" s="37"/>
     </row>
-    <row r="955" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A955" s="37"/>
     </row>
-    <row r="956" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A956" s="37"/>
     </row>
-    <row r="957" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A957" s="37"/>
     </row>
-    <row r="958" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A958" s="37"/>
     </row>
-    <row r="959" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A959" s="37"/>
     </row>
-    <row r="960" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A960" s="37"/>
     </row>
-    <row r="961" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A961" s="37"/>
     </row>
-    <row r="962" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A962" s="37"/>
     </row>
-    <row r="963" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A963" s="37"/>
     </row>
-    <row r="964" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A964" s="37"/>
     </row>
-    <row r="965" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A965" s="37"/>
     </row>
-    <row r="966" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A966" s="37"/>
     </row>
-    <row r="967" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A967" s="37"/>
     </row>
-    <row r="968" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A968" s="37"/>
     </row>
-    <row r="969" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A969" s="37"/>
     </row>
-    <row r="970" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A970" s="37"/>
     </row>
-    <row r="971" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A971" s="37"/>
     </row>
-    <row r="972" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A972" s="37"/>
     </row>
-    <row r="973" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A973" s="37"/>
     </row>
-    <row r="974" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A974" s="37"/>
     </row>
-    <row r="975" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A975" s="37"/>
     </row>
-    <row r="976" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A976" s="37"/>
     </row>
-    <row r="977" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A977" s="37"/>
     </row>
-    <row r="978" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A978" s="37"/>
     </row>
-    <row r="979" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A979" s="37"/>
     </row>
-    <row r="980" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A980" s="37"/>
     </row>
-    <row r="981" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A981" s="37"/>
     </row>
-    <row r="982" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A982" s="37"/>
     </row>
-    <row r="983" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A983" s="37"/>
     </row>
-    <row r="984" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A984" s="37"/>
     </row>
-    <row r="985" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A985" s="37"/>
     </row>
-    <row r="986" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A986" s="37"/>
     </row>
-    <row r="987" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A987" s="37"/>
     </row>
-    <row r="988" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A988" s="37"/>
     </row>
-    <row r="989" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A989" s="37"/>
     </row>
-    <row r="990" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A990" s="37"/>
     </row>
-    <row r="991" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A991" s="37"/>
     </row>
-    <row r="992" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A992" s="37"/>
     </row>
-    <row r="993" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A993" s="37"/>
     </row>
-    <row r="994" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A994" s="37"/>
     </row>
-    <row r="995" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A995" s="37"/>
     </row>
-    <row r="996" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A996" s="37"/>
     </row>
-    <row r="997" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A997" s="37"/>
     </row>
-    <row r="998" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A998" s="37"/>
     </row>
-    <row r="999" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A999" s="37"/>
     </row>
-    <row r="1000" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1000" s="37"/>
     </row>
   </sheetData>
